--- a/刷题.xlsx
+++ b/刷题.xlsx
@@ -839,9 +839,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -936,29 +936,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -968,85 +946,6 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1065,6 +964,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -1072,8 +1018,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1100,13 +1100,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1118,55 +1172,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1184,7 +1196,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1196,79 +1262,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1409,50 +1409,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1474,11 +1441,35 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1493,16 +1484,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1511,148 +1511,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2111,9 +2111,9 @@
   <dimension ref="B1:F264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A229" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="D253" sqref="D253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="5"/>
@@ -2142,7 +2142,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="18" hidden="1" spans="2:6">
+    <row r="2" customFormat="1" ht="18" spans="2:6">
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="F2" s="20"/>
     </row>
-    <row r="3" customFormat="1" ht="18" hidden="1" spans="2:6">
+    <row r="3" customFormat="1" ht="18" spans="2:6">
       <c r="B3" s="4"/>
       <c r="C3" s="7"/>
       <c r="D3" s="6" t="s">
@@ -2355,7 +2355,7 @@
       <c r="E24" s="19"/>
       <c r="F24" s="20"/>
     </row>
-    <row r="25" customFormat="1" ht="18" hidden="1" spans="2:6">
+    <row r="25" customFormat="1" ht="18" spans="2:6">
       <c r="B25" s="10" t="s">
         <v>30</v>
       </c>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="F25" s="20"/>
     </row>
-    <row r="26" customFormat="1" ht="18" hidden="1" spans="2:6">
+    <row r="26" customFormat="1" ht="18" spans="2:6">
       <c r="B26" s="10"/>
       <c r="C26" s="13"/>
       <c r="D26" s="12" t="s">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="F26" s="20"/>
     </row>
-    <row r="27" customFormat="1" ht="18" hidden="1" spans="2:6">
+    <row r="27" customFormat="1" ht="18" spans="2:6">
       <c r="B27" s="10"/>
       <c r="C27" s="13"/>
       <c r="D27" s="12" t="s">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="F27" s="20"/>
     </row>
-    <row r="28" customFormat="1" ht="18" hidden="1" spans="2:6">
+    <row r="28" customFormat="1" ht="18" spans="2:6">
       <c r="B28" s="10"/>
       <c r="C28" s="13"/>
       <c r="D28" s="12" t="s">
@@ -2403,7 +2403,7 @@
       </c>
       <c r="F28" s="20"/>
     </row>
-    <row r="29" customFormat="1" ht="18" hidden="1" spans="2:6">
+    <row r="29" customFormat="1" ht="18" spans="2:6">
       <c r="B29" s="10"/>
       <c r="C29" s="13"/>
       <c r="D29" s="12" t="s">
@@ -2414,7 +2414,7 @@
       </c>
       <c r="F29" s="20"/>
     </row>
-    <row r="30" customFormat="1" ht="18" hidden="1" spans="2:6">
+    <row r="30" customFormat="1" ht="18" spans="2:6">
       <c r="B30" s="10"/>
       <c r="C30" s="13"/>
       <c r="D30" s="12" t="s">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="F30" s="20"/>
     </row>
-    <row r="31" customFormat="1" ht="18" hidden="1" spans="2:6">
+    <row r="31" customFormat="1" ht="18" spans="2:6">
       <c r="B31" s="10"/>
       <c r="C31" s="13"/>
       <c r="D31" s="12" t="s">
@@ -2479,7 +2479,7 @@
       <c r="E36" s="19"/>
       <c r="F36" s="20"/>
     </row>
-    <row r="37" customFormat="1" ht="18" hidden="1" spans="2:6">
+    <row r="37" customFormat="1" ht="18" spans="2:6">
       <c r="B37" s="10"/>
       <c r="C37" s="13"/>
       <c r="D37" s="12" t="s">
@@ -2490,7 +2490,7 @@
       </c>
       <c r="F37" s="20"/>
     </row>
-    <row r="38" customFormat="1" ht="18" hidden="1" spans="2:6">
+    <row r="38" customFormat="1" ht="18" spans="2:6">
       <c r="B38" s="10"/>
       <c r="C38" s="13"/>
       <c r="D38" s="12" t="s">
@@ -2670,7 +2670,7 @@
       <c r="E57" s="19"/>
       <c r="F57" s="20"/>
     </row>
-    <row r="58" customFormat="1" ht="18" hidden="1" spans="2:6">
+    <row r="58" customFormat="1" ht="18" spans="2:6">
       <c r="B58" s="16" t="s">
         <v>63</v>
       </c>
@@ -3043,7 +3043,7 @@
       <c r="E98" s="19"/>
       <c r="F98" s="20"/>
     </row>
-    <row r="99" customFormat="1" ht="18" hidden="1" spans="2:6">
+    <row r="99" customFormat="1" ht="18" spans="2:6">
       <c r="B99" s="24"/>
       <c r="C99" s="5" t="s">
         <v>105</v>
@@ -3198,7 +3198,7 @@
       <c r="E115" s="19"/>
       <c r="F115" s="20"/>
     </row>
-    <row r="116" customFormat="1" hidden="1" spans="2:6">
+    <row r="116" customFormat="1" spans="2:6">
       <c r="B116" s="26" t="s">
         <v>119</v>
       </c>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="F116" s="29"/>
     </row>
-    <row r="117" customFormat="1" hidden="1" spans="2:6">
+    <row r="117" customFormat="1" spans="2:6">
       <c r="B117" s="26"/>
       <c r="C117" s="26"/>
       <c r="D117" s="27" t="s">
@@ -3224,7 +3224,7 @@
       </c>
       <c r="F117" s="29"/>
     </row>
-    <row r="118" customFormat="1" hidden="1" spans="2:6">
+    <row r="118" customFormat="1" spans="2:6">
       <c r="B118" s="26"/>
       <c r="C118" s="26"/>
       <c r="D118" s="27" t="s">
@@ -3235,7 +3235,7 @@
       </c>
       <c r="F118" s="29"/>
     </row>
-    <row r="119" customFormat="1" hidden="1" spans="2:6">
+    <row r="119" customFormat="1" spans="2:6">
       <c r="B119" s="26"/>
       <c r="C119" s="26"/>
       <c r="D119" s="27" t="s">
@@ -3246,7 +3246,7 @@
       </c>
       <c r="F119" s="29"/>
     </row>
-    <row r="120" customFormat="1" hidden="1" spans="2:6">
+    <row r="120" customFormat="1" spans="2:6">
       <c r="B120" s="26"/>
       <c r="C120" s="26"/>
       <c r="D120" s="27" t="s">
@@ -3320,7 +3320,7 @@
       <c r="E127" s="30"/>
       <c r="F127" s="29"/>
     </row>
-    <row r="128" customFormat="1" hidden="1" spans="2:6">
+    <row r="128" customFormat="1" spans="2:6">
       <c r="B128" s="26"/>
       <c r="C128" s="26" t="s">
         <v>133</v>
@@ -3594,7 +3594,7 @@
       <c r="E157" s="30"/>
       <c r="F157" s="20"/>
     </row>
-    <row r="158" customFormat="1" ht="18" hidden="1" spans="2:6">
+    <row r="158" customFormat="1" ht="18" spans="2:6">
       <c r="B158" s="31"/>
       <c r="C158" s="32" t="s">
         <v>164</v>
@@ -3607,7 +3607,7 @@
       </c>
       <c r="F158" s="29"/>
     </row>
-    <row r="159" customFormat="1" ht="18" hidden="1" spans="2:6">
+    <row r="159" customFormat="1" ht="18" spans="2:6">
       <c r="B159" s="31"/>
       <c r="C159" s="34"/>
       <c r="D159" s="12" t="s">
@@ -4567,9 +4567,6 @@
     </row>
   </sheetData>
   <autoFilter ref="B1:F264">
-    <filterColumn colId="3">
-      <filters blank="1"/>
-    </filterColumn>
     <filterColumn colId="4">
       <filters blank="1"/>
     </filterColumn>

--- a/刷题.xlsx
+++ b/刷题.xlsx
@@ -838,10 +838,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -949,6 +949,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -956,19 +964,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -980,9 +988,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1003,16 +1026,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1026,15 +1056,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1049,31 +1072,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1100,31 +1100,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1142,7 +1148,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1154,13 +1184,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1172,67 +1196,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1250,13 +1238,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1268,7 +1256,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1409,71 +1409,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1498,6 +1433,62 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1506,144 +1497,153 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1652,7 +1652,7 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2111,9 +2111,9 @@
   <dimension ref="B1:F264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A229" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D253" sqref="D253"/>
+      <selection pane="bottomLeft" activeCell="D268" sqref="D268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="5"/>
@@ -2142,7 +2142,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="18" spans="2:6">
+    <row r="2" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="F2" s="20"/>
     </row>
-    <row r="3" customFormat="1" ht="18" spans="2:6">
+    <row r="3" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B3" s="4"/>
       <c r="C3" s="7"/>
       <c r="D3" s="6" t="s">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="F3" s="20"/>
     </row>
-    <row r="4" customFormat="1" ht="18" spans="2:6">
+    <row r="4" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B4" s="4"/>
       <c r="C4" s="7"/>
       <c r="D4" s="6" t="s">
@@ -2177,7 +2177,7 @@
       <c r="E4" s="19"/>
       <c r="F4" s="20"/>
     </row>
-    <row r="5" customFormat="1" ht="18" spans="2:6">
+    <row r="5" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B5" s="4"/>
       <c r="C5" s="7"/>
       <c r="D5" s="6" t="s">
@@ -2186,7 +2186,7 @@
       <c r="E5" s="19"/>
       <c r="F5" s="20"/>
     </row>
-    <row r="6" customFormat="1" ht="18" spans="2:6">
+    <row r="6" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B6" s="4"/>
       <c r="C6" s="7"/>
       <c r="D6" s="6" t="s">
@@ -2195,7 +2195,7 @@
       <c r="E6" s="19"/>
       <c r="F6" s="20"/>
     </row>
-    <row r="7" customFormat="1" ht="18" spans="2:6">
+    <row r="7" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B7" s="4"/>
       <c r="C7" s="7"/>
       <c r="D7" s="6" t="s">
@@ -2204,7 +2204,7 @@
       <c r="E7" s="19"/>
       <c r="F7" s="20"/>
     </row>
-    <row r="8" customFormat="1" ht="18" spans="2:6">
+    <row r="8" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B8" s="4"/>
       <c r="C8" s="7"/>
       <c r="D8" s="6" t="s">
@@ -2213,7 +2213,7 @@
       <c r="E8" s="19"/>
       <c r="F8" s="20"/>
     </row>
-    <row r="9" customFormat="1" ht="18" spans="2:6">
+    <row r="9" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B9" s="4"/>
       <c r="C9" s="7"/>
       <c r="D9" s="6" t="s">
@@ -2222,7 +2222,7 @@
       <c r="E9" s="19"/>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" customFormat="1" ht="18" spans="2:6">
+    <row r="10" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B10" s="4"/>
       <c r="C10" s="7"/>
       <c r="D10" s="6" t="s">
@@ -2231,7 +2231,7 @@
       <c r="E10" s="19"/>
       <c r="F10" s="20"/>
     </row>
-    <row r="11" customFormat="1" ht="18" spans="2:6">
+    <row r="11" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B11" s="4"/>
       <c r="C11" s="7"/>
       <c r="D11" s="6" t="s">
@@ -2240,7 +2240,7 @@
       <c r="E11" s="19"/>
       <c r="F11" s="20"/>
     </row>
-    <row r="12" customFormat="1" ht="18" spans="2:6">
+    <row r="12" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B12" s="4"/>
       <c r="C12" s="7"/>
       <c r="D12" s="6" t="s">
@@ -2249,14 +2249,14 @@
       <c r="E12" s="19"/>
       <c r="F12" s="20"/>
     </row>
-    <row r="13" customFormat="1" spans="2:6">
+    <row r="13" customFormat="1" hidden="1" spans="2:6">
       <c r="B13" s="4"/>
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
       <c r="E13" s="19"/>
       <c r="F13" s="20"/>
     </row>
-    <row r="14" customFormat="1" ht="18" spans="2:6">
+    <row r="14" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B14" s="4"/>
       <c r="C14" s="5" t="s">
         <v>19</v>
@@ -2267,7 +2267,7 @@
       <c r="E14" s="19"/>
       <c r="F14" s="20"/>
     </row>
-    <row r="15" customFormat="1" ht="18" spans="2:6">
+    <row r="15" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B15" s="4"/>
       <c r="C15" s="7"/>
       <c r="D15" s="6" t="s">
@@ -2276,7 +2276,7 @@
       <c r="E15" s="19"/>
       <c r="F15" s="20"/>
     </row>
-    <row r="16" customFormat="1" ht="18" spans="2:6">
+    <row r="16" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B16" s="4"/>
       <c r="C16" s="7"/>
       <c r="D16" s="6" t="s">
@@ -2285,7 +2285,7 @@
       <c r="E16" s="19"/>
       <c r="F16" s="20"/>
     </row>
-    <row r="17" customFormat="1" ht="18" spans="2:6">
+    <row r="17" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B17" s="4"/>
       <c r="C17" s="7"/>
       <c r="D17" s="6" t="s">
@@ -2294,7 +2294,7 @@
       <c r="E17" s="19"/>
       <c r="F17" s="20"/>
     </row>
-    <row r="18" customFormat="1" ht="18" spans="2:6">
+    <row r="18" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B18" s="4"/>
       <c r="C18" s="7"/>
       <c r="D18" s="6" t="s">
@@ -2303,7 +2303,7 @@
       <c r="E18" s="19"/>
       <c r="F18" s="20"/>
     </row>
-    <row r="19" customFormat="1" ht="18" spans="2:6">
+    <row r="19" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B19" s="4"/>
       <c r="C19" s="7"/>
       <c r="D19" s="6" t="s">
@@ -2312,7 +2312,7 @@
       <c r="E19" s="19"/>
       <c r="F19" s="20"/>
     </row>
-    <row r="20" customFormat="1" ht="18" spans="2:6">
+    <row r="20" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B20" s="4"/>
       <c r="C20" s="7"/>
       <c r="D20" s="6" t="s">
@@ -2321,7 +2321,7 @@
       <c r="E20" s="19"/>
       <c r="F20" s="20"/>
     </row>
-    <row r="21" customFormat="1" ht="18" spans="2:6">
+    <row r="21" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B21" s="4"/>
       <c r="C21" s="7"/>
       <c r="D21" s="6" t="s">
@@ -2330,7 +2330,7 @@
       <c r="E21" s="19"/>
       <c r="F21" s="20"/>
     </row>
-    <row r="22" customFormat="1" ht="18" spans="2:6">
+    <row r="22" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B22" s="4"/>
       <c r="C22" s="7"/>
       <c r="D22" s="6" t="s">
@@ -2339,7 +2339,7 @@
       <c r="E22" s="19"/>
       <c r="F22" s="20"/>
     </row>
-    <row r="23" customFormat="1" ht="18" spans="2:6">
+    <row r="23" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B23" s="4"/>
       <c r="C23" s="7"/>
       <c r="D23" s="6" t="s">
@@ -2348,14 +2348,14 @@
       <c r="E23" s="19"/>
       <c r="F23" s="20"/>
     </row>
-    <row r="24" customFormat="1" spans="2:6">
+    <row r="24" customFormat="1" hidden="1" spans="2:6">
       <c r="B24" s="4"/>
       <c r="C24" s="9"/>
       <c r="D24" s="8"/>
       <c r="E24" s="19"/>
       <c r="F24" s="20"/>
     </row>
-    <row r="25" customFormat="1" ht="18" spans="2:6">
+    <row r="25" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B25" s="10" t="s">
         <v>30</v>
       </c>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="F25" s="20"/>
     </row>
-    <row r="26" customFormat="1" ht="18" spans="2:6">
+    <row r="26" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B26" s="10"/>
       <c r="C26" s="13"/>
       <c r="D26" s="12" t="s">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="F26" s="20"/>
     </row>
-    <row r="27" customFormat="1" ht="18" spans="2:6">
+    <row r="27" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B27" s="10"/>
       <c r="C27" s="13"/>
       <c r="D27" s="12" t="s">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="F27" s="20"/>
     </row>
-    <row r="28" customFormat="1" ht="18" spans="2:6">
+    <row r="28" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B28" s="10"/>
       <c r="C28" s="13"/>
       <c r="D28" s="12" t="s">
@@ -2403,7 +2403,7 @@
       </c>
       <c r="F28" s="20"/>
     </row>
-    <row r="29" customFormat="1" ht="18" spans="2:6">
+    <row r="29" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B29" s="10"/>
       <c r="C29" s="13"/>
       <c r="D29" s="12" t="s">
@@ -2414,7 +2414,7 @@
       </c>
       <c r="F29" s="20"/>
     </row>
-    <row r="30" customFormat="1" ht="18" spans="2:6">
+    <row r="30" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B30" s="10"/>
       <c r="C30" s="13"/>
       <c r="D30" s="12" t="s">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="F30" s="20"/>
     </row>
-    <row r="31" customFormat="1" ht="18" spans="2:6">
+    <row r="31" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B31" s="10"/>
       <c r="C31" s="13"/>
       <c r="D31" s="12" t="s">
@@ -2436,14 +2436,14 @@
       </c>
       <c r="F31" s="20"/>
     </row>
-    <row r="32" customFormat="1" spans="2:6">
+    <row r="32" customFormat="1" hidden="1" spans="2:6">
       <c r="B32" s="10"/>
       <c r="C32" s="13"/>
       <c r="D32" s="14"/>
       <c r="E32" s="19"/>
       <c r="F32" s="20"/>
     </row>
-    <row r="33" customFormat="1" ht="18" spans="2:6">
+    <row r="33" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B33" s="10"/>
       <c r="C33" s="13"/>
       <c r="D33" s="12" t="s">
@@ -2452,7 +2452,7 @@
       <c r="E33" s="19"/>
       <c r="F33" s="20"/>
     </row>
-    <row r="34" customFormat="1" ht="18" spans="2:6">
+    <row r="34" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B34" s="10"/>
       <c r="C34" s="13"/>
       <c r="D34" s="12" t="s">
@@ -2461,7 +2461,7 @@
       <c r="E34" s="21"/>
       <c r="F34" s="20"/>
     </row>
-    <row r="35" customFormat="1" ht="18" spans="2:6">
+    <row r="35" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B35" s="10"/>
       <c r="C35" s="13"/>
       <c r="D35" s="12" t="s">
@@ -2470,7 +2470,7 @@
       <c r="E35" s="19"/>
       <c r="F35" s="20"/>
     </row>
-    <row r="36" customFormat="1" ht="18" spans="2:6">
+    <row r="36" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B36" s="10"/>
       <c r="C36" s="13"/>
       <c r="D36" s="12" t="s">
@@ -2479,7 +2479,7 @@
       <c r="E36" s="19"/>
       <c r="F36" s="20"/>
     </row>
-    <row r="37" customFormat="1" ht="18" spans="2:6">
+    <row r="37" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B37" s="10"/>
       <c r="C37" s="13"/>
       <c r="D37" s="12" t="s">
@@ -2490,7 +2490,7 @@
       </c>
       <c r="F37" s="20"/>
     </row>
-    <row r="38" customFormat="1" ht="18" spans="2:6">
+    <row r="38" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B38" s="10"/>
       <c r="C38" s="13"/>
       <c r="D38" s="12" t="s">
@@ -2501,14 +2501,14 @@
       </c>
       <c r="F38" s="20"/>
     </row>
-    <row r="39" customFormat="1" spans="2:6">
+    <row r="39" customFormat="1" hidden="1" spans="2:6">
       <c r="B39" s="10"/>
       <c r="C39" s="15"/>
       <c r="D39" s="14"/>
       <c r="E39" s="19"/>
       <c r="F39" s="20"/>
     </row>
-    <row r="40" customFormat="1" ht="18" spans="2:6">
+    <row r="40" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B40" s="10"/>
       <c r="C40" s="11" t="s">
         <v>45</v>
@@ -2519,7 +2519,7 @@
       <c r="E40" s="19"/>
       <c r="F40" s="20"/>
     </row>
-    <row r="41" customFormat="1" ht="18" spans="2:6">
+    <row r="41" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B41" s="10"/>
       <c r="C41" s="13"/>
       <c r="D41" s="12" t="s">
@@ -2528,7 +2528,7 @@
       <c r="E41" s="19"/>
       <c r="F41" s="20"/>
     </row>
-    <row r="42" customFormat="1" ht="18" spans="2:6">
+    <row r="42" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B42" s="10"/>
       <c r="C42" s="13"/>
       <c r="D42" s="12" t="s">
@@ -2537,7 +2537,7 @@
       <c r="E42" s="19"/>
       <c r="F42" s="20"/>
     </row>
-    <row r="43" customFormat="1" ht="18" spans="2:6">
+    <row r="43" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B43" s="10"/>
       <c r="C43" s="13"/>
       <c r="D43" s="12" t="s">
@@ -2546,7 +2546,7 @@
       <c r="E43" s="19"/>
       <c r="F43" s="20"/>
     </row>
-    <row r="44" customFormat="1" ht="18" spans="2:6">
+    <row r="44" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B44" s="10"/>
       <c r="C44" s="13"/>
       <c r="D44" s="12" t="s">
@@ -2555,7 +2555,7 @@
       <c r="E44" s="19"/>
       <c r="F44" s="20"/>
     </row>
-    <row r="45" customFormat="1" ht="18" spans="2:6">
+    <row r="45" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B45" s="10"/>
       <c r="C45" s="13"/>
       <c r="D45" s="12" t="s">
@@ -2564,7 +2564,7 @@
       <c r="E45" s="19"/>
       <c r="F45" s="20"/>
     </row>
-    <row r="46" customFormat="1" ht="18" spans="2:6">
+    <row r="46" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B46" s="10"/>
       <c r="C46" s="13"/>
       <c r="D46" s="12" t="s">
@@ -2573,7 +2573,7 @@
       <c r="E46" s="19"/>
       <c r="F46" s="20"/>
     </row>
-    <row r="47" customFormat="1" ht="18" spans="2:6">
+    <row r="47" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B47" s="10"/>
       <c r="C47" s="13"/>
       <c r="D47" s="12" t="s">
@@ -2582,7 +2582,7 @@
       <c r="E47" s="19"/>
       <c r="F47" s="20"/>
     </row>
-    <row r="48" customFormat="1" ht="18" spans="2:6">
+    <row r="48" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B48" s="10"/>
       <c r="C48" s="13"/>
       <c r="D48" s="12" t="s">
@@ -2591,7 +2591,7 @@
       <c r="E48" s="19"/>
       <c r="F48" s="20"/>
     </row>
-    <row r="49" customFormat="1" ht="18" spans="2:6">
+    <row r="49" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B49" s="10"/>
       <c r="C49" s="13"/>
       <c r="D49" s="12" t="s">
@@ -2600,14 +2600,14 @@
       <c r="E49" s="19"/>
       <c r="F49" s="20"/>
     </row>
-    <row r="50" customFormat="1" spans="2:6">
+    <row r="50" customFormat="1" hidden="1" spans="2:6">
       <c r="B50" s="10"/>
       <c r="C50" s="15"/>
       <c r="D50" s="14"/>
       <c r="E50" s="19"/>
       <c r="F50" s="20"/>
     </row>
-    <row r="51" customFormat="1" ht="18" spans="2:6">
+    <row r="51" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B51" s="10"/>
       <c r="C51" s="11" t="s">
         <v>56</v>
@@ -2618,7 +2618,7 @@
       <c r="E51" s="19"/>
       <c r="F51" s="20"/>
     </row>
-    <row r="52" customFormat="1" ht="18" spans="2:6">
+    <row r="52" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B52" s="10"/>
       <c r="C52" s="13"/>
       <c r="D52" s="12" t="s">
@@ -2627,7 +2627,7 @@
       <c r="E52" s="19"/>
       <c r="F52" s="20"/>
     </row>
-    <row r="53" customFormat="1" ht="18" spans="2:6">
+    <row r="53" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B53" s="10"/>
       <c r="C53" s="13"/>
       <c r="D53" s="12" t="s">
@@ -2636,7 +2636,7 @@
       <c r="E53" s="19"/>
       <c r="F53" s="20"/>
     </row>
-    <row r="54" customFormat="1" ht="18" spans="2:6">
+    <row r="54" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B54" s="10"/>
       <c r="C54" s="13"/>
       <c r="D54" s="12" t="s">
@@ -2645,7 +2645,7 @@
       <c r="E54" s="19"/>
       <c r="F54" s="20"/>
     </row>
-    <row r="55" customFormat="1" ht="18" spans="2:6">
+    <row r="55" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B55" s="10"/>
       <c r="C55" s="13"/>
       <c r="D55" s="12" t="s">
@@ -2654,7 +2654,7 @@
       <c r="E55" s="19"/>
       <c r="F55" s="20"/>
     </row>
-    <row r="56" customFormat="1" ht="18" spans="2:6">
+    <row r="56" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B56" s="10"/>
       <c r="C56" s="13"/>
       <c r="D56" s="12" t="s">
@@ -2663,14 +2663,14 @@
       <c r="E56" s="19"/>
       <c r="F56" s="20"/>
     </row>
-    <row r="57" customFormat="1" spans="2:6">
+    <row r="57" customFormat="1" hidden="1" spans="2:6">
       <c r="B57" s="10"/>
       <c r="C57" s="13"/>
       <c r="D57" s="14"/>
       <c r="E57" s="19"/>
       <c r="F57" s="20"/>
     </row>
-    <row r="58" customFormat="1" ht="18" spans="2:6">
+    <row r="58" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B58" s="16" t="s">
         <v>63</v>
       </c>
@@ -2685,7 +2685,7 @@
       </c>
       <c r="F58" s="20"/>
     </row>
-    <row r="59" customFormat="1" ht="18" spans="2:6">
+    <row r="59" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B59" s="17"/>
       <c r="C59" s="4"/>
       <c r="D59" s="6" t="s">
@@ -2694,7 +2694,7 @@
       <c r="E59" s="19"/>
       <c r="F59" s="20"/>
     </row>
-    <row r="60" customFormat="1" ht="18" spans="2:6">
+    <row r="60" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B60" s="17"/>
       <c r="C60" s="4"/>
       <c r="D60" s="6" t="s">
@@ -2703,7 +2703,7 @@
       <c r="E60" s="19"/>
       <c r="F60" s="20"/>
     </row>
-    <row r="61" customFormat="1" ht="18" spans="2:6">
+    <row r="61" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B61" s="17"/>
       <c r="C61" s="4"/>
       <c r="D61" s="6" t="s">
@@ -2712,7 +2712,7 @@
       <c r="E61" s="19"/>
       <c r="F61" s="20"/>
     </row>
-    <row r="62" customFormat="1" ht="18" spans="2:6">
+    <row r="62" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B62" s="17"/>
       <c r="C62" s="4"/>
       <c r="D62" s="6" t="s">
@@ -2721,7 +2721,7 @@
       <c r="E62" s="19"/>
       <c r="F62" s="20"/>
     </row>
-    <row r="63" customFormat="1" ht="18" spans="2:6">
+    <row r="63" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B63" s="17"/>
       <c r="C63" s="4"/>
       <c r="D63" s="6" t="s">
@@ -2730,7 +2730,7 @@
       <c r="E63" s="19"/>
       <c r="F63" s="20"/>
     </row>
-    <row r="64" customFormat="1" ht="18" spans="2:6">
+    <row r="64" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B64" s="17"/>
       <c r="C64" s="4"/>
       <c r="D64" s="6" t="s">
@@ -2739,14 +2739,14 @@
       <c r="E64" s="19"/>
       <c r="F64" s="20"/>
     </row>
-    <row r="65" customFormat="1" spans="2:6">
+    <row r="65" customFormat="1" hidden="1" spans="2:6">
       <c r="B65" s="17"/>
       <c r="C65" s="4"/>
       <c r="D65" s="6"/>
       <c r="E65" s="19"/>
       <c r="F65" s="20"/>
     </row>
-    <row r="66" customFormat="1" ht="18" spans="2:6">
+    <row r="66" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B66" s="17"/>
       <c r="C66" s="4" t="s">
         <v>72</v>
@@ -2757,7 +2757,7 @@
       <c r="E66" s="19"/>
       <c r="F66" s="20"/>
     </row>
-    <row r="67" customFormat="1" ht="18" spans="2:6">
+    <row r="67" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B67" s="17"/>
       <c r="C67" s="4"/>
       <c r="D67" s="12" t="s">
@@ -2766,7 +2766,7 @@
       <c r="E67" s="19"/>
       <c r="F67" s="20"/>
     </row>
-    <row r="68" customFormat="1" ht="18" spans="2:6">
+    <row r="68" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B68" s="17"/>
       <c r="C68" s="4"/>
       <c r="D68" s="12" t="s">
@@ -2775,7 +2775,7 @@
       <c r="E68" s="19"/>
       <c r="F68" s="20"/>
     </row>
-    <row r="69" customFormat="1" ht="18" spans="2:6">
+    <row r="69" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B69" s="17"/>
       <c r="C69" s="4"/>
       <c r="D69" s="12" t="s">
@@ -2784,7 +2784,7 @@
       <c r="E69" s="19"/>
       <c r="F69" s="20"/>
     </row>
-    <row r="70" customFormat="1" ht="18" spans="2:6">
+    <row r="70" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B70" s="17"/>
       <c r="C70" s="4"/>
       <c r="D70" s="12" t="s">
@@ -2793,7 +2793,7 @@
       <c r="E70" s="19"/>
       <c r="F70" s="20"/>
     </row>
-    <row r="71" customFormat="1" ht="18" spans="2:6">
+    <row r="71" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B71" s="17"/>
       <c r="C71" s="4"/>
       <c r="D71" s="12" t="s">
@@ -2802,7 +2802,7 @@
       <c r="E71" s="19"/>
       <c r="F71" s="20"/>
     </row>
-    <row r="72" customFormat="1" ht="18" spans="2:6">
+    <row r="72" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B72" s="17"/>
       <c r="C72" s="4"/>
       <c r="D72" s="12" t="s">
@@ -2811,7 +2811,7 @@
       <c r="E72" s="19"/>
       <c r="F72" s="20"/>
     </row>
-    <row r="73" customFormat="1" ht="18" spans="2:6">
+    <row r="73" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B73" s="17"/>
       <c r="C73" s="4"/>
       <c r="D73" s="12" t="s">
@@ -2820,7 +2820,7 @@
       <c r="E73" s="19"/>
       <c r="F73" s="20"/>
     </row>
-    <row r="74" customFormat="1" ht="18" spans="2:6">
+    <row r="74" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B74" s="17"/>
       <c r="C74" s="4"/>
       <c r="D74" s="12" t="s">
@@ -2829,7 +2829,7 @@
       <c r="E74" s="19"/>
       <c r="F74" s="20"/>
     </row>
-    <row r="75" customFormat="1" ht="18" spans="2:6">
+    <row r="75" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B75" s="17"/>
       <c r="C75" s="4"/>
       <c r="D75" s="12" t="s">
@@ -2838,7 +2838,7 @@
       <c r="E75" s="19"/>
       <c r="F75" s="20"/>
     </row>
-    <row r="76" customFormat="1" ht="18" spans="2:6">
+    <row r="76" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B76" s="17"/>
       <c r="C76" s="4"/>
       <c r="D76" s="12" t="s">
@@ -2847,7 +2847,7 @@
       <c r="E76" s="19"/>
       <c r="F76" s="20"/>
     </row>
-    <row r="77" customFormat="1" ht="18" spans="2:6">
+    <row r="77" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B77" s="17"/>
       <c r="C77" s="4"/>
       <c r="D77" s="12" t="s">
@@ -2856,7 +2856,7 @@
       <c r="E77" s="19"/>
       <c r="F77" s="20"/>
     </row>
-    <row r="78" customFormat="1" ht="18" spans="2:6">
+    <row r="78" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B78" s="17"/>
       <c r="C78" s="4"/>
       <c r="D78" s="12" t="s">
@@ -2865,14 +2865,14 @@
       <c r="E78" s="19"/>
       <c r="F78" s="20"/>
     </row>
-    <row r="79" customFormat="1" spans="2:6">
+    <row r="79" customFormat="1" hidden="1" spans="2:6">
       <c r="B79" s="22"/>
       <c r="C79" s="4"/>
       <c r="D79" s="23"/>
       <c r="E79" s="19"/>
       <c r="F79" s="20"/>
     </row>
-    <row r="80" customFormat="1" ht="18" spans="2:6">
+    <row r="80" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B80" s="24" t="s">
         <v>86</v>
       </c>
@@ -2885,7 +2885,7 @@
       <c r="E80" s="19"/>
       <c r="F80" s="20"/>
     </row>
-    <row r="81" customFormat="1" ht="18" spans="2:6">
+    <row r="81" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B81" s="24"/>
       <c r="C81" s="7"/>
       <c r="D81" s="6" t="s">
@@ -2894,7 +2894,7 @@
       <c r="E81" s="19"/>
       <c r="F81" s="20"/>
     </row>
-    <row r="82" customFormat="1" ht="18" spans="2:6">
+    <row r="82" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B82" s="24"/>
       <c r="C82" s="7"/>
       <c r="D82" s="6" t="s">
@@ -2903,7 +2903,7 @@
       <c r="E82" s="19"/>
       <c r="F82" s="20"/>
     </row>
-    <row r="83" customFormat="1" ht="18" spans="2:6">
+    <row r="83" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B83" s="24"/>
       <c r="C83" s="7"/>
       <c r="D83" s="6" t="s">
@@ -2912,7 +2912,7 @@
       <c r="E83" s="19"/>
       <c r="F83" s="20"/>
     </row>
-    <row r="84" customFormat="1" ht="18" spans="2:6">
+    <row r="84" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B84" s="24"/>
       <c r="C84" s="7"/>
       <c r="D84" s="6" t="s">
@@ -2921,7 +2921,7 @@
       <c r="E84" s="19"/>
       <c r="F84" s="20"/>
     </row>
-    <row r="85" customFormat="1" ht="18" spans="2:6">
+    <row r="85" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B85" s="24"/>
       <c r="C85" s="7"/>
       <c r="D85" s="12" t="s">
@@ -2930,7 +2930,7 @@
       <c r="E85" s="19"/>
       <c r="F85" s="20"/>
     </row>
-    <row r="86" customFormat="1" ht="18" spans="2:6">
+    <row r="86" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B86" s="24"/>
       <c r="C86" s="7"/>
       <c r="D86" s="6" t="s">
@@ -2939,7 +2939,7 @@
       <c r="E86" s="19"/>
       <c r="F86" s="20"/>
     </row>
-    <row r="87" customFormat="1" ht="18" spans="2:6">
+    <row r="87" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B87" s="24"/>
       <c r="C87" s="7"/>
       <c r="D87" s="6" t="s">
@@ -2948,7 +2948,7 @@
       <c r="E87" s="19"/>
       <c r="F87" s="20"/>
     </row>
-    <row r="88" customFormat="1" ht="18" spans="2:6">
+    <row r="88" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B88" s="24"/>
       <c r="C88" s="7"/>
       <c r="D88" s="6" t="s">
@@ -2957,7 +2957,7 @@
       <c r="E88" s="19"/>
       <c r="F88" s="20"/>
     </row>
-    <row r="89" customFormat="1" ht="18" spans="2:6">
+    <row r="89" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B89" s="24"/>
       <c r="C89" s="7"/>
       <c r="D89" s="6" t="s">
@@ -2966,7 +2966,7 @@
       <c r="E89" s="19"/>
       <c r="F89" s="20"/>
     </row>
-    <row r="90" customFormat="1" ht="18" spans="2:6">
+    <row r="90" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B90" s="24"/>
       <c r="C90" s="7"/>
       <c r="D90" s="6" t="s">
@@ -2975,7 +2975,7 @@
       <c r="E90" s="19"/>
       <c r="F90" s="20"/>
     </row>
-    <row r="91" customFormat="1" ht="18" spans="2:6">
+    <row r="91" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B91" s="24"/>
       <c r="C91" s="7"/>
       <c r="D91" s="6" t="s">
@@ -2984,7 +2984,7 @@
       <c r="E91" s="19"/>
       <c r="F91" s="20"/>
     </row>
-    <row r="92" customFormat="1" ht="18" spans="2:6">
+    <row r="92" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B92" s="24"/>
       <c r="C92" s="7"/>
       <c r="D92" s="6" t="s">
@@ -2993,14 +2993,14 @@
       <c r="E92" s="19"/>
       <c r="F92" s="20"/>
     </row>
-    <row r="93" customFormat="1" spans="2:6">
+    <row r="93" customFormat="1" hidden="1" spans="2:6">
       <c r="B93" s="24"/>
       <c r="C93" s="7"/>
       <c r="D93" s="25"/>
       <c r="E93" s="19"/>
       <c r="F93" s="20"/>
     </row>
-    <row r="94" customFormat="1" ht="18" spans="2:6">
+    <row r="94" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B94" s="24"/>
       <c r="C94" s="7"/>
       <c r="D94" s="6" t="s">
@@ -3009,7 +3009,7 @@
       <c r="E94" s="19"/>
       <c r="F94" s="20"/>
     </row>
-    <row r="95" customFormat="1" ht="18" spans="2:6">
+    <row r="95" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B95" s="24"/>
       <c r="C95" s="7"/>
       <c r="D95" s="6" t="s">
@@ -3018,7 +3018,7 @@
       <c r="E95" s="19"/>
       <c r="F95" s="20"/>
     </row>
-    <row r="96" customFormat="1" ht="18" spans="2:6">
+    <row r="96" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B96" s="24"/>
       <c r="C96" s="7"/>
       <c r="D96" s="6" t="s">
@@ -3027,7 +3027,7 @@
       <c r="E96" s="19"/>
       <c r="F96" s="20"/>
     </row>
-    <row r="97" customFormat="1" ht="18" spans="2:6">
+    <row r="97" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B97" s="24"/>
       <c r="C97" s="7"/>
       <c r="D97" s="6" t="s">
@@ -3036,14 +3036,14 @@
       <c r="E97" s="19"/>
       <c r="F97" s="20"/>
     </row>
-    <row r="98" customFormat="1" spans="2:6">
+    <row r="98" customFormat="1" hidden="1" spans="2:6">
       <c r="B98" s="24"/>
       <c r="C98" s="9"/>
       <c r="D98" s="23"/>
       <c r="E98" s="19"/>
       <c r="F98" s="20"/>
     </row>
-    <row r="99" customFormat="1" ht="18" spans="2:6">
+    <row r="99" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B99" s="24"/>
       <c r="C99" s="5" t="s">
         <v>105</v>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="F99" s="20"/>
     </row>
-    <row r="100" customFormat="1" ht="18" spans="2:6">
+    <row r="100" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B100" s="24"/>
       <c r="C100" s="7"/>
       <c r="D100" s="12" t="s">
@@ -3065,7 +3065,7 @@
       <c r="E100" s="19"/>
       <c r="F100" s="20"/>
     </row>
-    <row r="101" customFormat="1" ht="18" spans="2:6">
+    <row r="101" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B101" s="24"/>
       <c r="C101" s="7"/>
       <c r="D101" s="12" t="s">
@@ -3074,7 +3074,7 @@
       <c r="E101" s="19"/>
       <c r="F101" s="20"/>
     </row>
-    <row r="102" customFormat="1" ht="18" spans="2:6">
+    <row r="102" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B102" s="24"/>
       <c r="C102" s="7"/>
       <c r="D102" s="12" t="s">
@@ -3083,7 +3083,7 @@
       <c r="E102" s="19"/>
       <c r="F102" s="20"/>
     </row>
-    <row r="103" customFormat="1" ht="18" spans="2:6">
+    <row r="103" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B103" s="24"/>
       <c r="C103" s="7"/>
       <c r="D103" s="12" t="s">
@@ -3092,7 +3092,7 @@
       <c r="E103" s="19"/>
       <c r="F103" s="20"/>
     </row>
-    <row r="104" customFormat="1" ht="18" spans="2:6">
+    <row r="104" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B104" s="24"/>
       <c r="C104" s="7"/>
       <c r="D104" s="12" t="s">
@@ -3101,7 +3101,7 @@
       <c r="E104" s="19"/>
       <c r="F104" s="20"/>
     </row>
-    <row r="105" customFormat="1" ht="18" spans="2:6">
+    <row r="105" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B105" s="24"/>
       <c r="C105" s="7"/>
       <c r="D105" s="12" t="s">
@@ -3110,7 +3110,7 @@
       <c r="E105" s="19"/>
       <c r="F105" s="20"/>
     </row>
-    <row r="106" customFormat="1" ht="18" spans="2:6">
+    <row r="106" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B106" s="24"/>
       <c r="C106" s="7"/>
       <c r="D106" s="12" t="s">
@@ -3119,7 +3119,7 @@
       <c r="E106" s="19"/>
       <c r="F106" s="20"/>
     </row>
-    <row r="107" customFormat="1" ht="18" spans="2:6">
+    <row r="107" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B107" s="24"/>
       <c r="C107" s="7"/>
       <c r="D107" s="12" t="s">
@@ -3128,7 +3128,7 @@
       <c r="E107" s="19"/>
       <c r="F107" s="20"/>
     </row>
-    <row r="108" customFormat="1" ht="18" spans="2:6">
+    <row r="108" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B108" s="24"/>
       <c r="C108" s="7"/>
       <c r="D108" s="12" t="s">
@@ -3137,7 +3137,7 @@
       <c r="E108" s="19"/>
       <c r="F108" s="20"/>
     </row>
-    <row r="109" customFormat="1" ht="18" spans="2:6">
+    <row r="109" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B109" s="24"/>
       <c r="C109" s="7"/>
       <c r="D109" s="12" t="s">
@@ -3146,7 +3146,7 @@
       <c r="E109" s="19"/>
       <c r="F109" s="20"/>
     </row>
-    <row r="110" customFormat="1" ht="18" spans="2:6">
+    <row r="110" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B110" s="24"/>
       <c r="C110" s="7"/>
       <c r="D110" s="12" t="s">
@@ -3155,7 +3155,7 @@
       <c r="E110" s="19"/>
       <c r="F110" s="20"/>
     </row>
-    <row r="111" customFormat="1" ht="18" spans="2:6">
+    <row r="111" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B111" s="24"/>
       <c r="C111" s="7"/>
       <c r="D111" s="12" t="s">
@@ -3164,7 +3164,7 @@
       <c r="E111" s="19"/>
       <c r="F111" s="20"/>
     </row>
-    <row r="112" customFormat="1" ht="18" spans="2:6">
+    <row r="112" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B112" s="24"/>
       <c r="C112" s="7"/>
       <c r="D112" s="12" t="s">
@@ -3173,7 +3173,7 @@
       <c r="E112" s="19"/>
       <c r="F112" s="20"/>
     </row>
-    <row r="113" customFormat="1" ht="18" spans="2:6">
+    <row r="113" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B113" s="24"/>
       <c r="C113" s="7"/>
       <c r="D113" s="12" t="s">
@@ -3182,7 +3182,7 @@
       <c r="E113" s="19"/>
       <c r="F113" s="20"/>
     </row>
-    <row r="114" customFormat="1" ht="18" spans="2:6">
+    <row r="114" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B114" s="24"/>
       <c r="C114" s="7"/>
       <c r="D114" s="12" t="s">
@@ -3191,14 +3191,14 @@
       <c r="E114" s="19"/>
       <c r="F114" s="20"/>
     </row>
-    <row r="115" customFormat="1" spans="2:6">
+    <row r="115" customFormat="1" hidden="1" spans="2:6">
       <c r="B115" s="24"/>
       <c r="C115" s="9"/>
       <c r="D115" s="14"/>
       <c r="E115" s="19"/>
       <c r="F115" s="20"/>
     </row>
-    <row r="116" customFormat="1" spans="2:6">
+    <row r="116" customFormat="1" hidden="1" spans="2:6">
       <c r="B116" s="26" t="s">
         <v>119</v>
       </c>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="F116" s="29"/>
     </row>
-    <row r="117" customFormat="1" spans="2:6">
+    <row r="117" customFormat="1" hidden="1" spans="2:6">
       <c r="B117" s="26"/>
       <c r="C117" s="26"/>
       <c r="D117" s="27" t="s">
@@ -3224,7 +3224,7 @@
       </c>
       <c r="F117" s="29"/>
     </row>
-    <row r="118" customFormat="1" spans="2:6">
+    <row r="118" customFormat="1" hidden="1" spans="2:6">
       <c r="B118" s="26"/>
       <c r="C118" s="26"/>
       <c r="D118" s="27" t="s">
@@ -3235,7 +3235,7 @@
       </c>
       <c r="F118" s="29"/>
     </row>
-    <row r="119" customFormat="1" spans="2:6">
+    <row r="119" customFormat="1" hidden="1" spans="2:6">
       <c r="B119" s="26"/>
       <c r="C119" s="26"/>
       <c r="D119" s="27" t="s">
@@ -3246,7 +3246,7 @@
       </c>
       <c r="F119" s="29"/>
     </row>
-    <row r="120" customFormat="1" spans="2:6">
+    <row r="120" customFormat="1" hidden="1" spans="2:6">
       <c r="B120" s="26"/>
       <c r="C120" s="26"/>
       <c r="D120" s="27" t="s">
@@ -3266,7 +3266,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="122" customFormat="1" spans="2:6">
+    <row r="122" customFormat="1" hidden="1" spans="2:6">
       <c r="B122" s="26"/>
       <c r="C122" s="26" t="s">
         <v>127</v>
@@ -3277,7 +3277,7 @@
       <c r="E122" s="21"/>
       <c r="F122" s="29"/>
     </row>
-    <row r="123" customFormat="1" spans="2:6">
+    <row r="123" customFormat="1" hidden="1" spans="2:6">
       <c r="B123" s="26"/>
       <c r="C123" s="26"/>
       <c r="D123" s="27" t="s">
@@ -3286,7 +3286,7 @@
       <c r="E123" s="21"/>
       <c r="F123" s="29"/>
     </row>
-    <row r="124" customFormat="1" spans="2:6">
+    <row r="124" customFormat="1" hidden="1" spans="2:6">
       <c r="B124" s="26"/>
       <c r="C124" s="26"/>
       <c r="D124" s="27" t="s">
@@ -3295,7 +3295,7 @@
       <c r="E124" s="21"/>
       <c r="F124" s="29"/>
     </row>
-    <row r="125" customFormat="1" spans="2:6">
+    <row r="125" customFormat="1" hidden="1" spans="2:6">
       <c r="B125" s="26"/>
       <c r="C125" s="26"/>
       <c r="D125" s="27" t="s">
@@ -3304,7 +3304,7 @@
       <c r="E125" s="21"/>
       <c r="F125" s="29"/>
     </row>
-    <row r="126" customFormat="1" spans="2:6">
+    <row r="126" customFormat="1" hidden="1" spans="2:6">
       <c r="B126" s="26"/>
       <c r="C126" s="26"/>
       <c r="D126" s="27" t="s">
@@ -3313,14 +3313,14 @@
       <c r="E126" s="21"/>
       <c r="F126" s="29"/>
     </row>
-    <row r="127" customFormat="1" spans="2:6">
+    <row r="127" customFormat="1" hidden="1" spans="2:6">
       <c r="B127" s="26"/>
       <c r="C127" s="26"/>
       <c r="D127" s="25"/>
       <c r="E127" s="30"/>
       <c r="F127" s="29"/>
     </row>
-    <row r="128" customFormat="1" spans="2:6">
+    <row r="128" customFormat="1" hidden="1" spans="2:6">
       <c r="B128" s="26"/>
       <c r="C128" s="26" t="s">
         <v>133</v>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="F128" s="29"/>
     </row>
-    <row r="129" customFormat="1" spans="2:6">
+    <row r="129" customFormat="1" hidden="1" spans="2:6">
       <c r="B129" s="26"/>
       <c r="C129" s="26"/>
       <c r="D129" s="27" t="s">
@@ -3342,7 +3342,7 @@
       <c r="E129" s="21"/>
       <c r="F129" s="29"/>
     </row>
-    <row r="130" customFormat="1" spans="2:6">
+    <row r="130" customFormat="1" hidden="1" spans="2:6">
       <c r="B130" s="26"/>
       <c r="C130" s="26"/>
       <c r="D130" s="27" t="s">
@@ -3351,7 +3351,7 @@
       <c r="E130" s="21"/>
       <c r="F130" s="29"/>
     </row>
-    <row r="131" customFormat="1" spans="2:6">
+    <row r="131" customFormat="1" hidden="1" spans="2:6">
       <c r="B131" s="26"/>
       <c r="C131" s="26"/>
       <c r="D131" s="27" t="s">
@@ -3360,7 +3360,7 @@
       <c r="E131" s="21"/>
       <c r="F131" s="29"/>
     </row>
-    <row r="132" customFormat="1" spans="2:6">
+    <row r="132" customFormat="1" hidden="1" spans="2:6">
       <c r="B132" s="26"/>
       <c r="C132" s="26"/>
       <c r="D132" s="27" t="s">
@@ -3369,7 +3369,7 @@
       <c r="E132" s="21"/>
       <c r="F132" s="29"/>
     </row>
-    <row r="133" customFormat="1" spans="2:6">
+    <row r="133" customFormat="1" hidden="1" spans="2:6">
       <c r="B133" s="26"/>
       <c r="C133" s="26"/>
       <c r="D133" s="27" t="s">
@@ -3378,7 +3378,7 @@
       <c r="E133" s="21"/>
       <c r="F133" s="29"/>
     </row>
-    <row r="134" customFormat="1" spans="2:6">
+    <row r="134" customFormat="1" hidden="1" spans="2:6">
       <c r="B134" s="26"/>
       <c r="C134" s="26"/>
       <c r="D134" s="27" t="s">
@@ -3387,14 +3387,14 @@
       <c r="E134" s="21"/>
       <c r="F134" s="29"/>
     </row>
-    <row r="135" customFormat="1" spans="2:6">
+    <row r="135" customFormat="1" hidden="1" spans="2:6">
       <c r="B135" s="26"/>
       <c r="C135" s="26"/>
       <c r="D135" s="25"/>
       <c r="E135" s="30"/>
       <c r="F135" s="29"/>
     </row>
-    <row r="136" customFormat="1" ht="18" spans="2:6">
+    <row r="136" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B136" s="26"/>
       <c r="C136" s="26" t="s">
         <v>141</v>
@@ -3405,7 +3405,7 @@
       <c r="E136" s="21"/>
       <c r="F136" s="29"/>
     </row>
-    <row r="137" customFormat="1" spans="2:6">
+    <row r="137" customFormat="1" hidden="1" spans="2:6">
       <c r="B137" s="26"/>
       <c r="C137" s="26"/>
       <c r="D137" s="27" t="s">
@@ -3414,7 +3414,7 @@
       <c r="E137" s="21"/>
       <c r="F137" s="29"/>
     </row>
-    <row r="138" customFormat="1" ht="18" spans="2:6">
+    <row r="138" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B138" s="26"/>
       <c r="C138" s="26"/>
       <c r="D138" s="12" t="s">
@@ -3423,14 +3423,14 @@
       <c r="E138" s="21"/>
       <c r="F138" s="29"/>
     </row>
-    <row r="139" customFormat="1" spans="2:6">
+    <row r="139" customFormat="1" hidden="1" spans="2:6">
       <c r="B139" s="26"/>
       <c r="C139" s="26"/>
       <c r="D139" s="23"/>
       <c r="E139" s="19"/>
       <c r="F139" s="29"/>
     </row>
-    <row r="140" customFormat="1" ht="18" spans="2:6">
+    <row r="140" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B140" s="31" t="s">
         <v>145</v>
       </c>
@@ -3443,7 +3443,7 @@
       <c r="E140" s="21"/>
       <c r="F140" s="29"/>
     </row>
-    <row r="141" customFormat="1" ht="18" spans="2:6">
+    <row r="141" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B141" s="31"/>
       <c r="C141" s="34"/>
       <c r="D141" s="33" t="s">
@@ -3452,14 +3452,14 @@
       <c r="E141" s="21"/>
       <c r="F141" s="29"/>
     </row>
-    <row r="142" customFormat="1" spans="2:6">
+    <row r="142" customFormat="1" hidden="1" spans="2:6">
       <c r="B142" s="31"/>
       <c r="C142" s="35"/>
       <c r="D142" s="36"/>
       <c r="E142" s="30"/>
       <c r="F142" s="29"/>
     </row>
-    <row r="143" customFormat="1" ht="18" spans="2:6">
+    <row r="143" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B143" s="31"/>
       <c r="C143" s="32" t="s">
         <v>149</v>
@@ -3470,7 +3470,7 @@
       <c r="E143" s="21"/>
       <c r="F143" s="29"/>
     </row>
-    <row r="144" customFormat="1" ht="18" spans="2:6">
+    <row r="144" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B144" s="31"/>
       <c r="C144" s="34"/>
       <c r="D144" s="33" t="s">
@@ -3479,7 +3479,7 @@
       <c r="E144" s="21"/>
       <c r="F144" s="29"/>
     </row>
-    <row r="145" customFormat="1" ht="18" spans="2:6">
+    <row r="145" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B145" s="31"/>
       <c r="C145" s="34"/>
       <c r="D145" s="33" t="s">
@@ -3488,7 +3488,7 @@
       <c r="E145" s="21"/>
       <c r="F145" s="29"/>
     </row>
-    <row r="146" customFormat="1" ht="18" spans="2:6">
+    <row r="146" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B146" s="31"/>
       <c r="C146" s="34"/>
       <c r="D146" s="33" t="s">
@@ -3497,14 +3497,14 @@
       <c r="E146" s="21"/>
       <c r="F146" s="29"/>
     </row>
-    <row r="147" customFormat="1" spans="2:6">
+    <row r="147" customFormat="1" hidden="1" spans="2:6">
       <c r="B147" s="31"/>
       <c r="C147" s="35"/>
       <c r="D147" s="36"/>
       <c r="E147" s="30"/>
       <c r="F147" s="29"/>
     </row>
-    <row r="148" customFormat="1" ht="18" spans="2:6">
+    <row r="148" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B148" s="31"/>
       <c r="C148" s="32" t="s">
         <v>154</v>
@@ -3515,7 +3515,7 @@
       <c r="E148" s="30"/>
       <c r="F148" s="20"/>
     </row>
-    <row r="149" customFormat="1" ht="18" spans="2:6">
+    <row r="149" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B149" s="31"/>
       <c r="C149" s="34"/>
       <c r="D149" s="33" t="s">
@@ -3524,7 +3524,7 @@
       <c r="E149" s="30"/>
       <c r="F149" s="20"/>
     </row>
-    <row r="150" customFormat="1" ht="18" spans="2:6">
+    <row r="150" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B150" s="31"/>
       <c r="C150" s="34"/>
       <c r="D150" s="33" t="s">
@@ -3533,7 +3533,7 @@
       <c r="E150" s="30"/>
       <c r="F150" s="20"/>
     </row>
-    <row r="151" customFormat="1" ht="18" spans="2:6">
+    <row r="151" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B151" s="31"/>
       <c r="C151" s="34"/>
       <c r="D151" s="33" t="s">
@@ -3542,14 +3542,14 @@
       <c r="E151" s="30"/>
       <c r="F151" s="20"/>
     </row>
-    <row r="152" customFormat="1" spans="2:6">
+    <row r="152" customFormat="1" hidden="1" spans="2:6">
       <c r="B152" s="31"/>
       <c r="C152" s="35"/>
       <c r="D152" s="36"/>
       <c r="E152" s="30"/>
       <c r="F152" s="20"/>
     </row>
-    <row r="153" customFormat="1" ht="18" spans="2:6">
+    <row r="153" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B153" s="31"/>
       <c r="C153" s="37" t="s">
         <v>159</v>
@@ -3560,7 +3560,7 @@
       <c r="E153" s="30"/>
       <c r="F153" s="20"/>
     </row>
-    <row r="154" customFormat="1" ht="18" spans="2:6">
+    <row r="154" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B154" s="31"/>
       <c r="C154" s="37"/>
       <c r="D154" s="33" t="s">
@@ -3569,7 +3569,7 @@
       <c r="E154" s="30"/>
       <c r="F154" s="20"/>
     </row>
-    <row r="155" customFormat="1" ht="18" spans="2:6">
+    <row r="155" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B155" s="31"/>
       <c r="C155" s="37"/>
       <c r="D155" s="33" t="s">
@@ -3578,7 +3578,7 @@
       <c r="E155" s="30"/>
       <c r="F155" s="20"/>
     </row>
-    <row r="156" customFormat="1" ht="18" spans="2:6">
+    <row r="156" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B156" s="31"/>
       <c r="C156" s="37"/>
       <c r="D156" s="33" t="s">
@@ -3587,14 +3587,14 @@
       <c r="E156" s="30"/>
       <c r="F156" s="20"/>
     </row>
-    <row r="157" customFormat="1" spans="2:6">
+    <row r="157" customFormat="1" hidden="1" spans="2:6">
       <c r="B157" s="31"/>
       <c r="C157" s="38"/>
       <c r="D157" s="36"/>
       <c r="E157" s="30"/>
       <c r="F157" s="20"/>
     </row>
-    <row r="158" customFormat="1" ht="18" spans="2:6">
+    <row r="158" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B158" s="31"/>
       <c r="C158" s="32" t="s">
         <v>164</v>
@@ -3607,7 +3607,7 @@
       </c>
       <c r="F158" s="29"/>
     </row>
-    <row r="159" customFormat="1" ht="18" spans="2:6">
+    <row r="159" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B159" s="31"/>
       <c r="C159" s="34"/>
       <c r="D159" s="12" t="s">
@@ -3618,7 +3618,7 @@
       </c>
       <c r="F159" s="29"/>
     </row>
-    <row r="160" customFormat="1" ht="18" spans="2:6">
+    <row r="160" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B160" s="31"/>
       <c r="C160" s="34"/>
       <c r="D160" s="12" t="s">
@@ -3627,7 +3627,7 @@
       <c r="E160" s="19"/>
       <c r="F160" s="29"/>
     </row>
-    <row r="161" customFormat="1" ht="18" spans="2:6">
+    <row r="161" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B161" s="31"/>
       <c r="C161" s="34"/>
       <c r="D161" s="12" t="s">
@@ -3636,7 +3636,7 @@
       <c r="E161" s="19"/>
       <c r="F161" s="29"/>
     </row>
-    <row r="162" customFormat="1" ht="18" spans="2:6">
+    <row r="162" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B162" s="31"/>
       <c r="C162" s="34"/>
       <c r="D162" s="12" t="s">
@@ -3645,14 +3645,14 @@
       <c r="E162" s="19"/>
       <c r="F162" s="29"/>
     </row>
-    <row r="163" customFormat="1" spans="2:6">
+    <row r="163" customFormat="1" hidden="1" spans="2:6">
       <c r="B163" s="31"/>
       <c r="C163" s="35"/>
       <c r="D163" s="12"/>
       <c r="E163" s="19"/>
       <c r="F163" s="29"/>
     </row>
-    <row r="164" customFormat="1" ht="18" spans="2:6">
+    <row r="164" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B164" s="31"/>
       <c r="C164" s="32" t="s">
         <v>170</v>
@@ -3663,7 +3663,7 @@
       <c r="E164" s="19"/>
       <c r="F164" s="29"/>
     </row>
-    <row r="165" customFormat="1" ht="18" spans="2:6">
+    <row r="165" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B165" s="31"/>
       <c r="C165" s="34"/>
       <c r="D165" s="12" t="s">
@@ -3672,7 +3672,7 @@
       <c r="E165" s="19"/>
       <c r="F165" s="29"/>
     </row>
-    <row r="166" customFormat="1" ht="18" spans="2:6">
+    <row r="166" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B166" s="31"/>
       <c r="C166" s="34"/>
       <c r="D166" s="12" t="s">
@@ -3681,7 +3681,7 @@
       <c r="E166" s="19"/>
       <c r="F166" s="29"/>
     </row>
-    <row r="167" customFormat="1" spans="2:6">
+    <row r="167" customFormat="1" hidden="1" spans="2:6">
       <c r="B167" s="31"/>
       <c r="C167" s="35"/>
       <c r="D167" s="14"/>
@@ -3846,7 +3846,7 @@
       <c r="E185" s="19"/>
       <c r="F185" s="29"/>
     </row>
-    <row r="186" customFormat="1" ht="18" spans="2:6">
+    <row r="186" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B186" s="31" t="s">
         <v>190</v>
       </c>
@@ -3859,7 +3859,7 @@
       <c r="E186" s="19"/>
       <c r="F186" s="29"/>
     </row>
-    <row r="187" customFormat="1" ht="18" spans="2:6">
+    <row r="187" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B187" s="31"/>
       <c r="C187" s="34"/>
       <c r="D187" s="6" t="s">
@@ -3868,7 +3868,7 @@
       <c r="E187" s="19"/>
       <c r="F187" s="29"/>
     </row>
-    <row r="188" customFormat="1" ht="18" spans="2:6">
+    <row r="188" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B188" s="31"/>
       <c r="C188" s="34"/>
       <c r="D188" s="6" t="s">
@@ -3877,7 +3877,7 @@
       <c r="E188" s="19"/>
       <c r="F188" s="29"/>
     </row>
-    <row r="189" customFormat="1" ht="18" spans="2:6">
+    <row r="189" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B189" s="31"/>
       <c r="C189" s="34"/>
       <c r="D189" s="6" t="s">
@@ -3886,7 +3886,7 @@
       <c r="E189" s="19"/>
       <c r="F189" s="29"/>
     </row>
-    <row r="190" customFormat="1" ht="18" spans="2:6">
+    <row r="190" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B190" s="31"/>
       <c r="C190" s="34"/>
       <c r="D190" s="12" t="s">
@@ -3895,7 +3895,7 @@
       <c r="E190" s="19"/>
       <c r="F190" s="29"/>
     </row>
-    <row r="191" customFormat="1" ht="18" spans="2:6">
+    <row r="191" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B191" s="31"/>
       <c r="C191" s="34"/>
       <c r="D191" s="6" t="s">
@@ -3904,7 +3904,7 @@
       <c r="E191" s="19"/>
       <c r="F191" s="29"/>
     </row>
-    <row r="192" customFormat="1" ht="18" spans="2:6">
+    <row r="192" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B192" s="31"/>
       <c r="C192" s="34"/>
       <c r="D192" s="6" t="s">
@@ -3913,7 +3913,7 @@
       <c r="E192" s="19"/>
       <c r="F192" s="29"/>
     </row>
-    <row r="193" customFormat="1" ht="18" spans="2:6">
+    <row r="193" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B193" s="31"/>
       <c r="C193" s="34"/>
       <c r="D193" s="6" t="s">
@@ -3922,7 +3922,7 @@
       <c r="E193" s="19"/>
       <c r="F193" s="29"/>
     </row>
-    <row r="194" customFormat="1" ht="18" spans="2:6">
+    <row r="194" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B194" s="31"/>
       <c r="C194" s="34"/>
       <c r="D194" s="6" t="s">
@@ -3931,14 +3931,14 @@
       <c r="E194" s="19"/>
       <c r="F194" s="29"/>
     </row>
-    <row r="195" customFormat="1" spans="2:6">
+    <row r="195" customFormat="1" hidden="1" spans="2:6">
       <c r="B195" s="31"/>
       <c r="C195" s="34"/>
       <c r="D195" s="6"/>
       <c r="E195" s="19"/>
       <c r="F195" s="29"/>
     </row>
-    <row r="196" customFormat="1" ht="18" spans="2:6">
+    <row r="196" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B196" s="31"/>
       <c r="C196" s="34"/>
       <c r="D196" s="12" t="s">
@@ -3947,7 +3947,7 @@
       <c r="E196" s="19"/>
       <c r="F196" s="29"/>
     </row>
-    <row r="197" customFormat="1" ht="36" spans="2:6">
+    <row r="197" customFormat="1" ht="36" hidden="1" spans="2:6">
       <c r="B197" s="31"/>
       <c r="C197" s="34"/>
       <c r="D197" s="12" t="s">
@@ -3956,7 +3956,7 @@
       <c r="E197" s="19"/>
       <c r="F197" s="29"/>
     </row>
-    <row r="198" customFormat="1" ht="18" spans="2:6">
+    <row r="198" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B198" s="31"/>
       <c r="C198" s="34"/>
       <c r="D198" s="6" t="s">
@@ -3965,7 +3965,7 @@
       <c r="E198" s="19"/>
       <c r="F198" s="29"/>
     </row>
-    <row r="199" customFormat="1" ht="18" spans="2:6">
+    <row r="199" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B199" s="31"/>
       <c r="C199" s="34"/>
       <c r="D199" s="6" t="s">
@@ -3974,7 +3974,7 @@
       <c r="E199" s="19"/>
       <c r="F199" s="29"/>
     </row>
-    <row r="200" customFormat="1" ht="18" spans="2:6">
+    <row r="200" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B200" s="31"/>
       <c r="C200" s="34"/>
       <c r="D200" s="6" t="s">
@@ -3983,14 +3983,14 @@
       <c r="E200" s="19"/>
       <c r="F200" s="29"/>
     </row>
-    <row r="201" customFormat="1" spans="2:6">
+    <row r="201" customFormat="1" hidden="1" spans="2:6">
       <c r="B201" s="31"/>
       <c r="C201" s="35"/>
       <c r="D201" s="25"/>
       <c r="E201" s="19"/>
       <c r="F201" s="29"/>
     </row>
-    <row r="202" customFormat="1" ht="18" spans="2:6">
+    <row r="202" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B202" s="31" t="s">
         <v>206</v>
       </c>
@@ -4003,7 +4003,7 @@
       <c r="E202" s="19"/>
       <c r="F202" s="20"/>
     </row>
-    <row r="203" customFormat="1" ht="18" spans="2:6">
+    <row r="203" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B203" s="31"/>
       <c r="C203" s="34"/>
       <c r="D203" s="12" t="s">
@@ -4012,7 +4012,7 @@
       <c r="E203" s="19"/>
       <c r="F203" s="20"/>
     </row>
-    <row r="204" customFormat="1" ht="18" spans="2:6">
+    <row r="204" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B204" s="31"/>
       <c r="C204" s="34"/>
       <c r="D204" s="12" t="s">
@@ -4021,7 +4021,7 @@
       <c r="E204" s="19"/>
       <c r="F204" s="20"/>
     </row>
-    <row r="205" customFormat="1" ht="18" spans="2:6">
+    <row r="205" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B205" s="31"/>
       <c r="C205" s="34"/>
       <c r="D205" s="12" t="s">
@@ -4030,14 +4030,14 @@
       <c r="E205" s="19"/>
       <c r="F205" s="20"/>
     </row>
-    <row r="206" customFormat="1" spans="2:6">
+    <row r="206" customFormat="1" hidden="1" spans="2:6">
       <c r="B206" s="31"/>
       <c r="C206" s="35"/>
       <c r="D206" s="14"/>
       <c r="E206" s="19"/>
       <c r="F206" s="20"/>
     </row>
-    <row r="207" customFormat="1" ht="18" spans="2:6">
+    <row r="207" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B207" s="31"/>
       <c r="C207" s="32" t="s">
         <v>212</v>
@@ -4048,7 +4048,7 @@
       <c r="E207" s="19"/>
       <c r="F207" s="20"/>
     </row>
-    <row r="208" customFormat="1" ht="18" spans="2:6">
+    <row r="208" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B208" s="31"/>
       <c r="C208" s="34"/>
       <c r="D208" s="12" t="s">
@@ -4057,7 +4057,7 @@
       <c r="E208" s="19"/>
       <c r="F208" s="20"/>
     </row>
-    <row r="209" customFormat="1" ht="18" spans="2:6">
+    <row r="209" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B209" s="31"/>
       <c r="C209" s="34"/>
       <c r="D209" s="12" t="s">
@@ -4066,7 +4066,7 @@
       <c r="E209" s="19"/>
       <c r="F209" s="20"/>
     </row>
-    <row r="210" customFormat="1" ht="18" spans="2:6">
+    <row r="210" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B210" s="31"/>
       <c r="C210" s="34"/>
       <c r="D210" s="12" t="s">
@@ -4075,7 +4075,7 @@
       <c r="E210" s="19"/>
       <c r="F210" s="20"/>
     </row>
-    <row r="211" customFormat="1" ht="18" spans="2:6">
+    <row r="211" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B211" s="31"/>
       <c r="C211" s="34"/>
       <c r="D211" s="12" t="s">
@@ -4084,14 +4084,14 @@
       <c r="E211" s="19"/>
       <c r="F211" s="20"/>
     </row>
-    <row r="212" customFormat="1" spans="2:6">
+    <row r="212" customFormat="1" hidden="1" spans="2:6">
       <c r="B212" s="31"/>
       <c r="C212" s="35"/>
       <c r="D212" s="14"/>
       <c r="E212" s="19"/>
       <c r="F212" s="20"/>
     </row>
-    <row r="213" customFormat="1" ht="18" spans="2:6">
+    <row r="213" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B213" s="31"/>
       <c r="C213" s="32" t="s">
         <v>218</v>
@@ -4102,7 +4102,7 @@
       <c r="E213" s="19"/>
       <c r="F213" s="20"/>
     </row>
-    <row r="214" customFormat="1" ht="18" spans="2:6">
+    <row r="214" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B214" s="31"/>
       <c r="C214" s="34"/>
       <c r="D214" s="12" t="s">
@@ -4111,7 +4111,7 @@
       <c r="E214" s="19"/>
       <c r="F214" s="20"/>
     </row>
-    <row r="215" customFormat="1" ht="18" spans="2:6">
+    <row r="215" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B215" s="31"/>
       <c r="C215" s="34"/>
       <c r="D215" s="12" t="s">
@@ -4120,7 +4120,7 @@
       <c r="E215" s="19"/>
       <c r="F215" s="20"/>
     </row>
-    <row r="216" customFormat="1" ht="18" spans="2:6">
+    <row r="216" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B216" s="31"/>
       <c r="C216" s="34"/>
       <c r="D216" s="12" t="s">
@@ -4129,7 +4129,7 @@
       <c r="E216" s="19"/>
       <c r="F216" s="20"/>
     </row>
-    <row r="217" customFormat="1" ht="18" spans="2:6">
+    <row r="217" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B217" s="31"/>
       <c r="C217" s="34"/>
       <c r="D217" s="12" t="s">
@@ -4138,14 +4138,14 @@
       <c r="E217" s="19"/>
       <c r="F217" s="20"/>
     </row>
-    <row r="218" customFormat="1" spans="2:6">
+    <row r="218" customFormat="1" hidden="1" spans="2:6">
       <c r="B218" s="39"/>
       <c r="C218" s="35"/>
       <c r="D218" s="14"/>
       <c r="E218" s="19"/>
       <c r="F218" s="20"/>
     </row>
-    <row r="219" customFormat="1" ht="18" spans="2:6">
+    <row r="219" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B219" s="31" t="s">
         <v>224</v>
       </c>
@@ -4158,7 +4158,7 @@
       <c r="E219" s="19"/>
       <c r="F219" s="20"/>
     </row>
-    <row r="220" customFormat="1" ht="18" spans="2:6">
+    <row r="220" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B220" s="31"/>
       <c r="C220" s="26"/>
       <c r="D220" s="40" t="s">
@@ -4167,7 +4167,7 @@
       <c r="E220" s="19"/>
       <c r="F220" s="20"/>
     </row>
-    <row r="221" customFormat="1" ht="18" spans="2:6">
+    <row r="221" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B221" s="31"/>
       <c r="C221" s="26"/>
       <c r="D221" s="40" t="s">
@@ -4176,7 +4176,7 @@
       <c r="E221" s="19"/>
       <c r="F221" s="20"/>
     </row>
-    <row r="222" customFormat="1" ht="18" spans="2:6">
+    <row r="222" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B222" s="31"/>
       <c r="C222" s="26"/>
       <c r="D222" s="12" t="s">
@@ -4185,7 +4185,7 @@
       <c r="E222" s="19"/>
       <c r="F222" s="20"/>
     </row>
-    <row r="223" customFormat="1" ht="18" spans="2:6">
+    <row r="223" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B223" s="31"/>
       <c r="C223" s="26"/>
       <c r="D223" s="12" t="s">
@@ -4194,7 +4194,7 @@
       <c r="E223" s="19"/>
       <c r="F223" s="20"/>
     </row>
-    <row r="224" customFormat="1" ht="18" spans="2:6">
+    <row r="224" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B224" s="31"/>
       <c r="C224" s="26"/>
       <c r="D224" s="12" t="s">
@@ -4203,14 +4203,14 @@
       <c r="E224" s="19"/>
       <c r="F224" s="20"/>
     </row>
-    <row r="225" customFormat="1" spans="2:6">
+    <row r="225" customFormat="1" hidden="1" spans="2:6">
       <c r="B225" s="31"/>
       <c r="C225" s="26"/>
       <c r="D225" s="14"/>
       <c r="E225" s="19"/>
       <c r="F225" s="20"/>
     </row>
-    <row r="226" customFormat="1" ht="18" spans="2:6">
+    <row r="226" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B226" s="31"/>
       <c r="C226" s="32" t="s">
         <v>230</v>
@@ -4221,7 +4221,7 @@
       <c r="E226" s="19"/>
       <c r="F226" s="20"/>
     </row>
-    <row r="227" customFormat="1" ht="18" spans="2:6">
+    <row r="227" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B227" s="31"/>
       <c r="C227" s="34"/>
       <c r="D227" s="12" t="s">
@@ -4230,14 +4230,14 @@
       <c r="E227" s="19"/>
       <c r="F227" s="20"/>
     </row>
-    <row r="228" customFormat="1" spans="2:6">
+    <row r="228" customFormat="1" hidden="1" spans="2:6">
       <c r="B228" s="31"/>
       <c r="C228" s="35"/>
       <c r="D228" s="14"/>
       <c r="E228" s="19"/>
       <c r="F228" s="20"/>
     </row>
-    <row r="229" customFormat="1" ht="18" spans="2:6">
+    <row r="229" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B229" s="31"/>
       <c r="C229" s="26" t="s">
         <v>233</v>
@@ -4248,7 +4248,7 @@
       <c r="E229" s="19"/>
       <c r="F229" s="20"/>
     </row>
-    <row r="230" customFormat="1" ht="18" spans="2:6">
+    <row r="230" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B230" s="31"/>
       <c r="C230" s="26"/>
       <c r="D230" s="41" t="s">
@@ -4257,14 +4257,14 @@
       <c r="E230" s="19"/>
       <c r="F230" s="20"/>
     </row>
-    <row r="231" customFormat="1" spans="2:6">
+    <row r="231" customFormat="1" hidden="1" spans="2:6">
       <c r="B231" s="31"/>
       <c r="C231" s="26"/>
       <c r="D231" s="14"/>
       <c r="E231" s="19"/>
       <c r="F231" s="20"/>
     </row>
-    <row r="232" customFormat="1" ht="18" spans="2:6">
+    <row r="232" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B232" s="42" t="s">
         <v>236</v>
       </c>
@@ -4277,7 +4277,7 @@
       <c r="E232" s="19"/>
       <c r="F232" s="20"/>
     </row>
-    <row r="233" customFormat="1" ht="18" spans="2:6">
+    <row r="233" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B233" s="42"/>
       <c r="C233" s="34"/>
       <c r="D233" s="12" t="s">
@@ -4286,7 +4286,7 @@
       <c r="E233" s="19"/>
       <c r="F233" s="20"/>
     </row>
-    <row r="234" customFormat="1" ht="18" spans="2:6">
+    <row r="234" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B234" s="42"/>
       <c r="C234" s="34"/>
       <c r="D234" s="12" t="s">
@@ -4295,7 +4295,7 @@
       <c r="E234" s="19"/>
       <c r="F234" s="20"/>
     </row>
-    <row r="235" customFormat="1" ht="18" spans="2:6">
+    <row r="235" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B235" s="42"/>
       <c r="C235" s="34"/>
       <c r="D235" s="12" t="s">
@@ -4304,7 +4304,7 @@
       <c r="E235" s="19"/>
       <c r="F235" s="20"/>
     </row>
-    <row r="236" customFormat="1" ht="18" spans="2:6">
+    <row r="236" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B236" s="42"/>
       <c r="C236" s="34"/>
       <c r="D236" s="12" t="s">
@@ -4313,7 +4313,7 @@
       <c r="E236" s="19"/>
       <c r="F236" s="20"/>
     </row>
-    <row r="237" customFormat="1" ht="18" spans="2:6">
+    <row r="237" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B237" s="42"/>
       <c r="C237" s="34"/>
       <c r="D237" s="12" t="s">
@@ -4322,7 +4322,7 @@
       <c r="E237" s="19"/>
       <c r="F237" s="20"/>
     </row>
-    <row r="238" customFormat="1" ht="18" spans="2:6">
+    <row r="238" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B238" s="42"/>
       <c r="C238" s="34"/>
       <c r="D238" s="12" t="s">
@@ -4331,7 +4331,7 @@
       <c r="E238" s="19"/>
       <c r="F238" s="20"/>
     </row>
-    <row r="239" customFormat="1" ht="18" spans="2:6">
+    <row r="239" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B239" s="42"/>
       <c r="C239" s="34"/>
       <c r="D239" s="12" t="s">
@@ -4340,7 +4340,7 @@
       <c r="E239" s="19"/>
       <c r="F239" s="20"/>
     </row>
-    <row r="240" customFormat="1" ht="18" spans="2:6">
+    <row r="240" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B240" s="42"/>
       <c r="C240" s="34"/>
       <c r="D240" s="12" t="s">
@@ -4349,14 +4349,14 @@
       <c r="E240" s="19"/>
       <c r="F240" s="20"/>
     </row>
-    <row r="241" customFormat="1" spans="2:6">
+    <row r="241" customFormat="1" hidden="1" spans="2:6">
       <c r="B241" s="42"/>
       <c r="C241" s="35"/>
       <c r="D241" s="14"/>
       <c r="E241" s="19"/>
       <c r="F241" s="20"/>
     </row>
-    <row r="242" customFormat="1" ht="18" spans="2:6">
+    <row r="242" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B242" s="42"/>
       <c r="C242" s="32" t="s">
         <v>247</v>
@@ -4367,7 +4367,7 @@
       <c r="E242" s="19"/>
       <c r="F242" s="20"/>
     </row>
-    <row r="243" customFormat="1" ht="18" spans="2:6">
+    <row r="243" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B243" s="42"/>
       <c r="C243" s="34"/>
       <c r="D243" s="12" t="s">
@@ -4376,7 +4376,7 @@
       <c r="E243" s="19"/>
       <c r="F243" s="20"/>
     </row>
-    <row r="244" customFormat="1" ht="18" spans="2:6">
+    <row r="244" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B244" s="42"/>
       <c r="C244" s="34"/>
       <c r="D244" s="12" t="s">
@@ -4385,7 +4385,7 @@
       <c r="E244" s="19"/>
       <c r="F244" s="20"/>
     </row>
-    <row r="245" customFormat="1" ht="18" spans="2:6">
+    <row r="245" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B245" s="42"/>
       <c r="C245" s="34"/>
       <c r="D245" s="12" t="s">
@@ -4394,14 +4394,14 @@
       <c r="E245" s="19"/>
       <c r="F245" s="20"/>
     </row>
-    <row r="246" customFormat="1" spans="2:6">
+    <row r="246" customFormat="1" hidden="1" spans="2:6">
       <c r="B246" s="42"/>
       <c r="C246" s="35"/>
       <c r="D246" s="14"/>
       <c r="E246" s="19"/>
       <c r="F246" s="20"/>
     </row>
-    <row r="247" customFormat="1" ht="18" spans="2:6">
+    <row r="247" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B247" s="42"/>
       <c r="C247" s="32" t="s">
         <v>252</v>
@@ -4412,7 +4412,7 @@
       <c r="E247" s="19"/>
       <c r="F247" s="20"/>
     </row>
-    <row r="248" customFormat="1" ht="18" spans="2:6">
+    <row r="248" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B248" s="42"/>
       <c r="C248" s="34"/>
       <c r="D248" s="12" t="s">
@@ -4421,7 +4421,7 @@
       <c r="E248" s="19"/>
       <c r="F248" s="20"/>
     </row>
-    <row r="249" customFormat="1" ht="18" spans="2:6">
+    <row r="249" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B249" s="42"/>
       <c r="C249" s="34"/>
       <c r="D249" s="12" t="s">
@@ -4430,7 +4430,7 @@
       <c r="E249" s="19"/>
       <c r="F249" s="20"/>
     </row>
-    <row r="250" customFormat="1" ht="18" spans="2:6">
+    <row r="250" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B250" s="42"/>
       <c r="C250" s="34"/>
       <c r="D250" s="12" t="s">
@@ -4439,7 +4439,7 @@
       <c r="E250" s="19"/>
       <c r="F250" s="20"/>
     </row>
-    <row r="251" customFormat="1" ht="18" spans="2:6">
+    <row r="251" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B251" s="42"/>
       <c r="C251" s="34"/>
       <c r="D251" s="12" t="s">
@@ -4448,14 +4448,14 @@
       <c r="E251" s="19"/>
       <c r="F251" s="20"/>
     </row>
-    <row r="252" customFormat="1" spans="2:6">
+    <row r="252" customFormat="1" hidden="1" spans="2:6">
       <c r="B252" s="42"/>
       <c r="C252" s="35"/>
       <c r="D252" s="14"/>
       <c r="E252" s="19"/>
       <c r="F252" s="20"/>
     </row>
-    <row r="253" customFormat="1" ht="18" spans="2:6">
+    <row r="253" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B253" s="42"/>
       <c r="C253" s="32" t="s">
         <v>258</v>
@@ -4463,19 +4463,23 @@
       <c r="D253" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="E253" s="19"/>
+      <c r="E253" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="F253" s="20"/>
     </row>
-    <row r="254" customFormat="1" ht="18" spans="2:6">
+    <row r="254" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B254" s="42"/>
       <c r="C254" s="34"/>
       <c r="D254" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="E254" s="19"/>
+      <c r="E254" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="F254" s="20"/>
     </row>
-    <row r="255" customFormat="1" ht="18" spans="2:6">
+    <row r="255" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B255" s="42"/>
       <c r="C255" s="34"/>
       <c r="D255" s="12" t="s">
@@ -4484,7 +4488,7 @@
       <c r="E255" s="19"/>
       <c r="F255" s="20"/>
     </row>
-    <row r="256" customFormat="1" ht="18" spans="2:6">
+    <row r="256" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B256" s="42"/>
       <c r="C256" s="34"/>
       <c r="D256" s="12" t="s">
@@ -4493,7 +4497,7 @@
       <c r="E256" s="19"/>
       <c r="F256" s="20"/>
     </row>
-    <row r="257" customFormat="1" ht="18" spans="2:6">
+    <row r="257" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B257" s="42"/>
       <c r="C257" s="34"/>
       <c r="D257" s="12" t="s">
@@ -4502,7 +4506,7 @@
       <c r="E257" s="19"/>
       <c r="F257" s="20"/>
     </row>
-    <row r="258" customFormat="1" ht="18" spans="2:6">
+    <row r="258" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B258" s="42"/>
       <c r="C258" s="34"/>
       <c r="D258" s="12" t="s">
@@ -4511,7 +4515,7 @@
       <c r="E258" s="19"/>
       <c r="F258" s="20"/>
     </row>
-    <row r="259" customFormat="1" ht="18" spans="2:6">
+    <row r="259" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B259" s="42"/>
       <c r="C259" s="34"/>
       <c r="D259" s="12" t="s">
@@ -4520,7 +4524,7 @@
       <c r="E259" s="19"/>
       <c r="F259" s="20"/>
     </row>
-    <row r="260" customFormat="1" ht="18" spans="2:6">
+    <row r="260" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B260" s="42"/>
       <c r="C260" s="34"/>
       <c r="D260" s="12" t="s">
@@ -4529,7 +4533,7 @@
       <c r="E260" s="19"/>
       <c r="F260" s="20"/>
     </row>
-    <row r="261" customFormat="1" ht="18" spans="2:6">
+    <row r="261" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B261" s="42"/>
       <c r="C261" s="34"/>
       <c r="D261" s="12" t="s">
@@ -4538,7 +4542,7 @@
       <c r="E261" s="19"/>
       <c r="F261" s="20"/>
     </row>
-    <row r="262" customFormat="1" ht="18" spans="2:6">
+    <row r="262" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B262" s="42"/>
       <c r="C262" s="34"/>
       <c r="D262" s="12" t="s">
@@ -4547,14 +4551,14 @@
       <c r="E262" s="19"/>
       <c r="F262" s="20"/>
     </row>
-    <row r="263" customFormat="1" spans="2:6">
+    <row r="263" customFormat="1" hidden="1" spans="2:6">
       <c r="B263" s="43"/>
       <c r="C263" s="35"/>
       <c r="D263" s="14"/>
       <c r="E263" s="19"/>
       <c r="F263" s="20"/>
     </row>
-    <row r="264" customFormat="1" spans="2:6">
+    <row r="264" customFormat="1" hidden="1" spans="2:6">
       <c r="B264" s="39" t="s">
         <v>269</v>
       </c>
@@ -4567,7 +4571,12 @@
     </row>
   </sheetData>
   <autoFilter ref="B1:F264">
-    <filterColumn colId="4">
+    <filterColumn colId="1">
+      <customFilters>
+        <customFilter operator="equal" val="回溯"/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="3">
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>

--- a/刷题.xlsx
+++ b/刷题.xlsx
@@ -10,14 +10,14 @@
     <sheet name="刷题" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">刷题!$B$1:$F$264</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">刷题!$B$1:$F$263</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268">
   <si>
     <t>周</t>
   </si>
@@ -395,9 +395,6 @@
   </si>
   <si>
     <t>590. N 叉树的后序遍历（简单）</t>
-  </si>
-  <si>
-    <t>略</t>
   </si>
   <si>
     <t>二叉树题型2：二叉树按层遍历</t>
@@ -825,12 +822,6 @@
   </si>
   <si>
     <t>231. 2 的幂</t>
-  </si>
-  <si>
-    <t>第12周</t>
-  </si>
-  <si>
-    <t>结课测试</t>
   </si>
 </sst>
 </file>
@@ -838,9 +829,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
@@ -936,14 +927,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -957,6 +941,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -965,7 +987,30 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -989,7 +1034,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1003,46 +1048,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1056,24 +1063,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1094,7 +1085,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1106,13 +1127,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1124,61 +1163,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1190,7 +1187,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1214,13 +1211,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1232,43 +1253,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1412,6 +1403,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -1433,6 +1433,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1443,6 +1463,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1462,197 +1497,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2108,12 +2099,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="1"/>
-  <dimension ref="B1:F264"/>
+  <dimension ref="B1:F263"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D268" sqref="D268"/>
+      <selection pane="bottomLeft" activeCell="I162" sqref="I162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="5"/>
@@ -2174,7 +2165,9 @@
       <c r="D4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="19"/>
+      <c r="E4" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="F4" s="20"/>
     </row>
     <row r="5" customFormat="1" ht="18" hidden="1" spans="2:6">
@@ -2183,7 +2176,9 @@
       <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="19"/>
+      <c r="E5" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="F5" s="20"/>
     </row>
     <row r="6" customFormat="1" ht="18" hidden="1" spans="2:6">
@@ -2192,7 +2187,9 @@
       <c r="D6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="19"/>
+      <c r="E6" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="F6" s="20"/>
     </row>
     <row r="7" customFormat="1" ht="18" hidden="1" spans="2:6">
@@ -2201,7 +2198,9 @@
       <c r="D7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="19"/>
+      <c r="E7" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="F7" s="20"/>
     </row>
     <row r="8" customFormat="1" ht="18" hidden="1" spans="2:6">
@@ -2210,7 +2209,9 @@
       <c r="D8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="19"/>
+      <c r="E8" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="F8" s="20"/>
     </row>
     <row r="9" customFormat="1" ht="18" hidden="1" spans="2:6">
@@ -2219,7 +2220,9 @@
       <c r="D9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="19"/>
+      <c r="E9" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="F9" s="20"/>
     </row>
     <row r="10" customFormat="1" ht="18" hidden="1" spans="2:6">
@@ -2449,7 +2452,9 @@
       <c r="D33" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="19"/>
+      <c r="E33" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="F33" s="20"/>
     </row>
     <row r="34" customFormat="1" ht="18" hidden="1" spans="2:6">
@@ -2458,7 +2463,9 @@
       <c r="D34" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="21"/>
+      <c r="E34" s="21" t="s">
+        <v>8</v>
+      </c>
       <c r="F34" s="20"/>
     </row>
     <row r="35" customFormat="1" ht="18" hidden="1" spans="2:6">
@@ -2467,7 +2474,9 @@
       <c r="D35" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E35" s="19"/>
+      <c r="E35" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="F35" s="20"/>
     </row>
     <row r="36" customFormat="1" ht="18" hidden="1" spans="2:6">
@@ -2476,7 +2485,9 @@
       <c r="D36" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E36" s="19"/>
+      <c r="E36" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="F36" s="20"/>
     </row>
     <row r="37" customFormat="1" ht="18" hidden="1" spans="2:6">
@@ -2516,7 +2527,9 @@
       <c r="D40" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E40" s="19"/>
+      <c r="E40" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="F40" s="20"/>
     </row>
     <row r="41" customFormat="1" ht="18" hidden="1" spans="2:6">
@@ -2615,7 +2628,9 @@
       <c r="D51" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E51" s="19"/>
+      <c r="E51" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="F51" s="20"/>
     </row>
     <row r="52" customFormat="1" ht="18" hidden="1" spans="2:6">
@@ -2772,7 +2787,9 @@
       <c r="D68" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="E68" s="19"/>
+      <c r="E68" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="F68" s="20"/>
     </row>
     <row r="69" customFormat="1" ht="18" hidden="1" spans="2:6">
@@ -2808,7 +2825,9 @@
       <c r="D72" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="E72" s="19"/>
+      <c r="E72" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="F72" s="20"/>
     </row>
     <row r="73" customFormat="1" ht="18" hidden="1" spans="2:6">
@@ -2817,7 +2836,9 @@
       <c r="D73" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E73" s="19"/>
+      <c r="E73" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="F73" s="20"/>
     </row>
     <row r="74" customFormat="1" ht="18" hidden="1" spans="2:6">
@@ -2844,7 +2865,9 @@
       <c r="D76" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="E76" s="19"/>
+      <c r="E76" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="F76" s="20"/>
     </row>
     <row r="77" customFormat="1" ht="18" hidden="1" spans="2:6">
@@ -3056,7 +3079,7 @@
       </c>
       <c r="F99" s="20"/>
     </row>
-    <row r="100" customFormat="1" ht="18" hidden="1" spans="2:6">
+    <row r="100" customFormat="1" ht="18" spans="2:6">
       <c r="B100" s="24"/>
       <c r="C100" s="7"/>
       <c r="D100" s="12" t="s">
@@ -3065,7 +3088,7 @@
       <c r="E100" s="19"/>
       <c r="F100" s="20"/>
     </row>
-    <row r="101" customFormat="1" ht="18" hidden="1" spans="2:6">
+    <row r="101" customFormat="1" ht="18" spans="2:6">
       <c r="B101" s="24"/>
       <c r="C101" s="7"/>
       <c r="D101" s="12" t="s">
@@ -3074,7 +3097,7 @@
       <c r="E101" s="19"/>
       <c r="F101" s="20"/>
     </row>
-    <row r="102" customFormat="1" ht="18" hidden="1" spans="2:6">
+    <row r="102" customFormat="1" ht="18" spans="2:6">
       <c r="B102" s="24"/>
       <c r="C102" s="7"/>
       <c r="D102" s="12" t="s">
@@ -3083,7 +3106,7 @@
       <c r="E102" s="19"/>
       <c r="F102" s="20"/>
     </row>
-    <row r="103" customFormat="1" ht="18" hidden="1" spans="2:6">
+    <row r="103" customFormat="1" ht="18" spans="2:6">
       <c r="B103" s="24"/>
       <c r="C103" s="7"/>
       <c r="D103" s="12" t="s">
@@ -3092,7 +3115,7 @@
       <c r="E103" s="19"/>
       <c r="F103" s="20"/>
     </row>
-    <row r="104" customFormat="1" ht="18" hidden="1" spans="2:6">
+    <row r="104" customFormat="1" ht="18" spans="2:6">
       <c r="B104" s="24"/>
       <c r="C104" s="7"/>
       <c r="D104" s="12" t="s">
@@ -3101,7 +3124,7 @@
       <c r="E104" s="19"/>
       <c r="F104" s="20"/>
     </row>
-    <row r="105" customFormat="1" ht="18" hidden="1" spans="2:6">
+    <row r="105" customFormat="1" ht="18" spans="2:6">
       <c r="B105" s="24"/>
       <c r="C105" s="7"/>
       <c r="D105" s="12" t="s">
@@ -3110,7 +3133,7 @@
       <c r="E105" s="19"/>
       <c r="F105" s="20"/>
     </row>
-    <row r="106" customFormat="1" ht="18" hidden="1" spans="2:6">
+    <row r="106" customFormat="1" ht="18" spans="2:6">
       <c r="B106" s="24"/>
       <c r="C106" s="7"/>
       <c r="D106" s="12" t="s">
@@ -3119,7 +3142,7 @@
       <c r="E106" s="19"/>
       <c r="F106" s="20"/>
     </row>
-    <row r="107" customFormat="1" ht="18" hidden="1" spans="2:6">
+    <row r="107" customFormat="1" ht="18" spans="2:6">
       <c r="B107" s="24"/>
       <c r="C107" s="7"/>
       <c r="D107" s="12" t="s">
@@ -3128,7 +3151,7 @@
       <c r="E107" s="19"/>
       <c r="F107" s="20"/>
     </row>
-    <row r="108" customFormat="1" ht="18" hidden="1" spans="2:6">
+    <row r="108" customFormat="1" ht="18" spans="2:6">
       <c r="B108" s="24"/>
       <c r="C108" s="7"/>
       <c r="D108" s="12" t="s">
@@ -3137,7 +3160,7 @@
       <c r="E108" s="19"/>
       <c r="F108" s="20"/>
     </row>
-    <row r="109" customFormat="1" ht="18" hidden="1" spans="2:6">
+    <row r="109" customFormat="1" ht="18" spans="2:6">
       <c r="B109" s="24"/>
       <c r="C109" s="7"/>
       <c r="D109" s="12" t="s">
@@ -3146,7 +3169,7 @@
       <c r="E109" s="19"/>
       <c r="F109" s="20"/>
     </row>
-    <row r="110" customFormat="1" ht="18" hidden="1" spans="2:6">
+    <row r="110" customFormat="1" ht="18" spans="2:6">
       <c r="B110" s="24"/>
       <c r="C110" s="7"/>
       <c r="D110" s="12" t="s">
@@ -3155,7 +3178,7 @@
       <c r="E110" s="19"/>
       <c r="F110" s="20"/>
     </row>
-    <row r="111" customFormat="1" ht="18" hidden="1" spans="2:6">
+    <row r="111" customFormat="1" ht="18" spans="2:6">
       <c r="B111" s="24"/>
       <c r="C111" s="7"/>
       <c r="D111" s="12" t="s">
@@ -3164,7 +3187,7 @@
       <c r="E111" s="19"/>
       <c r="F111" s="20"/>
     </row>
-    <row r="112" customFormat="1" ht="18" hidden="1" spans="2:6">
+    <row r="112" customFormat="1" ht="18" spans="2:6">
       <c r="B112" s="24"/>
       <c r="C112" s="7"/>
       <c r="D112" s="12" t="s">
@@ -3173,7 +3196,7 @@
       <c r="E112" s="19"/>
       <c r="F112" s="20"/>
     </row>
-    <row r="113" customFormat="1" ht="18" hidden="1" spans="2:6">
+    <row r="113" customFormat="1" ht="18" spans="2:6">
       <c r="B113" s="24"/>
       <c r="C113" s="7"/>
       <c r="D113" s="12" t="s">
@@ -3182,7 +3205,7 @@
       <c r="E113" s="19"/>
       <c r="F113" s="20"/>
     </row>
-    <row r="114" customFormat="1" ht="18" hidden="1" spans="2:6">
+    <row r="114" customFormat="1" ht="18" spans="2:6">
       <c r="B114" s="24"/>
       <c r="C114" s="7"/>
       <c r="D114" s="12" t="s">
@@ -3191,7 +3214,7 @@
       <c r="E114" s="19"/>
       <c r="F114" s="20"/>
     </row>
-    <row r="115" customFormat="1" hidden="1" spans="2:6">
+    <row r="115" customFormat="1" spans="2:6">
       <c r="B115" s="24"/>
       <c r="C115" s="9"/>
       <c r="D115" s="14"/>
@@ -3262,17 +3285,15 @@
       <c r="C121" s="26"/>
       <c r="D121" s="25"/>
       <c r="E121" s="30"/>
-      <c r="F121" s="29" t="s">
-        <v>126</v>
-      </c>
+      <c r="F121" s="29"/>
     </row>
     <row r="122" customFormat="1" hidden="1" spans="2:6">
       <c r="B122" s="26"/>
       <c r="C122" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D122" s="28" t="s">
         <v>127</v>
-      </c>
-      <c r="D122" s="28" t="s">
-        <v>128</v>
       </c>
       <c r="E122" s="21"/>
       <c r="F122" s="29"/>
@@ -3281,7 +3302,7 @@
       <c r="B123" s="26"/>
       <c r="C123" s="26"/>
       <c r="D123" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E123" s="21"/>
       <c r="F123" s="29"/>
@@ -3290,7 +3311,7 @@
       <c r="B124" s="26"/>
       <c r="C124" s="26"/>
       <c r="D124" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E124" s="21"/>
       <c r="F124" s="29"/>
@@ -3299,7 +3320,7 @@
       <c r="B125" s="26"/>
       <c r="C125" s="26"/>
       <c r="D125" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E125" s="21"/>
       <c r="F125" s="29"/>
@@ -3308,7 +3329,7 @@
       <c r="B126" s="26"/>
       <c r="C126" s="26"/>
       <c r="D126" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E126" s="21"/>
       <c r="F126" s="29"/>
@@ -3323,10 +3344,10 @@
     <row r="128" customFormat="1" hidden="1" spans="2:6">
       <c r="B128" s="26"/>
       <c r="C128" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D128" s="27" t="s">
         <v>133</v>
-      </c>
-      <c r="D128" s="27" t="s">
-        <v>134</v>
       </c>
       <c r="E128" s="21" t="s">
         <v>8</v>
@@ -3337,7 +3358,7 @@
       <c r="B129" s="26"/>
       <c r="C129" s="26"/>
       <c r="D129" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E129" s="21"/>
       <c r="F129" s="29"/>
@@ -3346,7 +3367,7 @@
       <c r="B130" s="26"/>
       <c r="C130" s="26"/>
       <c r="D130" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E130" s="21"/>
       <c r="F130" s="29"/>
@@ -3355,7 +3376,7 @@
       <c r="B131" s="26"/>
       <c r="C131" s="26"/>
       <c r="D131" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E131" s="21"/>
       <c r="F131" s="29"/>
@@ -3364,7 +3385,7 @@
       <c r="B132" s="26"/>
       <c r="C132" s="26"/>
       <c r="D132" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E132" s="21"/>
       <c r="F132" s="29"/>
@@ -3373,7 +3394,7 @@
       <c r="B133" s="26"/>
       <c r="C133" s="26"/>
       <c r="D133" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E133" s="21"/>
       <c r="F133" s="29"/>
@@ -3382,7 +3403,7 @@
       <c r="B134" s="26"/>
       <c r="C134" s="26"/>
       <c r="D134" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E134" s="21"/>
       <c r="F134" s="29"/>
@@ -3397,10 +3418,10 @@
     <row r="136" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B136" s="26"/>
       <c r="C136" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="D136" s="12" t="s">
         <v>141</v>
-      </c>
-      <c r="D136" s="12" t="s">
-        <v>142</v>
       </c>
       <c r="E136" s="21"/>
       <c r="F136" s="29"/>
@@ -3409,7 +3430,7 @@
       <c r="B137" s="26"/>
       <c r="C137" s="26"/>
       <c r="D137" s="27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E137" s="21"/>
       <c r="F137" s="29"/>
@@ -3418,7 +3439,7 @@
       <c r="B138" s="26"/>
       <c r="C138" s="26"/>
       <c r="D138" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E138" s="21"/>
       <c r="F138" s="29"/>
@@ -3432,13 +3453,13 @@
     </row>
     <row r="140" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B140" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="C140" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="C140" s="32" t="s">
+      <c r="D140" s="33" t="s">
         <v>146</v>
-      </c>
-      <c r="D140" s="33" t="s">
-        <v>147</v>
       </c>
       <c r="E140" s="21"/>
       <c r="F140" s="29"/>
@@ -3447,7 +3468,7 @@
       <c r="B141" s="31"/>
       <c r="C141" s="34"/>
       <c r="D141" s="33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E141" s="21"/>
       <c r="F141" s="29"/>
@@ -3462,10 +3483,10 @@
     <row r="143" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B143" s="31"/>
       <c r="C143" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="D143" s="33" t="s">
         <v>149</v>
-      </c>
-      <c r="D143" s="33" t="s">
-        <v>150</v>
       </c>
       <c r="E143" s="21"/>
       <c r="F143" s="29"/>
@@ -3474,7 +3495,7 @@
       <c r="B144" s="31"/>
       <c r="C144" s="34"/>
       <c r="D144" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E144" s="21"/>
       <c r="F144" s="29"/>
@@ -3483,7 +3504,7 @@
       <c r="B145" s="31"/>
       <c r="C145" s="34"/>
       <c r="D145" s="33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E145" s="21"/>
       <c r="F145" s="29"/>
@@ -3492,7 +3513,7 @@
       <c r="B146" s="31"/>
       <c r="C146" s="34"/>
       <c r="D146" s="33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E146" s="21"/>
       <c r="F146" s="29"/>
@@ -3507,10 +3528,10 @@
     <row r="148" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B148" s="31"/>
       <c r="C148" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="D148" s="33" t="s">
         <v>154</v>
-      </c>
-      <c r="D148" s="33" t="s">
-        <v>155</v>
       </c>
       <c r="E148" s="30"/>
       <c r="F148" s="20"/>
@@ -3519,7 +3540,7 @@
       <c r="B149" s="31"/>
       <c r="C149" s="34"/>
       <c r="D149" s="33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E149" s="30"/>
       <c r="F149" s="20"/>
@@ -3528,7 +3549,7 @@
       <c r="B150" s="31"/>
       <c r="C150" s="34"/>
       <c r="D150" s="33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E150" s="30"/>
       <c r="F150" s="20"/>
@@ -3537,7 +3558,7 @@
       <c r="B151" s="31"/>
       <c r="C151" s="34"/>
       <c r="D151" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E151" s="30"/>
       <c r="F151" s="20"/>
@@ -3552,10 +3573,10 @@
     <row r="153" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B153" s="31"/>
       <c r="C153" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="D153" s="33" t="s">
         <v>159</v>
-      </c>
-      <c r="D153" s="33" t="s">
-        <v>160</v>
       </c>
       <c r="E153" s="30"/>
       <c r="F153" s="20"/>
@@ -3564,7 +3585,7 @@
       <c r="B154" s="31"/>
       <c r="C154" s="37"/>
       <c r="D154" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E154" s="30"/>
       <c r="F154" s="20"/>
@@ -3573,7 +3594,7 @@
       <c r="B155" s="31"/>
       <c r="C155" s="37"/>
       <c r="D155" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E155" s="30"/>
       <c r="F155" s="20"/>
@@ -3582,7 +3603,7 @@
       <c r="B156" s="31"/>
       <c r="C156" s="37"/>
       <c r="D156" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E156" s="30"/>
       <c r="F156" s="20"/>
@@ -3597,10 +3618,10 @@
     <row r="158" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B158" s="31"/>
       <c r="C158" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="D158" s="12" t="s">
         <v>164</v>
-      </c>
-      <c r="D158" s="12" t="s">
-        <v>165</v>
       </c>
       <c r="E158" s="19" t="s">
         <v>8</v>
@@ -3611,235 +3632,235 @@
       <c r="B159" s="31"/>
       <c r="C159" s="34"/>
       <c r="D159" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E159" s="19" t="s">
         <v>8</v>
       </c>
       <c r="F159" s="29"/>
     </row>
-    <row r="160" customFormat="1" ht="18" hidden="1" spans="2:6">
+    <row r="160" customFormat="1" ht="18" spans="2:6">
       <c r="B160" s="31"/>
       <c r="C160" s="34"/>
       <c r="D160" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E160" s="19"/>
       <c r="F160" s="29"/>
     </row>
-    <row r="161" customFormat="1" ht="18" hidden="1" spans="2:6">
+    <row r="161" customFormat="1" ht="18" spans="2:6">
       <c r="B161" s="31"/>
       <c r="C161" s="34"/>
       <c r="D161" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E161" s="19"/>
       <c r="F161" s="29"/>
     </row>
-    <row r="162" customFormat="1" ht="18" hidden="1" spans="2:6">
+    <row r="162" customFormat="1" ht="18" spans="2:6">
       <c r="B162" s="31"/>
       <c r="C162" s="34"/>
       <c r="D162" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E162" s="19"/>
       <c r="F162" s="29"/>
     </row>
-    <row r="163" customFormat="1" hidden="1" spans="2:6">
+    <row r="163" customFormat="1" spans="2:6">
       <c r="B163" s="31"/>
       <c r="C163" s="35"/>
       <c r="D163" s="12"/>
       <c r="E163" s="19"/>
       <c r="F163" s="29"/>
     </row>
-    <row r="164" customFormat="1" ht="18" hidden="1" spans="2:6">
+    <row r="164" customFormat="1" ht="18" spans="2:6">
       <c r="B164" s="31"/>
       <c r="C164" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="D164" s="12" t="s">
         <v>170</v>
-      </c>
-      <c r="D164" s="12" t="s">
-        <v>171</v>
       </c>
       <c r="E164" s="19"/>
       <c r="F164" s="29"/>
     </row>
-    <row r="165" customFormat="1" ht="18" hidden="1" spans="2:6">
+    <row r="165" customFormat="1" ht="18" spans="2:6">
       <c r="B165" s="31"/>
       <c r="C165" s="34"/>
       <c r="D165" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E165" s="19"/>
       <c r="F165" s="29"/>
     </row>
-    <row r="166" customFormat="1" ht="18" hidden="1" spans="2:6">
+    <row r="166" customFormat="1" ht="18" spans="2:6">
       <c r="B166" s="31"/>
       <c r="C166" s="34"/>
       <c r="D166" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E166" s="19"/>
       <c r="F166" s="29"/>
     </row>
-    <row r="167" customFormat="1" hidden="1" spans="2:6">
+    <row r="167" customFormat="1" spans="2:6">
       <c r="B167" s="31"/>
       <c r="C167" s="35"/>
       <c r="D167" s="14"/>
       <c r="E167" s="19"/>
       <c r="F167" s="29"/>
     </row>
-    <row r="168" customFormat="1" ht="18" spans="2:6">
+    <row r="168" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B168" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="C168" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="C168" s="32" t="s">
+      <c r="D168" s="12" t="s">
         <v>175</v>
-      </c>
-      <c r="D168" s="12" t="s">
-        <v>176</v>
       </c>
       <c r="E168" s="30"/>
       <c r="F168" s="29"/>
     </row>
-    <row r="169" customFormat="1" ht="18" spans="2:6">
+    <row r="169" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B169" s="31"/>
       <c r="C169" s="34"/>
       <c r="D169" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E169" s="30"/>
       <c r="F169" s="29"/>
     </row>
-    <row r="170" customFormat="1" ht="18" spans="2:6">
+    <row r="170" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B170" s="31"/>
       <c r="C170" s="34"/>
       <c r="D170" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E170" s="30"/>
       <c r="F170" s="29"/>
     </row>
-    <row r="171" customFormat="1" spans="2:6">
+    <row r="171" customFormat="1" hidden="1" spans="2:6">
       <c r="B171" s="31"/>
       <c r="C171" s="34"/>
       <c r="D171" s="14"/>
       <c r="E171" s="30"/>
       <c r="F171" s="29"/>
     </row>
-    <row r="172" customFormat="1" ht="18" spans="2:6">
+    <row r="172" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B172" s="31"/>
       <c r="C172" s="34"/>
       <c r="D172" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E172" s="30"/>
       <c r="F172" s="29"/>
     </row>
-    <row r="173" customFormat="1" ht="18" spans="2:6">
+    <row r="173" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B173" s="31"/>
       <c r="C173" s="34"/>
       <c r="D173" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E173" s="30"/>
       <c r="F173" s="29"/>
     </row>
-    <row r="174" customFormat="1" ht="18" spans="2:6">
+    <row r="174" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B174" s="31"/>
       <c r="C174" s="34"/>
       <c r="D174" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E174" s="30"/>
       <c r="F174" s="29"/>
     </row>
-    <row r="175" customFormat="1" ht="18" spans="2:6">
+    <row r="175" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B175" s="31"/>
       <c r="C175" s="34"/>
       <c r="D175" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E175" s="30"/>
       <c r="F175" s="29"/>
     </row>
-    <row r="176" customFormat="1" ht="18" spans="2:6">
+    <row r="176" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B176" s="31"/>
       <c r="C176" s="34"/>
       <c r="D176" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E176" s="30"/>
       <c r="F176" s="29"/>
     </row>
-    <row r="177" customFormat="1" spans="2:6">
+    <row r="177" customFormat="1" hidden="1" spans="2:6">
       <c r="B177" s="31"/>
       <c r="C177" s="34"/>
       <c r="D177" s="14"/>
       <c r="E177" s="30"/>
       <c r="F177" s="29"/>
     </row>
-    <row r="178" customFormat="1" ht="36" spans="2:6">
+    <row r="178" customFormat="1" ht="36" hidden="1" spans="2:6">
       <c r="B178" s="31"/>
       <c r="C178" s="34"/>
       <c r="D178" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E178" s="30"/>
       <c r="F178" s="29"/>
     </row>
-    <row r="179" customFormat="1" ht="36" spans="2:6">
+    <row r="179" customFormat="1" ht="36" hidden="1" spans="2:6">
       <c r="B179" s="31"/>
       <c r="C179" s="34"/>
       <c r="D179" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E179" s="30"/>
       <c r="F179" s="29"/>
     </row>
-    <row r="180" customFormat="1" ht="18" spans="2:6">
+    <row r="180" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B180" s="31"/>
       <c r="C180" s="34"/>
       <c r="D180" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E180" s="30"/>
       <c r="F180" s="29"/>
     </row>
-    <row r="181" customFormat="1" spans="2:6">
+    <row r="181" customFormat="1" hidden="1" spans="2:6">
       <c r="B181" s="31"/>
       <c r="C181" s="34"/>
       <c r="D181" s="14"/>
       <c r="E181" s="30"/>
       <c r="F181" s="29"/>
     </row>
-    <row r="182" customFormat="1" ht="18" spans="2:6">
+    <row r="182" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B182" s="31"/>
       <c r="C182" s="34"/>
       <c r="D182" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E182" s="30"/>
       <c r="F182" s="29"/>
     </row>
-    <row r="183" customFormat="1" ht="18" spans="2:6">
+    <row r="183" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B183" s="31"/>
       <c r="C183" s="34"/>
       <c r="D183" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E183" s="30"/>
       <c r="F183" s="29"/>
     </row>
-    <row r="184" customFormat="1" ht="18" spans="2:6">
+    <row r="184" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B184" s="31"/>
       <c r="C184" s="34"/>
       <c r="D184" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E184" s="30"/>
       <c r="F184" s="29"/>
     </row>
-    <row r="185" customFormat="1" spans="2:6">
+    <row r="185" customFormat="1" hidden="1" spans="2:6">
       <c r="B185" s="31"/>
       <c r="C185" s="35"/>
       <c r="D185" s="25"/>
@@ -3848,13 +3869,13 @@
     </row>
     <row r="186" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B186" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="C186" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="C186" s="32" t="s">
+      <c r="D186" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="D186" s="6" t="s">
-        <v>192</v>
       </c>
       <c r="E186" s="19"/>
       <c r="F186" s="29"/>
@@ -3863,7 +3884,7 @@
       <c r="B187" s="31"/>
       <c r="C187" s="34"/>
       <c r="D187" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E187" s="19"/>
       <c r="F187" s="29"/>
@@ -3872,7 +3893,7 @@
       <c r="B188" s="31"/>
       <c r="C188" s="34"/>
       <c r="D188" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E188" s="19"/>
       <c r="F188" s="29"/>
@@ -3881,7 +3902,7 @@
       <c r="B189" s="31"/>
       <c r="C189" s="34"/>
       <c r="D189" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E189" s="19"/>
       <c r="F189" s="29"/>
@@ -3890,7 +3911,7 @@
       <c r="B190" s="31"/>
       <c r="C190" s="34"/>
       <c r="D190" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E190" s="19"/>
       <c r="F190" s="29"/>
@@ -3899,7 +3920,7 @@
       <c r="B191" s="31"/>
       <c r="C191" s="34"/>
       <c r="D191" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E191" s="19"/>
       <c r="F191" s="29"/>
@@ -3908,7 +3929,7 @@
       <c r="B192" s="31"/>
       <c r="C192" s="34"/>
       <c r="D192" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E192" s="19"/>
       <c r="F192" s="29"/>
@@ -3917,7 +3938,7 @@
       <c r="B193" s="31"/>
       <c r="C193" s="34"/>
       <c r="D193" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E193" s="19"/>
       <c r="F193" s="29"/>
@@ -3926,7 +3947,7 @@
       <c r="B194" s="31"/>
       <c r="C194" s="34"/>
       <c r="D194" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E194" s="19"/>
       <c r="F194" s="29"/>
@@ -3942,7 +3963,7 @@
       <c r="B196" s="31"/>
       <c r="C196" s="34"/>
       <c r="D196" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E196" s="19"/>
       <c r="F196" s="29"/>
@@ -3951,7 +3972,7 @@
       <c r="B197" s="31"/>
       <c r="C197" s="34"/>
       <c r="D197" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E197" s="19"/>
       <c r="F197" s="29"/>
@@ -3960,7 +3981,7 @@
       <c r="B198" s="31"/>
       <c r="C198" s="34"/>
       <c r="D198" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E198" s="19"/>
       <c r="F198" s="29"/>
@@ -3969,7 +3990,7 @@
       <c r="B199" s="31"/>
       <c r="C199" s="34"/>
       <c r="D199" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E199" s="19"/>
       <c r="F199" s="29"/>
@@ -3978,7 +3999,7 @@
       <c r="B200" s="31"/>
       <c r="C200" s="34"/>
       <c r="D200" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E200" s="19"/>
       <c r="F200" s="29"/>
@@ -3992,13 +4013,13 @@
     </row>
     <row r="202" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B202" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="C202" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="C202" s="32" t="s">
+      <c r="D202" s="12" t="s">
         <v>207</v>
-      </c>
-      <c r="D202" s="12" t="s">
-        <v>208</v>
       </c>
       <c r="E202" s="19"/>
       <c r="F202" s="20"/>
@@ -4007,7 +4028,7 @@
       <c r="B203" s="31"/>
       <c r="C203" s="34"/>
       <c r="D203" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E203" s="19"/>
       <c r="F203" s="20"/>
@@ -4016,7 +4037,7 @@
       <c r="B204" s="31"/>
       <c r="C204" s="34"/>
       <c r="D204" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E204" s="19"/>
       <c r="F204" s="20"/>
@@ -4025,7 +4046,7 @@
       <c r="B205" s="31"/>
       <c r="C205" s="34"/>
       <c r="D205" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E205" s="19"/>
       <c r="F205" s="20"/>
@@ -4040,10 +4061,10 @@
     <row r="207" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B207" s="31"/>
       <c r="C207" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="D207" s="12" t="s">
         <v>212</v>
-      </c>
-      <c r="D207" s="12" t="s">
-        <v>213</v>
       </c>
       <c r="E207" s="19"/>
       <c r="F207" s="20"/>
@@ -4052,7 +4073,7 @@
       <c r="B208" s="31"/>
       <c r="C208" s="34"/>
       <c r="D208" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E208" s="19"/>
       <c r="F208" s="20"/>
@@ -4061,7 +4082,7 @@
       <c r="B209" s="31"/>
       <c r="C209" s="34"/>
       <c r="D209" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E209" s="19"/>
       <c r="F209" s="20"/>
@@ -4070,7 +4091,7 @@
       <c r="B210" s="31"/>
       <c r="C210" s="34"/>
       <c r="D210" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E210" s="19"/>
       <c r="F210" s="20"/>
@@ -4079,7 +4100,7 @@
       <c r="B211" s="31"/>
       <c r="C211" s="34"/>
       <c r="D211" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E211" s="19"/>
       <c r="F211" s="20"/>
@@ -4094,10 +4115,10 @@
     <row r="213" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B213" s="31"/>
       <c r="C213" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="D213" s="12" t="s">
         <v>218</v>
-      </c>
-      <c r="D213" s="12" t="s">
-        <v>219</v>
       </c>
       <c r="E213" s="19"/>
       <c r="F213" s="20"/>
@@ -4106,7 +4127,7 @@
       <c r="B214" s="31"/>
       <c r="C214" s="34"/>
       <c r="D214" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E214" s="19"/>
       <c r="F214" s="20"/>
@@ -4115,7 +4136,7 @@
       <c r="B215" s="31"/>
       <c r="C215" s="34"/>
       <c r="D215" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E215" s="19"/>
       <c r="F215" s="20"/>
@@ -4124,7 +4145,7 @@
       <c r="B216" s="31"/>
       <c r="C216" s="34"/>
       <c r="D216" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E216" s="19"/>
       <c r="F216" s="20"/>
@@ -4133,7 +4154,7 @@
       <c r="B217" s="31"/>
       <c r="C217" s="34"/>
       <c r="D217" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E217" s="19"/>
       <c r="F217" s="20"/>
@@ -4147,13 +4168,13 @@
     </row>
     <row r="219" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B219" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="C219" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="C219" s="26" t="s">
+      <c r="D219" s="12" t="s">
         <v>225</v>
-      </c>
-      <c r="D219" s="12" t="s">
-        <v>226</v>
       </c>
       <c r="E219" s="19"/>
       <c r="F219" s="20"/>
@@ -4162,7 +4183,7 @@
       <c r="B220" s="31"/>
       <c r="C220" s="26"/>
       <c r="D220" s="40" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E220" s="19"/>
       <c r="F220" s="20"/>
@@ -4171,7 +4192,7 @@
       <c r="B221" s="31"/>
       <c r="C221" s="26"/>
       <c r="D221" s="40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E221" s="19"/>
       <c r="F221" s="20"/>
@@ -4180,7 +4201,7 @@
       <c r="B222" s="31"/>
       <c r="C222" s="26"/>
       <c r="D222" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E222" s="19"/>
       <c r="F222" s="20"/>
@@ -4189,7 +4210,7 @@
       <c r="B223" s="31"/>
       <c r="C223" s="26"/>
       <c r="D223" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E223" s="19"/>
       <c r="F223" s="20"/>
@@ -4198,7 +4219,7 @@
       <c r="B224" s="31"/>
       <c r="C224" s="26"/>
       <c r="D224" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E224" s="19"/>
       <c r="F224" s="20"/>
@@ -4213,10 +4234,10 @@
     <row r="226" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B226" s="31"/>
       <c r="C226" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="D226" s="12" t="s">
         <v>230</v>
-      </c>
-      <c r="D226" s="12" t="s">
-        <v>231</v>
       </c>
       <c r="E226" s="19"/>
       <c r="F226" s="20"/>
@@ -4225,7 +4246,7 @@
       <c r="B227" s="31"/>
       <c r="C227" s="34"/>
       <c r="D227" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E227" s="19"/>
       <c r="F227" s="20"/>
@@ -4240,10 +4261,10 @@
     <row r="229" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B229" s="31"/>
       <c r="C229" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="D229" s="41" t="s">
         <v>233</v>
-      </c>
-      <c r="D229" s="41" t="s">
-        <v>234</v>
       </c>
       <c r="E229" s="19"/>
       <c r="F229" s="20"/>
@@ -4252,7 +4273,7 @@
       <c r="B230" s="31"/>
       <c r="C230" s="26"/>
       <c r="D230" s="41" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E230" s="19"/>
       <c r="F230" s="20"/>
@@ -4266,40 +4287,46 @@
     </row>
     <row r="232" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B232" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="C232" s="32" t="s">
         <v>236</v>
       </c>
-      <c r="C232" s="32" t="s">
+      <c r="D232" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="D232" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="E232" s="19"/>
+      <c r="E232" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="F232" s="20"/>
     </row>
     <row r="233" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B233" s="42"/>
       <c r="C233" s="34"/>
       <c r="D233" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="E233" s="19"/>
+        <v>238</v>
+      </c>
+      <c r="E233" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="F233" s="20"/>
     </row>
     <row r="234" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B234" s="42"/>
       <c r="C234" s="34"/>
       <c r="D234" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="E234" s="19"/>
+        <v>239</v>
+      </c>
+      <c r="E234" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="F234" s="20"/>
     </row>
     <row r="235" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B235" s="42"/>
       <c r="C235" s="34"/>
       <c r="D235" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E235" s="19"/>
       <c r="F235" s="20"/>
@@ -4308,43 +4335,51 @@
       <c r="B236" s="42"/>
       <c r="C236" s="34"/>
       <c r="D236" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="E236" s="19"/>
+        <v>241</v>
+      </c>
+      <c r="E236" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="F236" s="20"/>
     </row>
     <row r="237" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B237" s="42"/>
       <c r="C237" s="34"/>
       <c r="D237" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="E237" s="19"/>
+        <v>242</v>
+      </c>
+      <c r="E237" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="F237" s="20"/>
     </row>
     <row r="238" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B238" s="42"/>
       <c r="C238" s="34"/>
       <c r="D238" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="E238" s="19"/>
+        <v>243</v>
+      </c>
+      <c r="E238" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="F238" s="20"/>
     </row>
     <row r="239" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B239" s="42"/>
       <c r="C239" s="34"/>
       <c r="D239" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="E239" s="19"/>
+        <v>244</v>
+      </c>
+      <c r="E239" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="F239" s="20"/>
     </row>
     <row r="240" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B240" s="42"/>
       <c r="C240" s="34"/>
       <c r="D240" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E240" s="19"/>
       <c r="F240" s="20"/>
@@ -4359,10 +4394,10 @@
     <row r="242" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B242" s="42"/>
       <c r="C242" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="D242" s="12" t="s">
         <v>247</v>
-      </c>
-      <c r="D242" s="12" t="s">
-        <v>248</v>
       </c>
       <c r="E242" s="19"/>
       <c r="F242" s="20"/>
@@ -4371,16 +4406,18 @@
       <c r="B243" s="42"/>
       <c r="C243" s="34"/>
       <c r="D243" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="E243" s="19"/>
+        <v>248</v>
+      </c>
+      <c r="E243" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="F243" s="20"/>
     </row>
     <row r="244" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B244" s="42"/>
       <c r="C244" s="34"/>
       <c r="D244" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E244" s="19"/>
       <c r="F244" s="20"/>
@@ -4389,7 +4426,7 @@
       <c r="B245" s="42"/>
       <c r="C245" s="34"/>
       <c r="D245" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E245" s="19"/>
       <c r="F245" s="20"/>
@@ -4404,10 +4441,10 @@
     <row r="247" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B247" s="42"/>
       <c r="C247" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="D247" s="12" t="s">
         <v>252</v>
-      </c>
-      <c r="D247" s="12" t="s">
-        <v>253</v>
       </c>
       <c r="E247" s="19"/>
       <c r="F247" s="20"/>
@@ -4416,7 +4453,7 @@
       <c r="B248" s="42"/>
       <c r="C248" s="34"/>
       <c r="D248" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E248" s="19"/>
       <c r="F248" s="20"/>
@@ -4425,7 +4462,7 @@
       <c r="B249" s="42"/>
       <c r="C249" s="34"/>
       <c r="D249" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E249" s="19"/>
       <c r="F249" s="20"/>
@@ -4434,7 +4471,7 @@
       <c r="B250" s="42"/>
       <c r="C250" s="34"/>
       <c r="D250" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E250" s="19"/>
       <c r="F250" s="20"/>
@@ -4443,7 +4480,7 @@
       <c r="B251" s="42"/>
       <c r="C251" s="34"/>
       <c r="D251" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E251" s="19"/>
       <c r="F251" s="20"/>
@@ -4458,10 +4495,10 @@
     <row r="253" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B253" s="42"/>
       <c r="C253" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="D253" s="12" t="s">
         <v>258</v>
-      </c>
-      <c r="D253" s="12" t="s">
-        <v>259</v>
       </c>
       <c r="E253" s="19" t="s">
         <v>8</v>
@@ -4472,7 +4509,7 @@
       <c r="B254" s="42"/>
       <c r="C254" s="34"/>
       <c r="D254" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E254" s="19" t="s">
         <v>8</v>
@@ -4483,7 +4520,7 @@
       <c r="B255" s="42"/>
       <c r="C255" s="34"/>
       <c r="D255" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E255" s="19"/>
       <c r="F255" s="20"/>
@@ -4492,7 +4529,7 @@
       <c r="B256" s="42"/>
       <c r="C256" s="34"/>
       <c r="D256" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E256" s="19"/>
       <c r="F256" s="20"/>
@@ -4501,7 +4538,7 @@
       <c r="B257" s="42"/>
       <c r="C257" s="34"/>
       <c r="D257" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E257" s="19"/>
       <c r="F257" s="20"/>
@@ -4510,7 +4547,7 @@
       <c r="B258" s="42"/>
       <c r="C258" s="34"/>
       <c r="D258" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E258" s="19"/>
       <c r="F258" s="20"/>
@@ -4519,7 +4556,7 @@
       <c r="B259" s="42"/>
       <c r="C259" s="34"/>
       <c r="D259" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E259" s="19"/>
       <c r="F259" s="20"/>
@@ -4528,7 +4565,7 @@
       <c r="B260" s="42"/>
       <c r="C260" s="34"/>
       <c r="D260" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E260" s="19"/>
       <c r="F260" s="20"/>
@@ -4537,7 +4574,7 @@
       <c r="B261" s="42"/>
       <c r="C261" s="34"/>
       <c r="D261" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E261" s="19"/>
       <c r="F261" s="20"/>
@@ -4546,7 +4583,7 @@
       <c r="B262" s="42"/>
       <c r="C262" s="34"/>
       <c r="D262" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E262" s="19"/>
       <c r="F262" s="20"/>
@@ -4558,23 +4595,14 @@
       <c r="E263" s="19"/>
       <c r="F263" s="20"/>
     </row>
-    <row r="264" customFormat="1" hidden="1" spans="2:6">
-      <c r="B264" s="39" t="s">
-        <v>269</v>
-      </c>
-      <c r="C264" s="39" t="s">
-        <v>270</v>
-      </c>
-      <c r="D264" s="23"/>
-      <c r="E264" s="19"/>
-      <c r="F264" s="20"/>
-    </row>
   </sheetData>
-  <autoFilter ref="B1:F264">
+  <autoFilter ref="B1:F263">
     <filterColumn colId="1">
-      <customFilters>
-        <customFilter operator="equal" val="回溯"/>
-      </customFilters>
+      <filters>
+        <filter val="Trie"/>
+        <filter val="堆"/>
+        <filter val="哈希表"/>
+      </filters>
     </filterColumn>
     <filterColumn colId="3">
       <filters blank="1"/>

--- a/刷题.xlsx
+++ b/刷题.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269">
   <si>
     <t>周</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>772. 基本计算器 III（困难 包含括号 力扣会员）</t>
+  </si>
+  <si>
+    <t>放弃</t>
   </si>
   <si>
     <t>1047. 删除字符串中的所有相邻重复项（简单）</t>
@@ -830,9 +833,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -884,6 +887,13 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="major"/>
@@ -919,52 +929,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -979,13 +943,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -994,16 +951,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1017,24 +1003,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1048,8 +1019,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1063,10 +1057,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1085,19 +1088,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1121,7 +1136,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1133,37 +1238,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1175,91 +1256,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1403,17 +1406,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1433,21 +1427,34 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1483,17 +1490,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1502,124 +1505,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1628,22 +1631,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1696,6 +1699,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1711,7 +1717,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1729,16 +1735,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1747,7 +1753,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1756,20 +1762,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2104,7 +2107,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I162" sqref="I162"/>
+      <selection pane="bottomLeft" activeCell="D161" sqref="D161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="5"/>
@@ -2126,10 +2129,10 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="19" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2143,10 +2146,10 @@
       <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="20"/>
+      <c r="E2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B3" s="4"/>
@@ -2154,10 +2157,10 @@
       <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="20"/>
+      <c r="E3" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B4" s="4"/>
@@ -2165,10 +2168,10 @@
       <c r="D4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="20"/>
+      <c r="E4" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="21"/>
     </row>
     <row r="5" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B5" s="4"/>
@@ -2176,10 +2179,10 @@
       <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="20"/>
+      <c r="E5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="21"/>
     </row>
     <row r="6" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B6" s="4"/>
@@ -2187,10 +2190,10 @@
       <c r="D6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="20"/>
+      <c r="E6" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="21"/>
     </row>
     <row r="7" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B7" s="4"/>
@@ -2198,10 +2201,10 @@
       <c r="D7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="20"/>
+      <c r="E7" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="21"/>
     </row>
     <row r="8" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B8" s="4"/>
@@ -2209,10 +2212,10 @@
       <c r="D8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="20"/>
+      <c r="E8" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="21"/>
     </row>
     <row r="9" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B9" s="4"/>
@@ -2220,10 +2223,10 @@
       <c r="D9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="20"/>
+      <c r="E9" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="21"/>
     </row>
     <row r="10" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B10" s="4"/>
@@ -2231,8 +2234,10 @@
       <c r="D10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20"/>
+      <c r="E10" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="21"/>
     </row>
     <row r="11" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B11" s="4"/>
@@ -2240,26 +2245,28 @@
       <c r="D11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20"/>
-    </row>
-    <row r="12" customFormat="1" ht="18" hidden="1" spans="2:6">
+      <c r="E11" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="21"/>
+    </row>
+    <row r="12" customFormat="1" ht="18" spans="2:6">
       <c r="B12" s="4"/>
       <c r="C12" s="7"/>
       <c r="D12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="20"/>
-    </row>
-    <row r="13" customFormat="1" hidden="1" spans="2:6">
+      <c r="E12" s="20"/>
+      <c r="F12" s="21"/>
+    </row>
+    <row r="13" customFormat="1" spans="2:6">
       <c r="B13" s="4"/>
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="20"/>
-    </row>
-    <row r="14" customFormat="1" ht="18" hidden="1" spans="2:6">
+      <c r="E13" s="20"/>
+      <c r="F13" s="21"/>
+    </row>
+    <row r="14" customFormat="1" ht="18" spans="2:6">
       <c r="B14" s="4"/>
       <c r="C14" s="5" t="s">
         <v>19</v>
@@ -2267,17 +2274,17 @@
       <c r="D14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="20"/>
-    </row>
-    <row r="15" customFormat="1" ht="18" hidden="1" spans="2:6">
+      <c r="E14" s="20"/>
+      <c r="F14" s="21"/>
+    </row>
+    <row r="15" customFormat="1" ht="18" spans="2:6">
       <c r="B15" s="4"/>
       <c r="C15" s="7"/>
       <c r="D15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="21"/>
     </row>
     <row r="16" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B16" s="4"/>
@@ -2285,78 +2292,80 @@
       <c r="D16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="20"/>
-    </row>
-    <row r="17" customFormat="1" ht="18" hidden="1" spans="2:6">
+      <c r="E16" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="21"/>
+    </row>
+    <row r="17" customFormat="1" ht="18" spans="2:6">
       <c r="B17" s="4"/>
       <c r="C17" s="7"/>
       <c r="D17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="20"/>
-    </row>
-    <row r="18" customFormat="1" ht="18" hidden="1" spans="2:6">
+      <c r="E17" s="20"/>
+      <c r="F17" s="21"/>
+    </row>
+    <row r="18" customFormat="1" ht="18" spans="2:6">
       <c r="B18" s="4"/>
       <c r="C18" s="7"/>
       <c r="D18" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="20"/>
-    </row>
-    <row r="19" customFormat="1" ht="18" hidden="1" spans="2:6">
+      <c r="E18" s="20"/>
+      <c r="F18" s="21"/>
+    </row>
+    <row r="19" customFormat="1" ht="18" spans="2:6">
       <c r="B19" s="4"/>
       <c r="C19" s="7"/>
       <c r="D19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="20"/>
-    </row>
-    <row r="20" customFormat="1" ht="18" hidden="1" spans="2:6">
+      <c r="E19" s="20"/>
+      <c r="F19" s="21"/>
+    </row>
+    <row r="20" customFormat="1" ht="18" spans="2:6">
       <c r="B20" s="4"/>
       <c r="C20" s="7"/>
       <c r="D20" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="20"/>
-    </row>
-    <row r="21" customFormat="1" ht="18" hidden="1" spans="2:6">
+      <c r="E20" s="20"/>
+      <c r="F20" s="21"/>
+    </row>
+    <row r="21" customFormat="1" ht="18" spans="2:6">
       <c r="B21" s="4"/>
       <c r="C21" s="7"/>
       <c r="D21" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="20"/>
-    </row>
-    <row r="22" customFormat="1" ht="18" hidden="1" spans="2:6">
+      <c r="E21" s="20"/>
+      <c r="F21" s="21"/>
+    </row>
+    <row r="22" customFormat="1" ht="18" spans="2:6">
       <c r="B22" s="4"/>
       <c r="C22" s="7"/>
       <c r="D22" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="20"/>
-    </row>
-    <row r="23" customFormat="1" ht="18" hidden="1" spans="2:6">
+      <c r="E22" s="20"/>
+      <c r="F22" s="21"/>
+    </row>
+    <row r="23" customFormat="1" ht="18" spans="2:6">
       <c r="B23" s="4"/>
       <c r="C23" s="7"/>
       <c r="D23" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="19"/>
-      <c r="F23" s="20"/>
-    </row>
-    <row r="24" customFormat="1" hidden="1" spans="2:6">
+      <c r="E23" s="20"/>
+      <c r="F23" s="21"/>
+    </row>
+    <row r="24" customFormat="1" spans="2:6">
       <c r="B24" s="4"/>
       <c r="C24" s="9"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="21"/>
     </row>
     <row r="25" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B25" s="10" t="s">
@@ -2368,10 +2377,10 @@
       <c r="D25" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="20"/>
+      <c r="E25" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="21"/>
     </row>
     <row r="26" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B26" s="10"/>
@@ -2379,10 +2388,10 @@
       <c r="D26" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="20"/>
+      <c r="E26" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="21"/>
     </row>
     <row r="27" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B27" s="10"/>
@@ -2390,10 +2399,10 @@
       <c r="D27" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="20"/>
+      <c r="E27" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="21"/>
     </row>
     <row r="28" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B28" s="10"/>
@@ -2401,10 +2410,10 @@
       <c r="D28" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="20"/>
+      <c r="E28" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="21"/>
     </row>
     <row r="29" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B29" s="10"/>
@@ -2412,10 +2421,10 @@
       <c r="D29" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="20"/>
+      <c r="E29" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="21"/>
     </row>
     <row r="30" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B30" s="10"/>
@@ -2423,10 +2432,10 @@
       <c r="D30" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" s="20"/>
+      <c r="E30" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="21"/>
     </row>
     <row r="31" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B31" s="10"/>
@@ -2434,17 +2443,17 @@
       <c r="D31" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="20"/>
+      <c r="E31" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="21"/>
     </row>
     <row r="32" customFormat="1" hidden="1" spans="2:6">
       <c r="B32" s="10"/>
       <c r="C32" s="13"/>
       <c r="D32" s="14"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="21"/>
     </row>
     <row r="33" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B33" s="10"/>
@@ -2452,10 +2461,10 @@
       <c r="D33" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="20"/>
+      <c r="E33" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="21"/>
     </row>
     <row r="34" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B34" s="10"/>
@@ -2463,10 +2472,10 @@
       <c r="D34" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" s="20"/>
+      <c r="E34" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="21"/>
     </row>
     <row r="35" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B35" s="10"/>
@@ -2474,10 +2483,10 @@
       <c r="D35" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E35" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="20"/>
+      <c r="E35" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="21"/>
     </row>
     <row r="36" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B36" s="10"/>
@@ -2485,10 +2494,10 @@
       <c r="D36" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E36" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" s="20"/>
+      <c r="E36" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="21"/>
     </row>
     <row r="37" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B37" s="10"/>
@@ -2496,10 +2505,10 @@
       <c r="D37" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E37" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37" s="20"/>
+      <c r="E37" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="21"/>
     </row>
     <row r="38" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B38" s="10"/>
@@ -2507,17 +2516,17 @@
       <c r="D38" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E38" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" s="20"/>
+      <c r="E38" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="21"/>
     </row>
     <row r="39" customFormat="1" hidden="1" spans="2:6">
       <c r="B39" s="10"/>
       <c r="C39" s="15"/>
       <c r="D39" s="14"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="21"/>
     </row>
     <row r="40" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B40" s="10"/>
@@ -2527,19 +2536,19 @@
       <c r="D40" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E40" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" s="20"/>
-    </row>
-    <row r="41" customFormat="1" ht="18" hidden="1" spans="2:6">
+      <c r="E40" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="21"/>
+    </row>
+    <row r="41" customFormat="1" ht="18" spans="2:6">
       <c r="B41" s="10"/>
       <c r="C41" s="13"/>
       <c r="D41" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E41" s="19"/>
-      <c r="F41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="21"/>
     </row>
     <row r="42" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B42" s="10"/>
@@ -2547,44 +2556,46 @@
       <c r="D42" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E42" s="19"/>
-      <c r="F42" s="20"/>
-    </row>
-    <row r="43" customFormat="1" ht="18" hidden="1" spans="2:6">
+      <c r="E42" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="21"/>
+    </row>
+    <row r="43" customFormat="1" ht="18" spans="2:6">
       <c r="B43" s="10"/>
       <c r="C43" s="13"/>
       <c r="D43" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E43" s="19"/>
-      <c r="F43" s="20"/>
-    </row>
-    <row r="44" customFormat="1" ht="18" hidden="1" spans="2:6">
+      <c r="E43" s="20"/>
+      <c r="F43" s="21"/>
+    </row>
+    <row r="44" customFormat="1" ht="18" spans="2:6">
       <c r="B44" s="10"/>
       <c r="C44" s="13"/>
       <c r="D44" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E44" s="19"/>
-      <c r="F44" s="20"/>
-    </row>
-    <row r="45" customFormat="1" ht="18" hidden="1" spans="2:6">
+      <c r="E44" s="20"/>
+      <c r="F44" s="21"/>
+    </row>
+    <row r="45" customFormat="1" ht="18" spans="2:6">
       <c r="B45" s="10"/>
       <c r="C45" s="13"/>
       <c r="D45" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E45" s="19"/>
-      <c r="F45" s="20"/>
-    </row>
-    <row r="46" customFormat="1" ht="18" hidden="1" spans="2:6">
+      <c r="E45" s="20"/>
+      <c r="F45" s="21"/>
+    </row>
+    <row r="46" customFormat="1" ht="18" spans="2:6">
       <c r="B46" s="10"/>
       <c r="C46" s="13"/>
-      <c r="D46" s="12" t="s">
+      <c r="D46" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E46" s="19"/>
-      <c r="F46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="21"/>
     </row>
     <row r="47" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B47" s="10"/>
@@ -2592,2016 +2603,2096 @@
       <c r="D47" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E47" s="19"/>
-      <c r="F47" s="20"/>
-    </row>
-    <row r="48" customFormat="1" ht="18" hidden="1" spans="2:6">
+      <c r="E47" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F47" s="21"/>
+    </row>
+    <row r="48" customFormat="1" ht="18" spans="2:6">
       <c r="B48" s="10"/>
       <c r="C48" s="13"/>
       <c r="D48" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E48" s="19"/>
-      <c r="F48" s="20"/>
-    </row>
-    <row r="49" customFormat="1" ht="18" hidden="1" spans="2:6">
+        <v>55</v>
+      </c>
+      <c r="E48" s="20"/>
+      <c r="F48" s="21"/>
+    </row>
+    <row r="49" customFormat="1" ht="18" spans="2:6">
       <c r="B49" s="10"/>
       <c r="C49" s="13"/>
       <c r="D49" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E49" s="19"/>
-      <c r="F49" s="20"/>
-    </row>
-    <row r="50" customFormat="1" hidden="1" spans="2:6">
+        <v>56</v>
+      </c>
+      <c r="E49" s="20"/>
+      <c r="F49" s="21"/>
+    </row>
+    <row r="50" customFormat="1" spans="2:6">
       <c r="B50" s="10"/>
       <c r="C50" s="15"/>
       <c r="D50" s="14"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="21"/>
     </row>
     <row r="51" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B51" s="10"/>
       <c r="C51" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E51" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F51" s="20"/>
-    </row>
-    <row r="52" customFormat="1" ht="18" hidden="1" spans="2:6">
+        <v>58</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="21"/>
+    </row>
+    <row r="52" customFormat="1" ht="18" spans="2:6">
       <c r="B52" s="10"/>
       <c r="C52" s="13"/>
       <c r="D52" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E52" s="19"/>
-      <c r="F52" s="20"/>
-    </row>
-    <row r="53" customFormat="1" ht="18" hidden="1" spans="2:6">
+        <v>59</v>
+      </c>
+      <c r="E52" s="20"/>
+      <c r="F52" s="21"/>
+    </row>
+    <row r="53" customFormat="1" ht="18" spans="2:6">
       <c r="B53" s="10"/>
       <c r="C53" s="13"/>
       <c r="D53" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E53" s="19"/>
-      <c r="F53" s="20"/>
-    </row>
-    <row r="54" customFormat="1" ht="18" hidden="1" spans="2:6">
+        <v>60</v>
+      </c>
+      <c r="E53" s="20"/>
+      <c r="F53" s="21"/>
+    </row>
+    <row r="54" customFormat="1" ht="18" spans="2:6">
       <c r="B54" s="10"/>
       <c r="C54" s="13"/>
       <c r="D54" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E54" s="19"/>
-      <c r="F54" s="20"/>
-    </row>
-    <row r="55" customFormat="1" ht="18" hidden="1" spans="2:6">
+        <v>61</v>
+      </c>
+      <c r="E54" s="20"/>
+      <c r="F54" s="21"/>
+    </row>
+    <row r="55" customFormat="1" ht="18" spans="2:6">
       <c r="B55" s="10"/>
       <c r="C55" s="13"/>
       <c r="D55" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E55" s="19"/>
-      <c r="F55" s="20"/>
-    </row>
-    <row r="56" customFormat="1" ht="18" hidden="1" spans="2:6">
+        <v>62</v>
+      </c>
+      <c r="E55" s="20"/>
+      <c r="F55" s="21"/>
+    </row>
+    <row r="56" customFormat="1" ht="18" spans="2:6">
       <c r="B56" s="10"/>
       <c r="C56" s="13"/>
       <c r="D56" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E56" s="19"/>
-      <c r="F56" s="20"/>
-    </row>
-    <row r="57" customFormat="1" hidden="1" spans="2:6">
+        <v>63</v>
+      </c>
+      <c r="E56" s="20"/>
+      <c r="F56" s="21"/>
+    </row>
+    <row r="57" customFormat="1" spans="2:6">
       <c r="B57" s="10"/>
       <c r="C57" s="13"/>
       <c r="D57" s="14"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="21"/>
     </row>
     <row r="58" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B58" s="16" t="s">
-        <v>63</v>
+      <c r="B58" s="17" t="s">
+        <v>64</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E58" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="20"/>
+        <v>66</v>
+      </c>
+      <c r="E58" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="21"/>
     </row>
     <row r="59" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B59" s="17"/>
+      <c r="B59" s="18"/>
       <c r="C59" s="4"/>
       <c r="D59" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E59" s="19"/>
-      <c r="F59" s="20"/>
+        <v>67</v>
+      </c>
+      <c r="E59" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="21"/>
     </row>
     <row r="60" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B60" s="17"/>
+      <c r="B60" s="18"/>
       <c r="C60" s="4"/>
       <c r="D60" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E60" s="19"/>
-      <c r="F60" s="20"/>
+        <v>68</v>
+      </c>
+      <c r="E60" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="21"/>
     </row>
     <row r="61" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B61" s="17"/>
+      <c r="B61" s="18"/>
       <c r="C61" s="4"/>
       <c r="D61" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E61" s="19"/>
-      <c r="F61" s="20"/>
+        <v>69</v>
+      </c>
+      <c r="E61" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" s="21"/>
     </row>
     <row r="62" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B62" s="17"/>
+      <c r="B62" s="18"/>
       <c r="C62" s="4"/>
       <c r="D62" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E62" s="19"/>
-      <c r="F62" s="20"/>
-    </row>
-    <row r="63" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B63" s="17"/>
+        <v>70</v>
+      </c>
+      <c r="E62" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="21"/>
+    </row>
+    <row r="63" customFormat="1" ht="18" spans="2:6">
+      <c r="B63" s="18"/>
       <c r="C63" s="4"/>
       <c r="D63" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E63" s="19"/>
-      <c r="F63" s="20"/>
+        <v>71</v>
+      </c>
+      <c r="E63" s="20"/>
+      <c r="F63" s="21"/>
     </row>
     <row r="64" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B64" s="17"/>
+      <c r="B64" s="18"/>
       <c r="C64" s="4"/>
       <c r="D64" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E64" s="19"/>
-      <c r="F64" s="20"/>
-    </row>
-    <row r="65" customFormat="1" hidden="1" spans="2:6">
-      <c r="B65" s="17"/>
+        <v>72</v>
+      </c>
+      <c r="E64" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" s="21"/>
+    </row>
+    <row r="65" customFormat="1" spans="2:6">
+      <c r="B65" s="18"/>
       <c r="C65" s="4"/>
       <c r="D65" s="6"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="21"/>
     </row>
     <row r="66" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B66" s="17"/>
+      <c r="B66" s="18"/>
       <c r="C66" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E66" s="19"/>
-      <c r="F66" s="20"/>
+        <v>74</v>
+      </c>
+      <c r="E66" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" s="21"/>
     </row>
     <row r="67" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B67" s="17"/>
+      <c r="B67" s="18"/>
       <c r="C67" s="4"/>
       <c r="D67" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E67" s="19"/>
-      <c r="F67" s="20"/>
+        <v>75</v>
+      </c>
+      <c r="E67" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" s="21"/>
     </row>
     <row r="68" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B68" s="17"/>
+      <c r="B68" s="18"/>
       <c r="C68" s="4"/>
       <c r="D68" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E68" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F68" s="20"/>
+        <v>76</v>
+      </c>
+      <c r="E68" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" s="21"/>
     </row>
     <row r="69" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B69" s="17"/>
+      <c r="B69" s="18"/>
       <c r="C69" s="4"/>
       <c r="D69" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E69" s="19"/>
-      <c r="F69" s="20"/>
+        <v>77</v>
+      </c>
+      <c r="E69" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" s="21"/>
     </row>
     <row r="70" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B70" s="17"/>
+      <c r="B70" s="18"/>
       <c r="C70" s="4"/>
       <c r="D70" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="E70" s="19"/>
-      <c r="F70" s="20"/>
+        <v>78</v>
+      </c>
+      <c r="E70" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F70" s="21"/>
     </row>
     <row r="71" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B71" s="17"/>
+      <c r="B71" s="18"/>
       <c r="C71" s="4"/>
       <c r="D71" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E71" s="19"/>
-      <c r="F71" s="20"/>
+        <v>79</v>
+      </c>
+      <c r="E71" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" s="21"/>
     </row>
     <row r="72" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B72" s="17"/>
+      <c r="B72" s="18"/>
       <c r="C72" s="4"/>
       <c r="D72" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="E72" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F72" s="20"/>
+        <v>80</v>
+      </c>
+      <c r="E72" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="21"/>
     </row>
     <row r="73" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B73" s="17"/>
+      <c r="B73" s="18"/>
       <c r="C73" s="4"/>
       <c r="D73" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E73" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F73" s="20"/>
+        <v>81</v>
+      </c>
+      <c r="E73" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" s="21"/>
     </row>
     <row r="74" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B74" s="17"/>
+      <c r="B74" s="18"/>
       <c r="C74" s="4"/>
       <c r="D74" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E74" s="19"/>
-      <c r="F74" s="20"/>
+        <v>82</v>
+      </c>
+      <c r="E74" s="20"/>
+      <c r="F74" s="21"/>
     </row>
     <row r="75" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B75" s="17"/>
+      <c r="B75" s="18"/>
       <c r="C75" s="4"/>
       <c r="D75" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E75" s="19"/>
-      <c r="F75" s="20"/>
+        <v>83</v>
+      </c>
+      <c r="E75" s="20"/>
+      <c r="F75" s="21"/>
     </row>
     <row r="76" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B76" s="17"/>
+      <c r="B76" s="18"/>
       <c r="C76" s="4"/>
       <c r="D76" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="E76" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F76" s="20"/>
+        <v>84</v>
+      </c>
+      <c r="E76" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" s="21"/>
     </row>
     <row r="77" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B77" s="17"/>
+      <c r="B77" s="18"/>
       <c r="C77" s="4"/>
       <c r="D77" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="E77" s="19"/>
-      <c r="F77" s="20"/>
+        <v>85</v>
+      </c>
+      <c r="E77" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" s="21"/>
     </row>
     <row r="78" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B78" s="17"/>
+      <c r="B78" s="18"/>
       <c r="C78" s="4"/>
       <c r="D78" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="E78" s="19"/>
-      <c r="F78" s="20"/>
+        <v>86</v>
+      </c>
+      <c r="E78" s="20"/>
+      <c r="F78" s="21"/>
     </row>
     <row r="79" customFormat="1" hidden="1" spans="2:6">
-      <c r="B79" s="22"/>
+      <c r="B79" s="23"/>
       <c r="C79" s="4"/>
-      <c r="D79" s="23"/>
-      <c r="E79" s="19"/>
-      <c r="F79" s="20"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="21"/>
     </row>
     <row r="80" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B80" s="24" t="s">
-        <v>86</v>
+      <c r="B80" s="25" t="s">
+        <v>87</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E80" s="19"/>
-      <c r="F80" s="20"/>
+        <v>89</v>
+      </c>
+      <c r="E80" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" s="21"/>
     </row>
     <row r="81" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B81" s="24"/>
+      <c r="B81" s="25"/>
       <c r="C81" s="7"/>
       <c r="D81" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E81" s="19"/>
-      <c r="F81" s="20"/>
-    </row>
-    <row r="82" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B82" s="24"/>
+        <v>90</v>
+      </c>
+      <c r="E81" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81" s="21"/>
+    </row>
+    <row r="82" customFormat="1" ht="18" spans="2:6">
+      <c r="B82" s="25"/>
       <c r="C82" s="7"/>
       <c r="D82" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E82" s="19"/>
-      <c r="F82" s="20"/>
-    </row>
-    <row r="83" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B83" s="24"/>
+        <v>91</v>
+      </c>
+      <c r="E82" s="20"/>
+      <c r="F82" s="21"/>
+    </row>
+    <row r="83" customFormat="1" ht="18" spans="2:6">
+      <c r="B83" s="25"/>
       <c r="C83" s="7"/>
       <c r="D83" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E83" s="19"/>
-      <c r="F83" s="20"/>
+        <v>92</v>
+      </c>
+      <c r="E83" s="20"/>
+      <c r="F83" s="21"/>
     </row>
     <row r="84" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B84" s="24"/>
+      <c r="B84" s="25"/>
       <c r="C84" s="7"/>
       <c r="D84" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E84" s="19"/>
-      <c r="F84" s="20"/>
-    </row>
-    <row r="85" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B85" s="24"/>
+        <v>93</v>
+      </c>
+      <c r="E84" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" s="21"/>
+    </row>
+    <row r="85" customFormat="1" ht="18" spans="2:6">
+      <c r="B85" s="25"/>
       <c r="C85" s="7"/>
       <c r="D85" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="E85" s="19"/>
-      <c r="F85" s="20"/>
-    </row>
-    <row r="86" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B86" s="24"/>
+        <v>94</v>
+      </c>
+      <c r="E85" s="20"/>
+      <c r="F85" s="21"/>
+    </row>
+    <row r="86" customFormat="1" ht="18" spans="2:6">
+      <c r="B86" s="25"/>
       <c r="C86" s="7"/>
       <c r="D86" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E86" s="19"/>
-      <c r="F86" s="20"/>
-    </row>
-    <row r="87" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B87" s="24"/>
+        <v>95</v>
+      </c>
+      <c r="E86" s="20"/>
+      <c r="F86" s="21"/>
+    </row>
+    <row r="87" customFormat="1" ht="18" spans="2:6">
+      <c r="B87" s="25"/>
       <c r="C87" s="7"/>
       <c r="D87" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E87" s="19"/>
-      <c r="F87" s="20"/>
-    </row>
-    <row r="88" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B88" s="24"/>
+        <v>96</v>
+      </c>
+      <c r="E87" s="20"/>
+      <c r="F87" s="21"/>
+    </row>
+    <row r="88" customFormat="1" ht="18" spans="2:6">
+      <c r="B88" s="25"/>
       <c r="C88" s="7"/>
       <c r="D88" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E88" s="19"/>
-      <c r="F88" s="20"/>
-    </row>
-    <row r="89" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B89" s="24"/>
+        <v>97</v>
+      </c>
+      <c r="E88" s="20"/>
+      <c r="F88" s="21"/>
+    </row>
+    <row r="89" customFormat="1" ht="18" spans="2:6">
+      <c r="B89" s="25"/>
       <c r="C89" s="7"/>
       <c r="D89" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E89" s="19"/>
-      <c r="F89" s="20"/>
-    </row>
-    <row r="90" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B90" s="24"/>
+        <v>98</v>
+      </c>
+      <c r="E89" s="20"/>
+      <c r="F89" s="21"/>
+    </row>
+    <row r="90" customFormat="1" ht="18" spans="2:6">
+      <c r="B90" s="25"/>
       <c r="C90" s="7"/>
       <c r="D90" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E90" s="19"/>
-      <c r="F90" s="20"/>
-    </row>
-    <row r="91" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B91" s="24"/>
+        <v>99</v>
+      </c>
+      <c r="E90" s="20"/>
+      <c r="F90" s="21"/>
+    </row>
+    <row r="91" customFormat="1" ht="18" spans="2:6">
+      <c r="B91" s="25"/>
       <c r="C91" s="7"/>
       <c r="D91" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E91" s="19"/>
-      <c r="F91" s="20"/>
-    </row>
-    <row r="92" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B92" s="24"/>
+        <v>100</v>
+      </c>
+      <c r="E91" s="20"/>
+      <c r="F91" s="21"/>
+    </row>
+    <row r="92" customFormat="1" ht="18" spans="2:6">
+      <c r="B92" s="25"/>
       <c r="C92" s="7"/>
       <c r="D92" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E92" s="19"/>
-      <c r="F92" s="20"/>
-    </row>
-    <row r="93" customFormat="1" hidden="1" spans="2:6">
-      <c r="B93" s="24"/>
+        <v>101</v>
+      </c>
+      <c r="E92" s="20"/>
+      <c r="F92" s="21"/>
+    </row>
+    <row r="93" customFormat="1" spans="2:6">
+      <c r="B93" s="25"/>
       <c r="C93" s="7"/>
-      <c r="D93" s="25"/>
-      <c r="E93" s="19"/>
-      <c r="F93" s="20"/>
-    </row>
-    <row r="94" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B94" s="24"/>
+      <c r="D93" s="26"/>
+      <c r="E93" s="20"/>
+      <c r="F93" s="21"/>
+    </row>
+    <row r="94" customFormat="1" ht="18" spans="2:6">
+      <c r="B94" s="25"/>
       <c r="C94" s="7"/>
       <c r="D94" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E94" s="19"/>
-      <c r="F94" s="20"/>
-    </row>
-    <row r="95" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B95" s="24"/>
+        <v>102</v>
+      </c>
+      <c r="E94" s="20"/>
+      <c r="F94" s="21"/>
+    </row>
+    <row r="95" customFormat="1" ht="18" spans="2:6">
+      <c r="B95" s="25"/>
       <c r="C95" s="7"/>
       <c r="D95" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E95" s="19"/>
-      <c r="F95" s="20"/>
-    </row>
-    <row r="96" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B96" s="24"/>
+        <v>103</v>
+      </c>
+      <c r="E95" s="20"/>
+      <c r="F95" s="21"/>
+    </row>
+    <row r="96" customFormat="1" ht="18" spans="2:6">
+      <c r="B96" s="25"/>
       <c r="C96" s="7"/>
       <c r="D96" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E96" s="19"/>
-      <c r="F96" s="20"/>
-    </row>
-    <row r="97" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B97" s="24"/>
+        <v>104</v>
+      </c>
+      <c r="E96" s="20"/>
+      <c r="F96" s="21"/>
+    </row>
+    <row r="97" customFormat="1" ht="18" spans="2:6">
+      <c r="B97" s="25"/>
       <c r="C97" s="7"/>
       <c r="D97" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E97" s="19"/>
-      <c r="F97" s="20"/>
-    </row>
-    <row r="98" customFormat="1" hidden="1" spans="2:6">
-      <c r="B98" s="24"/>
+        <v>105</v>
+      </c>
+      <c r="E97" s="20"/>
+      <c r="F97" s="21"/>
+    </row>
+    <row r="98" customFormat="1" spans="2:6">
+      <c r="B98" s="25"/>
       <c r="C98" s="9"/>
-      <c r="D98" s="23"/>
-      <c r="E98" s="19"/>
-      <c r="F98" s="20"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="20"/>
+      <c r="F98" s="21"/>
     </row>
     <row r="99" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B99" s="24"/>
+      <c r="B99" s="25"/>
       <c r="C99" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="E99" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F99" s="20"/>
+        <v>107</v>
+      </c>
+      <c r="E99" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F99" s="21"/>
     </row>
     <row r="100" customFormat="1" ht="18" spans="2:6">
-      <c r="B100" s="24"/>
+      <c r="B100" s="25"/>
       <c r="C100" s="7"/>
       <c r="D100" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="E100" s="19"/>
-      <c r="F100" s="20"/>
+        <v>108</v>
+      </c>
+      <c r="E100" s="20"/>
+      <c r="F100" s="21"/>
     </row>
     <row r="101" customFormat="1" ht="18" spans="2:6">
-      <c r="B101" s="24"/>
+      <c r="B101" s="25"/>
       <c r="C101" s="7"/>
       <c r="D101" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E101" s="19"/>
-      <c r="F101" s="20"/>
+      <c r="E101" s="20"/>
+      <c r="F101" s="21"/>
     </row>
     <row r="102" customFormat="1" ht="18" spans="2:6">
-      <c r="B102" s="24"/>
+      <c r="B102" s="25"/>
       <c r="C102" s="7"/>
       <c r="D102" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E102" s="19"/>
-      <c r="F102" s="20"/>
+      <c r="E102" s="20"/>
+      <c r="F102" s="21"/>
     </row>
     <row r="103" customFormat="1" ht="18" spans="2:6">
-      <c r="B103" s="24"/>
+      <c r="B103" s="25"/>
       <c r="C103" s="7"/>
       <c r="D103" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="E103" s="19"/>
-      <c r="F103" s="20"/>
-    </row>
-    <row r="104" customFormat="1" ht="18" spans="2:6">
-      <c r="B104" s="24"/>
+        <v>109</v>
+      </c>
+      <c r="E103" s="20"/>
+      <c r="F103" s="21"/>
+    </row>
+    <row r="104" customFormat="1" ht="18" hidden="1" spans="2:6">
+      <c r="B104" s="25"/>
       <c r="C104" s="7"/>
       <c r="D104" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="E104" s="19"/>
-      <c r="F104" s="20"/>
-    </row>
-    <row r="105" customFormat="1" ht="18" spans="2:6">
-      <c r="B105" s="24"/>
+        <v>110</v>
+      </c>
+      <c r="E104" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F104" s="21"/>
+    </row>
+    <row r="105" customFormat="1" ht="18" hidden="1" spans="2:6">
+      <c r="B105" s="25"/>
       <c r="C105" s="7"/>
       <c r="D105" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="E105" s="19"/>
-      <c r="F105" s="20"/>
-    </row>
-    <row r="106" customFormat="1" ht="18" spans="2:6">
-      <c r="B106" s="24"/>
+        <v>111</v>
+      </c>
+      <c r="E105" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F105" s="21"/>
+    </row>
+    <row r="106" customFormat="1" ht="18" hidden="1" spans="2:6">
+      <c r="B106" s="25"/>
       <c r="C106" s="7"/>
       <c r="D106" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="E106" s="19"/>
-      <c r="F106" s="20"/>
+        <v>112</v>
+      </c>
+      <c r="E106" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F106" s="21"/>
     </row>
     <row r="107" customFormat="1" ht="18" spans="2:6">
-      <c r="B107" s="24"/>
+      <c r="B107" s="25"/>
       <c r="C107" s="7"/>
       <c r="D107" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E107" s="19"/>
-      <c r="F107" s="20"/>
+        <v>76</v>
+      </c>
+      <c r="E107" s="20"/>
+      <c r="F107" s="21"/>
     </row>
     <row r="108" customFormat="1" ht="18" spans="2:6">
-      <c r="B108" s="24"/>
+      <c r="B108" s="25"/>
       <c r="C108" s="7"/>
       <c r="D108" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="E108" s="19"/>
-      <c r="F108" s="20"/>
-    </row>
-    <row r="109" customFormat="1" ht="18" spans="2:6">
-      <c r="B109" s="24"/>
+        <v>113</v>
+      </c>
+      <c r="E108" s="20"/>
+      <c r="F108" s="21"/>
+    </row>
+    <row r="109" customFormat="1" ht="18" hidden="1" spans="2:6">
+      <c r="B109" s="25"/>
       <c r="C109" s="7"/>
       <c r="D109" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="E109" s="19"/>
-      <c r="F109" s="20"/>
-    </row>
-    <row r="110" customFormat="1" ht="18" spans="2:6">
-      <c r="B110" s="24"/>
+        <v>114</v>
+      </c>
+      <c r="E109" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F109" s="21"/>
+    </row>
+    <row r="110" customFormat="1" ht="18" hidden="1" spans="2:6">
+      <c r="B110" s="25"/>
       <c r="C110" s="7"/>
       <c r="D110" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="E110" s="19"/>
-      <c r="F110" s="20"/>
+        <v>115</v>
+      </c>
+      <c r="E110" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F110" s="21"/>
     </row>
     <row r="111" customFormat="1" ht="18" spans="2:6">
-      <c r="B111" s="24"/>
+      <c r="B111" s="25"/>
       <c r="C111" s="7"/>
       <c r="D111" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="E111" s="19"/>
-      <c r="F111" s="20"/>
+        <v>116</v>
+      </c>
+      <c r="E111" s="20"/>
+      <c r="F111" s="21"/>
     </row>
     <row r="112" customFormat="1" ht="18" spans="2:6">
-      <c r="B112" s="24"/>
+      <c r="B112" s="25"/>
       <c r="C112" s="7"/>
       <c r="D112" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="E112" s="19"/>
-      <c r="F112" s="20"/>
+        <v>117</v>
+      </c>
+      <c r="E112" s="20"/>
+      <c r="F112" s="21"/>
     </row>
     <row r="113" customFormat="1" ht="18" spans="2:6">
-      <c r="B113" s="24"/>
+      <c r="B113" s="25"/>
       <c r="C113" s="7"/>
       <c r="D113" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="E113" s="19"/>
-      <c r="F113" s="20"/>
+        <v>118</v>
+      </c>
+      <c r="E113" s="20"/>
+      <c r="F113" s="21"/>
     </row>
     <row r="114" customFormat="1" ht="18" spans="2:6">
-      <c r="B114" s="24"/>
+      <c r="B114" s="25"/>
       <c r="C114" s="7"/>
       <c r="D114" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="E114" s="19"/>
-      <c r="F114" s="20"/>
+        <v>119</v>
+      </c>
+      <c r="E114" s="20"/>
+      <c r="F114" s="21"/>
     </row>
     <row r="115" customFormat="1" spans="2:6">
-      <c r="B115" s="24"/>
+      <c r="B115" s="25"/>
       <c r="C115" s="9"/>
       <c r="D115" s="14"/>
-      <c r="E115" s="19"/>
-      <c r="F115" s="20"/>
+      <c r="E115" s="20"/>
+      <c r="F115" s="21"/>
     </row>
     <row r="116" customFormat="1" hidden="1" spans="2:6">
-      <c r="B116" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="C116" s="26" t="s">
+      <c r="B116" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="D116" s="27" t="s">
+      <c r="C116" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="E116" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F116" s="29"/>
+      <c r="D116" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="E116" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F116" s="30"/>
     </row>
     <row r="117" customFormat="1" hidden="1" spans="2:6">
-      <c r="B117" s="26"/>
-      <c r="C117" s="26"/>
-      <c r="D117" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="E117" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F117" s="29"/>
+      <c r="B117" s="27"/>
+      <c r="C117" s="27"/>
+      <c r="D117" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="E117" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F117" s="30"/>
     </row>
     <row r="118" customFormat="1" hidden="1" spans="2:6">
-      <c r="B118" s="26"/>
-      <c r="C118" s="26"/>
-      <c r="D118" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="E118" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F118" s="29"/>
+      <c r="B118" s="27"/>
+      <c r="C118" s="27"/>
+      <c r="D118" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="E118" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F118" s="30"/>
     </row>
     <row r="119" customFormat="1" hidden="1" spans="2:6">
-      <c r="B119" s="26"/>
-      <c r="C119" s="26"/>
-      <c r="D119" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="E119" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F119" s="29"/>
+      <c r="B119" s="27"/>
+      <c r="C119" s="27"/>
+      <c r="D119" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="E119" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F119" s="30"/>
     </row>
     <row r="120" customFormat="1" hidden="1" spans="2:6">
-      <c r="B120" s="26"/>
-      <c r="C120" s="26"/>
-      <c r="D120" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="E120" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F120" s="29"/>
-    </row>
-    <row r="121" customFormat="1" hidden="1" spans="2:6">
-      <c r="B121" s="26"/>
-      <c r="C121" s="26"/>
-      <c r="D121" s="25"/>
-      <c r="E121" s="30"/>
-      <c r="F121" s="29"/>
-    </row>
-    <row r="122" customFormat="1" hidden="1" spans="2:6">
-      <c r="B122" s="26"/>
-      <c r="C122" s="26" t="s">
+      <c r="B120" s="27"/>
+      <c r="C120" s="27"/>
+      <c r="D120" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="D122" s="28" t="s">
+      <c r="E120" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F120" s="30"/>
+    </row>
+    <row r="121" customFormat="1" spans="2:6">
+      <c r="B121" s="27"/>
+      <c r="C121" s="27"/>
+      <c r="D121" s="26"/>
+      <c r="E121" s="31"/>
+      <c r="F121" s="30"/>
+    </row>
+    <row r="122" customFormat="1" spans="2:6">
+      <c r="B122" s="27"/>
+      <c r="C122" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="E122" s="21"/>
-      <c r="F122" s="29"/>
-    </row>
-    <row r="123" customFormat="1" hidden="1" spans="2:6">
-      <c r="B123" s="26"/>
-      <c r="C123" s="26"/>
-      <c r="D123" s="27" t="s">
+      <c r="D122" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="E123" s="21"/>
-      <c r="F123" s="29"/>
-    </row>
-    <row r="124" customFormat="1" hidden="1" spans="2:6">
-      <c r="B124" s="26"/>
-      <c r="C124" s="26"/>
-      <c r="D124" s="27" t="s">
+      <c r="E122" s="22"/>
+      <c r="F122" s="30"/>
+    </row>
+    <row r="123" customFormat="1" spans="2:6">
+      <c r="B123" s="27"/>
+      <c r="C123" s="27"/>
+      <c r="D123" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="E124" s="21"/>
-      <c r="F124" s="29"/>
-    </row>
-    <row r="125" customFormat="1" hidden="1" spans="2:6">
-      <c r="B125" s="26"/>
-      <c r="C125" s="26"/>
-      <c r="D125" s="27" t="s">
+      <c r="E123" s="22"/>
+      <c r="F123" s="30"/>
+    </row>
+    <row r="124" customFormat="1" spans="2:6">
+      <c r="B124" s="27"/>
+      <c r="C124" s="27"/>
+      <c r="D124" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="E125" s="21"/>
-      <c r="F125" s="29"/>
-    </row>
-    <row r="126" customFormat="1" hidden="1" spans="2:6">
-      <c r="B126" s="26"/>
-      <c r="C126" s="26"/>
-      <c r="D126" s="27" t="s">
+      <c r="E124" s="22"/>
+      <c r="F124" s="30"/>
+    </row>
+    <row r="125" customFormat="1" spans="2:6">
+      <c r="B125" s="27"/>
+      <c r="C125" s="27"/>
+      <c r="D125" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="E126" s="21"/>
-      <c r="F126" s="29"/>
-    </row>
-    <row r="127" customFormat="1" hidden="1" spans="2:6">
-      <c r="B127" s="26"/>
-      <c r="C127" s="26"/>
-      <c r="D127" s="25"/>
-      <c r="E127" s="30"/>
-      <c r="F127" s="29"/>
+      <c r="E125" s="22"/>
+      <c r="F125" s="30"/>
+    </row>
+    <row r="126" customFormat="1" spans="2:6">
+      <c r="B126" s="27"/>
+      <c r="C126" s="27"/>
+      <c r="D126" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="E126" s="22"/>
+      <c r="F126" s="30"/>
+    </row>
+    <row r="127" customFormat="1" spans="2:6">
+      <c r="B127" s="27"/>
+      <c r="C127" s="27"/>
+      <c r="D127" s="26"/>
+      <c r="E127" s="31"/>
+      <c r="F127" s="30"/>
     </row>
     <row r="128" customFormat="1" hidden="1" spans="2:6">
-      <c r="B128" s="26"/>
-      <c r="C128" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="D128" s="27" t="s">
+      <c r="B128" s="27"/>
+      <c r="C128" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="E128" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F128" s="29"/>
-    </row>
-    <row r="129" customFormat="1" hidden="1" spans="2:6">
-      <c r="B129" s="26"/>
-      <c r="C129" s="26"/>
-      <c r="D129" s="27" t="s">
+      <c r="D128" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="E129" s="21"/>
-      <c r="F129" s="29"/>
-    </row>
-    <row r="130" customFormat="1" hidden="1" spans="2:6">
-      <c r="B130" s="26"/>
-      <c r="C130" s="26"/>
-      <c r="D130" s="27" t="s">
+      <c r="E128" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F128" s="30"/>
+    </row>
+    <row r="129" customFormat="1" spans="2:6">
+      <c r="B129" s="27"/>
+      <c r="C129" s="27"/>
+      <c r="D129" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="E130" s="21"/>
-      <c r="F130" s="29"/>
-    </row>
-    <row r="131" customFormat="1" hidden="1" spans="2:6">
-      <c r="B131" s="26"/>
-      <c r="C131" s="26"/>
-      <c r="D131" s="27" t="s">
+      <c r="E129" s="22"/>
+      <c r="F129" s="30"/>
+    </row>
+    <row r="130" customFormat="1" spans="2:6">
+      <c r="B130" s="27"/>
+      <c r="C130" s="27"/>
+      <c r="D130" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="E131" s="21"/>
-      <c r="F131" s="29"/>
-    </row>
-    <row r="132" customFormat="1" hidden="1" spans="2:6">
-      <c r="B132" s="26"/>
-      <c r="C132" s="26"/>
-      <c r="D132" s="27" t="s">
+      <c r="E130" s="22"/>
+      <c r="F130" s="30"/>
+    </row>
+    <row r="131" customFormat="1" spans="2:6">
+      <c r="B131" s="27"/>
+      <c r="C131" s="27"/>
+      <c r="D131" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="E132" s="21"/>
-      <c r="F132" s="29"/>
-    </row>
-    <row r="133" customFormat="1" hidden="1" spans="2:6">
-      <c r="B133" s="26"/>
-      <c r="C133" s="26"/>
-      <c r="D133" s="27" t="s">
+      <c r="E131" s="22"/>
+      <c r="F131" s="30"/>
+    </row>
+    <row r="132" customFormat="1" spans="2:6">
+      <c r="B132" s="27"/>
+      <c r="C132" s="27"/>
+      <c r="D132" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="E133" s="21"/>
-      <c r="F133" s="29"/>
-    </row>
-    <row r="134" customFormat="1" hidden="1" spans="2:6">
-      <c r="B134" s="26"/>
-      <c r="C134" s="26"/>
-      <c r="D134" s="27" t="s">
+      <c r="E132" s="22"/>
+      <c r="F132" s="30"/>
+    </row>
+    <row r="133" customFormat="1" spans="2:6">
+      <c r="B133" s="27"/>
+      <c r="C133" s="27"/>
+      <c r="D133" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="E134" s="21"/>
-      <c r="F134" s="29"/>
-    </row>
-    <row r="135" customFormat="1" hidden="1" spans="2:6">
-      <c r="B135" s="26"/>
-      <c r="C135" s="26"/>
-      <c r="D135" s="25"/>
-      <c r="E135" s="30"/>
-      <c r="F135" s="29"/>
-    </row>
-    <row r="136" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B136" s="26"/>
-      <c r="C136" s="26" t="s">
+      <c r="E133" s="22"/>
+      <c r="F133" s="30"/>
+    </row>
+    <row r="134" customFormat="1" spans="2:6">
+      <c r="B134" s="27"/>
+      <c r="C134" s="27"/>
+      <c r="D134" s="28" t="s">
         <v>140</v>
       </c>
+      <c r="E134" s="22"/>
+      <c r="F134" s="30"/>
+    </row>
+    <row r="135" customFormat="1" spans="2:6">
+      <c r="B135" s="27"/>
+      <c r="C135" s="27"/>
+      <c r="D135" s="26"/>
+      <c r="E135" s="31"/>
+      <c r="F135" s="30"/>
+    </row>
+    <row r="136" customFormat="1" ht="18" spans="2:6">
+      <c r="B136" s="27"/>
+      <c r="C136" s="27" t="s">
+        <v>141</v>
+      </c>
       <c r="D136" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="E136" s="21"/>
-      <c r="F136" s="29"/>
-    </row>
-    <row r="137" customFormat="1" hidden="1" spans="2:6">
-      <c r="B137" s="26"/>
-      <c r="C137" s="26"/>
-      <c r="D137" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="E137" s="21"/>
-      <c r="F137" s="29"/>
-    </row>
-    <row r="138" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B138" s="26"/>
-      <c r="C138" s="26"/>
+      <c r="E136" s="22"/>
+      <c r="F136" s="30"/>
+    </row>
+    <row r="137" customFormat="1" spans="2:6">
+      <c r="B137" s="27"/>
+      <c r="C137" s="27"/>
+      <c r="D137" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E137" s="22"/>
+      <c r="F137" s="30"/>
+    </row>
+    <row r="138" customFormat="1" ht="18" spans="2:6">
+      <c r="B138" s="27"/>
+      <c r="C138" s="27"/>
       <c r="D138" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="E138" s="21"/>
-      <c r="F138" s="29"/>
-    </row>
-    <row r="139" customFormat="1" hidden="1" spans="2:6">
-      <c r="B139" s="26"/>
-      <c r="C139" s="26"/>
-      <c r="D139" s="23"/>
-      <c r="E139" s="19"/>
-      <c r="F139" s="29"/>
-    </row>
-    <row r="140" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B140" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="C140" s="32" t="s">
+      <c r="E138" s="22"/>
+      <c r="F138" s="30"/>
+    </row>
+    <row r="139" customFormat="1" spans="2:6">
+      <c r="B139" s="27"/>
+      <c r="C139" s="27"/>
+      <c r="D139" s="24"/>
+      <c r="E139" s="20"/>
+      <c r="F139" s="30"/>
+    </row>
+    <row r="140" customFormat="1" ht="18" spans="2:6">
+      <c r="B140" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="D140" s="33" t="s">
+      <c r="C140" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="E140" s="21"/>
-      <c r="F140" s="29"/>
-    </row>
-    <row r="141" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B141" s="31"/>
-      <c r="C141" s="34"/>
-      <c r="D141" s="33" t="s">
+      <c r="D140" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="E141" s="21"/>
-      <c r="F141" s="29"/>
-    </row>
-    <row r="142" customFormat="1" hidden="1" spans="2:6">
-      <c r="B142" s="31"/>
-      <c r="C142" s="35"/>
-      <c r="D142" s="36"/>
-      <c r="E142" s="30"/>
-      <c r="F142" s="29"/>
-    </row>
-    <row r="143" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B143" s="31"/>
-      <c r="C143" s="32" t="s">
+      <c r="E140" s="22"/>
+      <c r="F140" s="30"/>
+    </row>
+    <row r="141" customFormat="1" ht="18" spans="2:6">
+      <c r="B141" s="32"/>
+      <c r="C141" s="35"/>
+      <c r="D141" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="D143" s="33" t="s">
+      <c r="E141" s="22"/>
+      <c r="F141" s="30"/>
+    </row>
+    <row r="142" customFormat="1" spans="2:6">
+      <c r="B142" s="32"/>
+      <c r="C142" s="36"/>
+      <c r="D142" s="37"/>
+      <c r="E142" s="31"/>
+      <c r="F142" s="30"/>
+    </row>
+    <row r="143" customFormat="1" ht="18" spans="2:6">
+      <c r="B143" s="32"/>
+      <c r="C143" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="E143" s="21"/>
-      <c r="F143" s="29"/>
-    </row>
-    <row r="144" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B144" s="31"/>
-      <c r="C144" s="34"/>
-      <c r="D144" s="33" t="s">
+      <c r="D143" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="E144" s="21"/>
-      <c r="F144" s="29"/>
-    </row>
-    <row r="145" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B145" s="31"/>
-      <c r="C145" s="34"/>
-      <c r="D145" s="33" t="s">
+      <c r="E143" s="22"/>
+      <c r="F143" s="30"/>
+    </row>
+    <row r="144" customFormat="1" ht="18" spans="2:6">
+      <c r="B144" s="32"/>
+      <c r="C144" s="35"/>
+      <c r="D144" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="E145" s="21"/>
-      <c r="F145" s="29"/>
-    </row>
-    <row r="146" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B146" s="31"/>
-      <c r="C146" s="34"/>
-      <c r="D146" s="33" t="s">
+      <c r="E144" s="22"/>
+      <c r="F144" s="30"/>
+    </row>
+    <row r="145" customFormat="1" ht="18" spans="2:6">
+      <c r="B145" s="32"/>
+      <c r="C145" s="35"/>
+      <c r="D145" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="E146" s="21"/>
-      <c r="F146" s="29"/>
-    </row>
-    <row r="147" customFormat="1" hidden="1" spans="2:6">
-      <c r="B147" s="31"/>
-      <c r="C147" s="35"/>
-      <c r="D147" s="36"/>
-      <c r="E147" s="30"/>
-      <c r="F147" s="29"/>
-    </row>
-    <row r="148" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B148" s="31"/>
-      <c r="C148" s="32" t="s">
+      <c r="E145" s="22"/>
+      <c r="F145" s="30"/>
+    </row>
+    <row r="146" customFormat="1" ht="18" spans="2:6">
+      <c r="B146" s="32"/>
+      <c r="C146" s="35"/>
+      <c r="D146" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="D148" s="33" t="s">
+      <c r="E146" s="22"/>
+      <c r="F146" s="30"/>
+    </row>
+    <row r="147" customFormat="1" spans="2:6">
+      <c r="B147" s="32"/>
+      <c r="C147" s="36"/>
+      <c r="D147" s="37"/>
+      <c r="E147" s="31"/>
+      <c r="F147" s="30"/>
+    </row>
+    <row r="148" customFormat="1" ht="18" spans="2:6">
+      <c r="B148" s="32"/>
+      <c r="C148" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="E148" s="30"/>
-      <c r="F148" s="20"/>
-    </row>
-    <row r="149" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B149" s="31"/>
-      <c r="C149" s="34"/>
-      <c r="D149" s="33" t="s">
+      <c r="D148" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="E149" s="30"/>
-      <c r="F149" s="20"/>
-    </row>
-    <row r="150" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B150" s="31"/>
-      <c r="C150" s="34"/>
-      <c r="D150" s="33" t="s">
+      <c r="E148" s="31"/>
+      <c r="F148" s="21"/>
+    </row>
+    <row r="149" customFormat="1" ht="18" spans="2:6">
+      <c r="B149" s="32"/>
+      <c r="C149" s="35"/>
+      <c r="D149" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="E150" s="30"/>
-      <c r="F150" s="20"/>
-    </row>
-    <row r="151" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B151" s="31"/>
-      <c r="C151" s="34"/>
-      <c r="D151" s="33" t="s">
+      <c r="E149" s="31"/>
+      <c r="F149" s="21"/>
+    </row>
+    <row r="150" customFormat="1" ht="18" spans="2:6">
+      <c r="B150" s="32"/>
+      <c r="C150" s="35"/>
+      <c r="D150" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="E151" s="30"/>
-      <c r="F151" s="20"/>
-    </row>
-    <row r="152" customFormat="1" hidden="1" spans="2:6">
-      <c r="B152" s="31"/>
-      <c r="C152" s="35"/>
-      <c r="D152" s="36"/>
-      <c r="E152" s="30"/>
-      <c r="F152" s="20"/>
-    </row>
-    <row r="153" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B153" s="31"/>
-      <c r="C153" s="37" t="s">
+      <c r="E150" s="31"/>
+      <c r="F150" s="21"/>
+    </row>
+    <row r="151" customFormat="1" ht="18" spans="2:6">
+      <c r="B151" s="32"/>
+      <c r="C151" s="35"/>
+      <c r="D151" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="D153" s="33" t="s">
+      <c r="E151" s="31"/>
+      <c r="F151" s="21"/>
+    </row>
+    <row r="152" customFormat="1" spans="2:6">
+      <c r="B152" s="32"/>
+      <c r="C152" s="36"/>
+      <c r="D152" s="37"/>
+      <c r="E152" s="31"/>
+      <c r="F152" s="21"/>
+    </row>
+    <row r="153" customFormat="1" ht="18" spans="2:6">
+      <c r="B153" s="32"/>
+      <c r="C153" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="E153" s="30"/>
-      <c r="F153" s="20"/>
-    </row>
-    <row r="154" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B154" s="31"/>
-      <c r="C154" s="37"/>
-      <c r="D154" s="33" t="s">
+      <c r="D153" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="E154" s="30"/>
-      <c r="F154" s="20"/>
-    </row>
-    <row r="155" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B155" s="31"/>
-      <c r="C155" s="37"/>
-      <c r="D155" s="33" t="s">
+      <c r="E153" s="31"/>
+      <c r="F153" s="21"/>
+    </row>
+    <row r="154" customFormat="1" ht="18" spans="2:6">
+      <c r="B154" s="32"/>
+      <c r="C154" s="38"/>
+      <c r="D154" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="E155" s="30"/>
-      <c r="F155" s="20"/>
-    </row>
-    <row r="156" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B156" s="31"/>
-      <c r="C156" s="37"/>
-      <c r="D156" s="33" t="s">
+      <c r="E154" s="31"/>
+      <c r="F154" s="21"/>
+    </row>
+    <row r="155" customFormat="1" ht="18" spans="2:6">
+      <c r="B155" s="32"/>
+      <c r="C155" s="38"/>
+      <c r="D155" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="E156" s="30"/>
-      <c r="F156" s="20"/>
-    </row>
-    <row r="157" customFormat="1" hidden="1" spans="2:6">
-      <c r="B157" s="31"/>
-      <c r="C157" s="38"/>
-      <c r="D157" s="36"/>
-      <c r="E157" s="30"/>
-      <c r="F157" s="20"/>
+      <c r="E155" s="31"/>
+      <c r="F155" s="21"/>
+    </row>
+    <row r="156" customFormat="1" ht="18" spans="2:6">
+      <c r="B156" s="32"/>
+      <c r="C156" s="38"/>
+      <c r="D156" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="E156" s="31"/>
+      <c r="F156" s="21"/>
+    </row>
+    <row r="157" customFormat="1" spans="2:6">
+      <c r="B157" s="32"/>
+      <c r="C157" s="39"/>
+      <c r="D157" s="37"/>
+      <c r="E157" s="31"/>
+      <c r="F157" s="21"/>
     </row>
     <row r="158" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B158" s="31"/>
-      <c r="C158" s="32" t="s">
-        <v>163</v>
+      <c r="B158" s="32"/>
+      <c r="C158" s="33" t="s">
+        <v>164</v>
       </c>
       <c r="D158" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="E158" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F158" s="29"/>
+        <v>165</v>
+      </c>
+      <c r="E158" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F158" s="30"/>
     </row>
     <row r="159" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B159" s="31"/>
-      <c r="C159" s="34"/>
+      <c r="B159" s="32"/>
+      <c r="C159" s="35"/>
       <c r="D159" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="E159" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F159" s="29"/>
+        <v>166</v>
+      </c>
+      <c r="E159" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F159" s="30"/>
     </row>
     <row r="160" customFormat="1" ht="18" spans="2:6">
-      <c r="B160" s="31"/>
-      <c r="C160" s="34"/>
+      <c r="B160" s="32"/>
+      <c r="C160" s="35"/>
       <c r="D160" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="E160" s="19"/>
-      <c r="F160" s="29"/>
+        <v>167</v>
+      </c>
+      <c r="E160" s="20"/>
+      <c r="F160" s="30"/>
     </row>
     <row r="161" customFormat="1" ht="18" spans="2:6">
-      <c r="B161" s="31"/>
-      <c r="C161" s="34"/>
+      <c r="B161" s="32"/>
+      <c r="C161" s="35"/>
       <c r="D161" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="E161" s="19"/>
-      <c r="F161" s="29"/>
+        <v>168</v>
+      </c>
+      <c r="E161" s="20"/>
+      <c r="F161" s="30"/>
     </row>
     <row r="162" customFormat="1" ht="18" spans="2:6">
-      <c r="B162" s="31"/>
-      <c r="C162" s="34"/>
+      <c r="B162" s="32"/>
+      <c r="C162" s="35"/>
       <c r="D162" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="E162" s="19"/>
-      <c r="F162" s="29"/>
+        <v>169</v>
+      </c>
+      <c r="E162" s="20"/>
+      <c r="F162" s="30"/>
     </row>
     <row r="163" customFormat="1" spans="2:6">
-      <c r="B163" s="31"/>
-      <c r="C163" s="35"/>
+      <c r="B163" s="32"/>
+      <c r="C163" s="36"/>
       <c r="D163" s="12"/>
-      <c r="E163" s="19"/>
-      <c r="F163" s="29"/>
-    </row>
-    <row r="164" customFormat="1" ht="18" spans="2:6">
-      <c r="B164" s="31"/>
-      <c r="C164" s="32" t="s">
-        <v>169</v>
+      <c r="E163" s="20"/>
+      <c r="F163" s="30"/>
+    </row>
+    <row r="164" customFormat="1" ht="18" hidden="1" spans="2:6">
+      <c r="B164" s="32"/>
+      <c r="C164" s="33" t="s">
+        <v>170</v>
       </c>
       <c r="D164" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="E164" s="19"/>
-      <c r="F164" s="29"/>
-    </row>
-    <row r="165" customFormat="1" ht="18" spans="2:6">
-      <c r="B165" s="31"/>
-      <c r="C165" s="34"/>
+        <v>171</v>
+      </c>
+      <c r="E164" s="20"/>
+      <c r="F164" s="30"/>
+    </row>
+    <row r="165" customFormat="1" ht="18" hidden="1" spans="2:6">
+      <c r="B165" s="32"/>
+      <c r="C165" s="35"/>
       <c r="D165" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="E165" s="19"/>
-      <c r="F165" s="29"/>
-    </row>
-    <row r="166" customFormat="1" ht="18" spans="2:6">
-      <c r="B166" s="31"/>
-      <c r="C166" s="34"/>
+        <v>172</v>
+      </c>
+      <c r="E165" s="20"/>
+      <c r="F165" s="30"/>
+    </row>
+    <row r="166" customFormat="1" ht="18" hidden="1" spans="2:6">
+      <c r="B166" s="32"/>
+      <c r="C166" s="35"/>
       <c r="D166" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="E166" s="19"/>
-      <c r="F166" s="29"/>
-    </row>
-    <row r="167" customFormat="1" spans="2:6">
-      <c r="B167" s="31"/>
-      <c r="C167" s="35"/>
+        <v>173</v>
+      </c>
+      <c r="E166" s="20"/>
+      <c r="F166" s="30"/>
+    </row>
+    <row r="167" customFormat="1" hidden="1" spans="2:6">
+      <c r="B167" s="32"/>
+      <c r="C167" s="36"/>
       <c r="D167" s="14"/>
-      <c r="E167" s="19"/>
-      <c r="F167" s="29"/>
+      <c r="E167" s="20"/>
+      <c r="F167" s="30"/>
     </row>
     <row r="168" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B168" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="C168" s="32" t="s">
+      <c r="B168" s="32" t="s">
         <v>174</v>
       </c>
+      <c r="C168" s="33" t="s">
+        <v>175</v>
+      </c>
       <c r="D168" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="E168" s="30"/>
-      <c r="F168" s="29"/>
+        <v>176</v>
+      </c>
+      <c r="E168" s="31"/>
+      <c r="F168" s="30"/>
     </row>
     <row r="169" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B169" s="31"/>
-      <c r="C169" s="34"/>
+      <c r="B169" s="32"/>
+      <c r="C169" s="35"/>
       <c r="D169" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E169" s="30"/>
-      <c r="F169" s="29"/>
+        <v>177</v>
+      </c>
+      <c r="E169" s="31"/>
+      <c r="F169" s="30"/>
     </row>
     <row r="170" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B170" s="31"/>
-      <c r="C170" s="34"/>
+      <c r="B170" s="32"/>
+      <c r="C170" s="35"/>
       <c r="D170" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E170" s="30"/>
-      <c r="F170" s="29"/>
+        <v>178</v>
+      </c>
+      <c r="E170" s="31"/>
+      <c r="F170" s="30"/>
     </row>
     <row r="171" customFormat="1" hidden="1" spans="2:6">
-      <c r="B171" s="31"/>
-      <c r="C171" s="34"/>
+      <c r="B171" s="32"/>
+      <c r="C171" s="35"/>
       <c r="D171" s="14"/>
-      <c r="E171" s="30"/>
-      <c r="F171" s="29"/>
+      <c r="E171" s="31"/>
+      <c r="F171" s="30"/>
     </row>
     <row r="172" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B172" s="31"/>
-      <c r="C172" s="34"/>
+      <c r="B172" s="32"/>
+      <c r="C172" s="35"/>
       <c r="D172" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="E172" s="30"/>
-      <c r="F172" s="29"/>
+        <v>179</v>
+      </c>
+      <c r="E172" s="31"/>
+      <c r="F172" s="30"/>
     </row>
     <row r="173" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B173" s="31"/>
-      <c r="C173" s="34"/>
+      <c r="B173" s="32"/>
+      <c r="C173" s="35"/>
       <c r="D173" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="E173" s="30"/>
-      <c r="F173" s="29"/>
+        <v>180</v>
+      </c>
+      <c r="E173" s="31"/>
+      <c r="F173" s="30"/>
     </row>
     <row r="174" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B174" s="31"/>
-      <c r="C174" s="34"/>
+      <c r="B174" s="32"/>
+      <c r="C174" s="35"/>
       <c r="D174" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="E174" s="30"/>
-      <c r="F174" s="29"/>
+        <v>181</v>
+      </c>
+      <c r="E174" s="31"/>
+      <c r="F174" s="30"/>
     </row>
     <row r="175" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B175" s="31"/>
-      <c r="C175" s="34"/>
+      <c r="B175" s="32"/>
+      <c r="C175" s="35"/>
       <c r="D175" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="E175" s="30"/>
-      <c r="F175" s="29"/>
+        <v>182</v>
+      </c>
+      <c r="E175" s="31"/>
+      <c r="F175" s="30"/>
     </row>
     <row r="176" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B176" s="31"/>
-      <c r="C176" s="34"/>
+      <c r="B176" s="32"/>
+      <c r="C176" s="35"/>
       <c r="D176" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="E176" s="30"/>
-      <c r="F176" s="29"/>
+        <v>183</v>
+      </c>
+      <c r="E176" s="31"/>
+      <c r="F176" s="30"/>
     </row>
     <row r="177" customFormat="1" hidden="1" spans="2:6">
-      <c r="B177" s="31"/>
-      <c r="C177" s="34"/>
+      <c r="B177" s="32"/>
+      <c r="C177" s="35"/>
       <c r="D177" s="14"/>
-      <c r="E177" s="30"/>
-      <c r="F177" s="29"/>
+      <c r="E177" s="31"/>
+      <c r="F177" s="30"/>
     </row>
     <row r="178" customFormat="1" ht="36" hidden="1" spans="2:6">
-      <c r="B178" s="31"/>
-      <c r="C178" s="34"/>
+      <c r="B178" s="32"/>
+      <c r="C178" s="35"/>
       <c r="D178" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="E178" s="30"/>
-      <c r="F178" s="29"/>
+        <v>184</v>
+      </c>
+      <c r="E178" s="31"/>
+      <c r="F178" s="30"/>
     </row>
     <row r="179" customFormat="1" ht="36" hidden="1" spans="2:6">
-      <c r="B179" s="31"/>
-      <c r="C179" s="34"/>
+      <c r="B179" s="32"/>
+      <c r="C179" s="35"/>
       <c r="D179" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="E179" s="30"/>
-      <c r="F179" s="29"/>
+        <v>185</v>
+      </c>
+      <c r="E179" s="31"/>
+      <c r="F179" s="30"/>
     </row>
     <row r="180" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B180" s="31"/>
-      <c r="C180" s="34"/>
+      <c r="B180" s="32"/>
+      <c r="C180" s="35"/>
       <c r="D180" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="E180" s="30"/>
-      <c r="F180" s="29"/>
+        <v>186</v>
+      </c>
+      <c r="E180" s="31"/>
+      <c r="F180" s="30"/>
     </row>
     <row r="181" customFormat="1" hidden="1" spans="2:6">
-      <c r="B181" s="31"/>
-      <c r="C181" s="34"/>
+      <c r="B181" s="32"/>
+      <c r="C181" s="35"/>
       <c r="D181" s="14"/>
-      <c r="E181" s="30"/>
-      <c r="F181" s="29"/>
+      <c r="E181" s="31"/>
+      <c r="F181" s="30"/>
     </row>
     <row r="182" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B182" s="31"/>
-      <c r="C182" s="34"/>
+      <c r="B182" s="32"/>
+      <c r="C182" s="35"/>
       <c r="D182" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="E182" s="30"/>
-      <c r="F182" s="29"/>
+        <v>187</v>
+      </c>
+      <c r="E182" s="31"/>
+      <c r="F182" s="30"/>
     </row>
     <row r="183" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B183" s="31"/>
-      <c r="C183" s="34"/>
+      <c r="B183" s="32"/>
+      <c r="C183" s="35"/>
       <c r="D183" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="E183" s="30"/>
-      <c r="F183" s="29"/>
+        <v>188</v>
+      </c>
+      <c r="E183" s="31"/>
+      <c r="F183" s="30"/>
     </row>
     <row r="184" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B184" s="31"/>
-      <c r="C184" s="34"/>
+      <c r="B184" s="32"/>
+      <c r="C184" s="35"/>
       <c r="D184" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="E184" s="30"/>
-      <c r="F184" s="29"/>
+        <v>189</v>
+      </c>
+      <c r="E184" s="31"/>
+      <c r="F184" s="30"/>
     </row>
     <row r="185" customFormat="1" hidden="1" spans="2:6">
-      <c r="B185" s="31"/>
-      <c r="C185" s="35"/>
-      <c r="D185" s="25"/>
-      <c r="E185" s="19"/>
-      <c r="F185" s="29"/>
+      <c r="B185" s="32"/>
+      <c r="C185" s="36"/>
+      <c r="D185" s="26"/>
+      <c r="E185" s="20"/>
+      <c r="F185" s="30"/>
     </row>
     <row r="186" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B186" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="C186" s="32" t="s">
+      <c r="B186" s="32" t="s">
         <v>190</v>
       </c>
+      <c r="C186" s="33" t="s">
+        <v>191</v>
+      </c>
       <c r="D186" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="E186" s="19"/>
-      <c r="F186" s="29"/>
+        <v>192</v>
+      </c>
+      <c r="E186" s="20"/>
+      <c r="F186" s="30"/>
     </row>
     <row r="187" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B187" s="31"/>
-      <c r="C187" s="34"/>
+      <c r="B187" s="32"/>
+      <c r="C187" s="35"/>
       <c r="D187" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="E187" s="19"/>
-      <c r="F187" s="29"/>
+        <v>193</v>
+      </c>
+      <c r="E187" s="20"/>
+      <c r="F187" s="30"/>
     </row>
     <row r="188" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B188" s="31"/>
-      <c r="C188" s="34"/>
+      <c r="B188" s="32"/>
+      <c r="C188" s="35"/>
       <c r="D188" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="E188" s="19"/>
-      <c r="F188" s="29"/>
+        <v>194</v>
+      </c>
+      <c r="E188" s="20"/>
+      <c r="F188" s="30"/>
     </row>
     <row r="189" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B189" s="31"/>
-      <c r="C189" s="34"/>
+      <c r="B189" s="32"/>
+      <c r="C189" s="35"/>
       <c r="D189" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E189" s="19"/>
-      <c r="F189" s="29"/>
+        <v>195</v>
+      </c>
+      <c r="E189" s="20"/>
+      <c r="F189" s="30"/>
     </row>
     <row r="190" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B190" s="31"/>
-      <c r="C190" s="34"/>
+      <c r="B190" s="32"/>
+      <c r="C190" s="35"/>
       <c r="D190" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="E190" s="19"/>
-      <c r="F190" s="29"/>
+        <v>196</v>
+      </c>
+      <c r="E190" s="20"/>
+      <c r="F190" s="30"/>
     </row>
     <row r="191" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B191" s="31"/>
-      <c r="C191" s="34"/>
+      <c r="B191" s="32"/>
+      <c r="C191" s="35"/>
       <c r="D191" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="E191" s="19"/>
-      <c r="F191" s="29"/>
+        <v>197</v>
+      </c>
+      <c r="E191" s="20"/>
+      <c r="F191" s="30"/>
     </row>
     <row r="192" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B192" s="31"/>
-      <c r="C192" s="34"/>
+      <c r="B192" s="32"/>
+      <c r="C192" s="35"/>
       <c r="D192" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="E192" s="19"/>
-      <c r="F192" s="29"/>
+        <v>198</v>
+      </c>
+      <c r="E192" s="20"/>
+      <c r="F192" s="30"/>
     </row>
     <row r="193" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B193" s="31"/>
-      <c r="C193" s="34"/>
+      <c r="B193" s="32"/>
+      <c r="C193" s="35"/>
       <c r="D193" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="E193" s="19"/>
-      <c r="F193" s="29"/>
+        <v>199</v>
+      </c>
+      <c r="E193" s="20"/>
+      <c r="F193" s="30"/>
     </row>
     <row r="194" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B194" s="31"/>
-      <c r="C194" s="34"/>
+      <c r="B194" s="32"/>
+      <c r="C194" s="35"/>
       <c r="D194" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="E194" s="19"/>
-      <c r="F194" s="29"/>
+        <v>200</v>
+      </c>
+      <c r="E194" s="20"/>
+      <c r="F194" s="30"/>
     </row>
     <row r="195" customFormat="1" hidden="1" spans="2:6">
-      <c r="B195" s="31"/>
-      <c r="C195" s="34"/>
+      <c r="B195" s="32"/>
+      <c r="C195" s="35"/>
       <c r="D195" s="6"/>
-      <c r="E195" s="19"/>
-      <c r="F195" s="29"/>
+      <c r="E195" s="20"/>
+      <c r="F195" s="30"/>
     </row>
     <row r="196" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B196" s="31"/>
-      <c r="C196" s="34"/>
+      <c r="B196" s="32"/>
+      <c r="C196" s="35"/>
       <c r="D196" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="E196" s="19"/>
-      <c r="F196" s="29"/>
+        <v>201</v>
+      </c>
+      <c r="E196" s="20"/>
+      <c r="F196" s="30"/>
     </row>
     <row r="197" customFormat="1" ht="36" hidden="1" spans="2:6">
-      <c r="B197" s="31"/>
-      <c r="C197" s="34"/>
+      <c r="B197" s="32"/>
+      <c r="C197" s="35"/>
       <c r="D197" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="E197" s="19"/>
-      <c r="F197" s="29"/>
+        <v>202</v>
+      </c>
+      <c r="E197" s="20"/>
+      <c r="F197" s="30"/>
     </row>
     <row r="198" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B198" s="31"/>
-      <c r="C198" s="34"/>
+      <c r="B198" s="32"/>
+      <c r="C198" s="35"/>
       <c r="D198" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="E198" s="19"/>
-      <c r="F198" s="29"/>
+        <v>203</v>
+      </c>
+      <c r="E198" s="20"/>
+      <c r="F198" s="30"/>
     </row>
     <row r="199" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B199" s="31"/>
-      <c r="C199" s="34"/>
+      <c r="B199" s="32"/>
+      <c r="C199" s="35"/>
       <c r="D199" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="E199" s="19"/>
-      <c r="F199" s="29"/>
+        <v>204</v>
+      </c>
+      <c r="E199" s="20"/>
+      <c r="F199" s="30"/>
     </row>
     <row r="200" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B200" s="31"/>
-      <c r="C200" s="34"/>
+      <c r="B200" s="32"/>
+      <c r="C200" s="35"/>
       <c r="D200" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="E200" s="19"/>
-      <c r="F200" s="29"/>
+        <v>205</v>
+      </c>
+      <c r="E200" s="20"/>
+      <c r="F200" s="30"/>
     </row>
     <row r="201" customFormat="1" hidden="1" spans="2:6">
-      <c r="B201" s="31"/>
-      <c r="C201" s="35"/>
-      <c r="D201" s="25"/>
-      <c r="E201" s="19"/>
-      <c r="F201" s="29"/>
-    </row>
-    <row r="202" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B202" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="C202" s="32" t="s">
+      <c r="B201" s="32"/>
+      <c r="C201" s="36"/>
+      <c r="D201" s="26"/>
+      <c r="E201" s="20"/>
+      <c r="F201" s="30"/>
+    </row>
+    <row r="202" customFormat="1" ht="18" spans="2:6">
+      <c r="B202" s="32" t="s">
         <v>206</v>
       </c>
+      <c r="C202" s="33" t="s">
+        <v>207</v>
+      </c>
       <c r="D202" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="E202" s="19"/>
-      <c r="F202" s="20"/>
-    </row>
-    <row r="203" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B203" s="31"/>
-      <c r="C203" s="34"/>
+        <v>208</v>
+      </c>
+      <c r="E202" s="20"/>
+      <c r="F202" s="21"/>
+    </row>
+    <row r="203" customFormat="1" ht="18" spans="2:6">
+      <c r="B203" s="32"/>
+      <c r="C203" s="35"/>
       <c r="D203" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="E203" s="19"/>
-      <c r="F203" s="20"/>
-    </row>
-    <row r="204" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B204" s="31"/>
-      <c r="C204" s="34"/>
+        <v>209</v>
+      </c>
+      <c r="E203" s="20"/>
+      <c r="F203" s="21"/>
+    </row>
+    <row r="204" customFormat="1" ht="18" spans="2:6">
+      <c r="B204" s="32"/>
+      <c r="C204" s="35"/>
       <c r="D204" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="E204" s="19"/>
-      <c r="F204" s="20"/>
-    </row>
-    <row r="205" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B205" s="31"/>
-      <c r="C205" s="34"/>
+        <v>210</v>
+      </c>
+      <c r="E204" s="20"/>
+      <c r="F204" s="21"/>
+    </row>
+    <row r="205" customFormat="1" ht="18" spans="2:6">
+      <c r="B205" s="32"/>
+      <c r="C205" s="35"/>
       <c r="D205" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="E205" s="20"/>
+      <c r="F205" s="21"/>
+    </row>
+    <row r="206" customFormat="1" spans="2:6">
+      <c r="B206" s="32"/>
+      <c r="C206" s="36"/>
+      <c r="D206" s="14"/>
+      <c r="E206" s="20"/>
+      <c r="F206" s="21"/>
+    </row>
+    <row r="207" customFormat="1" ht="18" spans="2:6">
+      <c r="B207" s="32"/>
+      <c r="C207" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="D207" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E207" s="20"/>
+      <c r="F207" s="21"/>
+    </row>
+    <row r="208" customFormat="1" ht="18" spans="2:6">
+      <c r="B208" s="32"/>
+      <c r="C208" s="35"/>
+      <c r="D208" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="E208" s="20"/>
+      <c r="F208" s="21"/>
+    </row>
+    <row r="209" customFormat="1" ht="18" spans="2:6">
+      <c r="B209" s="32"/>
+      <c r="C209" s="35"/>
+      <c r="D209" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="E209" s="20"/>
+      <c r="F209" s="21"/>
+    </row>
+    <row r="210" customFormat="1" ht="18" spans="2:6">
+      <c r="B210" s="32"/>
+      <c r="C210" s="35"/>
+      <c r="D210" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="E210" s="20"/>
+      <c r="F210" s="21"/>
+    </row>
+    <row r="211" customFormat="1" ht="18" spans="2:6">
+      <c r="B211" s="32"/>
+      <c r="C211" s="35"/>
+      <c r="D211" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="E211" s="20"/>
+      <c r="F211" s="21"/>
+    </row>
+    <row r="212" customFormat="1" spans="2:6">
+      <c r="B212" s="32"/>
+      <c r="C212" s="36"/>
+      <c r="D212" s="14"/>
+      <c r="E212" s="20"/>
+      <c r="F212" s="21"/>
+    </row>
+    <row r="213" customFormat="1" ht="18" spans="2:6">
+      <c r="B213" s="32"/>
+      <c r="C213" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="D213" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="E213" s="20"/>
+      <c r="F213" s="21"/>
+    </row>
+    <row r="214" customFormat="1" ht="18" spans="2:6">
+      <c r="B214" s="32"/>
+      <c r="C214" s="35"/>
+      <c r="D214" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="E214" s="20"/>
+      <c r="F214" s="21"/>
+    </row>
+    <row r="215" customFormat="1" ht="18" spans="2:6">
+      <c r="B215" s="32"/>
+      <c r="C215" s="35"/>
+      <c r="D215" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="E215" s="20"/>
+      <c r="F215" s="21"/>
+    </row>
+    <row r="216" customFormat="1" ht="18" spans="2:6">
+      <c r="B216" s="32"/>
+      <c r="C216" s="35"/>
+      <c r="D216" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="E216" s="20"/>
+      <c r="F216" s="21"/>
+    </row>
+    <row r="217" customFormat="1" ht="18" spans="2:6">
+      <c r="B217" s="32"/>
+      <c r="C217" s="35"/>
+      <c r="D217" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="E217" s="20"/>
+      <c r="F217" s="21"/>
+    </row>
+    <row r="218" customFormat="1" spans="2:6">
+      <c r="B218" s="40"/>
+      <c r="C218" s="36"/>
+      <c r="D218" s="14"/>
+      <c r="E218" s="20"/>
+      <c r="F218" s="21"/>
+    </row>
+    <row r="219" customFormat="1" ht="18" spans="2:6">
+      <c r="B219" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="C219" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="D219" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="E219" s="20"/>
+      <c r="F219" s="21"/>
+    </row>
+    <row r="220" customFormat="1" ht="18" spans="2:6">
+      <c r="B220" s="32"/>
+      <c r="C220" s="27"/>
+      <c r="D220" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="E205" s="19"/>
-      <c r="F205" s="20"/>
-    </row>
-    <row r="206" customFormat="1" hidden="1" spans="2:6">
-      <c r="B206" s="31"/>
-      <c r="C206" s="35"/>
-      <c r="D206" s="14"/>
-      <c r="E206" s="19"/>
-      <c r="F206" s="20"/>
-    </row>
-    <row r="207" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B207" s="31"/>
-      <c r="C207" s="32" t="s">
+      <c r="E220" s="20"/>
+      <c r="F220" s="21"/>
+    </row>
+    <row r="221" customFormat="1" ht="18" spans="2:6">
+      <c r="B221" s="32"/>
+      <c r="C221" s="27"/>
+      <c r="D221" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="D207" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="E207" s="19"/>
-      <c r="F207" s="20"/>
-    </row>
-    <row r="208" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B208" s="31"/>
-      <c r="C208" s="34"/>
-      <c r="D208" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="E208" s="19"/>
-      <c r="F208" s="20"/>
-    </row>
-    <row r="209" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B209" s="31"/>
-      <c r="C209" s="34"/>
-      <c r="D209" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="E209" s="19"/>
-      <c r="F209" s="20"/>
-    </row>
-    <row r="210" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B210" s="31"/>
-      <c r="C210" s="34"/>
-      <c r="D210" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="E210" s="19"/>
-      <c r="F210" s="20"/>
-    </row>
-    <row r="211" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B211" s="31"/>
-      <c r="C211" s="34"/>
-      <c r="D211" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="E211" s="19"/>
-      <c r="F211" s="20"/>
-    </row>
-    <row r="212" customFormat="1" hidden="1" spans="2:6">
-      <c r="B212" s="31"/>
-      <c r="C212" s="35"/>
-      <c r="D212" s="14"/>
-      <c r="E212" s="19"/>
-      <c r="F212" s="20"/>
-    </row>
-    <row r="213" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B213" s="31"/>
-      <c r="C213" s="32" t="s">
-        <v>217</v>
-      </c>
-      <c r="D213" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E213" s="19"/>
-      <c r="F213" s="20"/>
-    </row>
-    <row r="214" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B214" s="31"/>
-      <c r="C214" s="34"/>
-      <c r="D214" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="E214" s="19"/>
-      <c r="F214" s="20"/>
-    </row>
-    <row r="215" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B215" s="31"/>
-      <c r="C215" s="34"/>
-      <c r="D215" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="E215" s="19"/>
-      <c r="F215" s="20"/>
-    </row>
-    <row r="216" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B216" s="31"/>
-      <c r="C216" s="34"/>
-      <c r="D216" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="E216" s="19"/>
-      <c r="F216" s="20"/>
-    </row>
-    <row r="217" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B217" s="31"/>
-      <c r="C217" s="34"/>
-      <c r="D217" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="E217" s="19"/>
-      <c r="F217" s="20"/>
-    </row>
-    <row r="218" customFormat="1" hidden="1" spans="2:6">
-      <c r="B218" s="39"/>
-      <c r="C218" s="35"/>
-      <c r="D218" s="14"/>
-      <c r="E218" s="19"/>
-      <c r="F218" s="20"/>
-    </row>
-    <row r="219" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B219" s="31" t="s">
-        <v>223</v>
-      </c>
-      <c r="C219" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="D219" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="E219" s="19"/>
-      <c r="F219" s="20"/>
-    </row>
-    <row r="220" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B220" s="31"/>
-      <c r="C220" s="26"/>
-      <c r="D220" s="40" t="s">
-        <v>209</v>
-      </c>
-      <c r="E220" s="19"/>
-      <c r="F220" s="20"/>
-    </row>
-    <row r="221" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B221" s="31"/>
-      <c r="C221" s="26"/>
-      <c r="D221" s="40" t="s">
-        <v>210</v>
-      </c>
-      <c r="E221" s="19"/>
-      <c r="F221" s="20"/>
-    </row>
-    <row r="222" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B222" s="31"/>
-      <c r="C222" s="26"/>
+      <c r="E221" s="20"/>
+      <c r="F221" s="21"/>
+    </row>
+    <row r="222" customFormat="1" ht="18" spans="2:6">
+      <c r="B222" s="32"/>
+      <c r="C222" s="27"/>
       <c r="D222" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="E222" s="19"/>
-      <c r="F222" s="20"/>
-    </row>
-    <row r="223" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B223" s="31"/>
-      <c r="C223" s="26"/>
+        <v>227</v>
+      </c>
+      <c r="E222" s="20"/>
+      <c r="F222" s="21"/>
+    </row>
+    <row r="223" customFormat="1" ht="18" spans="2:6">
+      <c r="B223" s="32"/>
+      <c r="C223" s="27"/>
       <c r="D223" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="E223" s="19"/>
-      <c r="F223" s="20"/>
-    </row>
-    <row r="224" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B224" s="31"/>
-      <c r="C224" s="26"/>
+        <v>228</v>
+      </c>
+      <c r="E223" s="20"/>
+      <c r="F223" s="21"/>
+    </row>
+    <row r="224" customFormat="1" ht="18" spans="2:6">
+      <c r="B224" s="32"/>
+      <c r="C224" s="27"/>
       <c r="D224" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="E224" s="19"/>
-      <c r="F224" s="20"/>
-    </row>
-    <row r="225" customFormat="1" hidden="1" spans="2:6">
-      <c r="B225" s="31"/>
-      <c r="C225" s="26"/>
+        <v>229</v>
+      </c>
+      <c r="E224" s="20"/>
+      <c r="F224" s="21"/>
+    </row>
+    <row r="225" customFormat="1" spans="2:6">
+      <c r="B225" s="32"/>
+      <c r="C225" s="27"/>
       <c r="D225" s="14"/>
-      <c r="E225" s="19"/>
-      <c r="F225" s="20"/>
-    </row>
-    <row r="226" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B226" s="31"/>
-      <c r="C226" s="32" t="s">
-        <v>229</v>
+      <c r="E225" s="20"/>
+      <c r="F225" s="21"/>
+    </row>
+    <row r="226" customFormat="1" ht="18" spans="2:6">
+      <c r="B226" s="32"/>
+      <c r="C226" s="33" t="s">
+        <v>230</v>
       </c>
       <c r="D226" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="E226" s="19"/>
-      <c r="F226" s="20"/>
-    </row>
-    <row r="227" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B227" s="31"/>
-      <c r="C227" s="34"/>
+        <v>231</v>
+      </c>
+      <c r="E226" s="20"/>
+      <c r="F226" s="21"/>
+    </row>
+    <row r="227" customFormat="1" ht="18" spans="2:6">
+      <c r="B227" s="32"/>
+      <c r="C227" s="35"/>
       <c r="D227" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="E227" s="19"/>
-      <c r="F227" s="20"/>
-    </row>
-    <row r="228" customFormat="1" hidden="1" spans="2:6">
-      <c r="B228" s="31"/>
-      <c r="C228" s="35"/>
+        <v>232</v>
+      </c>
+      <c r="E227" s="20"/>
+      <c r="F227" s="21"/>
+    </row>
+    <row r="228" customFormat="1" spans="2:6">
+      <c r="B228" s="32"/>
+      <c r="C228" s="36"/>
       <c r="D228" s="14"/>
-      <c r="E228" s="19"/>
-      <c r="F228" s="20"/>
-    </row>
-    <row r="229" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B229" s="31"/>
-      <c r="C229" s="26" t="s">
-        <v>232</v>
+      <c r="E228" s="20"/>
+      <c r="F228" s="21"/>
+    </row>
+    <row r="229" customFormat="1" ht="18" spans="2:6">
+      <c r="B229" s="32"/>
+      <c r="C229" s="27" t="s">
+        <v>233</v>
       </c>
       <c r="D229" s="41" t="s">
-        <v>233</v>
-      </c>
-      <c r="E229" s="19"/>
-      <c r="F229" s="20"/>
-    </row>
-    <row r="230" customFormat="1" ht="18" hidden="1" spans="2:6">
-      <c r="B230" s="31"/>
-      <c r="C230" s="26"/>
+        <v>234</v>
+      </c>
+      <c r="E229" s="20"/>
+      <c r="F229" s="21"/>
+    </row>
+    <row r="230" customFormat="1" ht="18" spans="2:6">
+      <c r="B230" s="32"/>
+      <c r="C230" s="27"/>
       <c r="D230" s="41" t="s">
-        <v>234</v>
-      </c>
-      <c r="E230" s="19"/>
-      <c r="F230" s="20"/>
-    </row>
-    <row r="231" customFormat="1" hidden="1" spans="2:6">
-      <c r="B231" s="31"/>
-      <c r="C231" s="26"/>
+        <v>235</v>
+      </c>
+      <c r="E230" s="20"/>
+      <c r="F230" s="21"/>
+    </row>
+    <row r="231" customFormat="1" spans="2:6">
+      <c r="B231" s="32"/>
+      <c r="C231" s="27"/>
       <c r="D231" s="14"/>
-      <c r="E231" s="19"/>
-      <c r="F231" s="20"/>
+      <c r="E231" s="20"/>
+      <c r="F231" s="21"/>
     </row>
     <row r="232" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B232" s="42" t="s">
-        <v>235</v>
-      </c>
-      <c r="C232" s="32" t="s">
         <v>236</v>
       </c>
+      <c r="C232" s="33" t="s">
+        <v>237</v>
+      </c>
       <c r="D232" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="E232" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F232" s="20"/>
+        <v>238</v>
+      </c>
+      <c r="E232" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F232" s="21"/>
     </row>
     <row r="233" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B233" s="42"/>
-      <c r="C233" s="34"/>
+      <c r="C233" s="35"/>
       <c r="D233" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="E233" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F233" s="20"/>
+        <v>239</v>
+      </c>
+      <c r="E233" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F233" s="21"/>
     </row>
     <row r="234" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B234" s="42"/>
-      <c r="C234" s="34"/>
+      <c r="C234" s="35"/>
       <c r="D234" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="E234" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F234" s="20"/>
-    </row>
-    <row r="235" customFormat="1" ht="18" hidden="1" spans="2:6">
+        <v>240</v>
+      </c>
+      <c r="E234" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F234" s="21"/>
+    </row>
+    <row r="235" customFormat="1" ht="18" spans="2:6">
       <c r="B235" s="42"/>
-      <c r="C235" s="34"/>
+      <c r="C235" s="35"/>
       <c r="D235" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="E235" s="19"/>
-      <c r="F235" s="20"/>
+        <v>241</v>
+      </c>
+      <c r="E235" s="20"/>
+      <c r="F235" s="21"/>
     </row>
     <row r="236" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B236" s="42"/>
-      <c r="C236" s="34"/>
+      <c r="C236" s="35"/>
       <c r="D236" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="E236" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F236" s="20"/>
+        <v>242</v>
+      </c>
+      <c r="E236" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F236" s="21"/>
     </row>
     <row r="237" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B237" s="42"/>
-      <c r="C237" s="34"/>
+      <c r="C237" s="35"/>
       <c r="D237" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="E237" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F237" s="20"/>
+        <v>243</v>
+      </c>
+      <c r="E237" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F237" s="21"/>
     </row>
     <row r="238" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B238" s="42"/>
-      <c r="C238" s="34"/>
+      <c r="C238" s="35"/>
       <c r="D238" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="E238" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F238" s="20"/>
+        <v>244</v>
+      </c>
+      <c r="E238" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F238" s="21"/>
     </row>
     <row r="239" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B239" s="42"/>
-      <c r="C239" s="34"/>
+      <c r="C239" s="35"/>
       <c r="D239" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="E239" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F239" s="20"/>
-    </row>
-    <row r="240" customFormat="1" ht="18" hidden="1" spans="2:6">
+        <v>245</v>
+      </c>
+      <c r="E239" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F239" s="21"/>
+    </row>
+    <row r="240" customFormat="1" ht="18" spans="2:6">
       <c r="B240" s="42"/>
-      <c r="C240" s="34"/>
+      <c r="C240" s="35"/>
       <c r="D240" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="E240" s="19"/>
-      <c r="F240" s="20"/>
-    </row>
-    <row r="241" customFormat="1" hidden="1" spans="2:6">
+        <v>246</v>
+      </c>
+      <c r="E240" s="20"/>
+      <c r="F240" s="21"/>
+    </row>
+    <row r="241" customFormat="1" spans="2:6">
       <c r="B241" s="42"/>
-      <c r="C241" s="35"/>
+      <c r="C241" s="36"/>
       <c r="D241" s="14"/>
-      <c r="E241" s="19"/>
-      <c r="F241" s="20"/>
-    </row>
-    <row r="242" customFormat="1" ht="18" hidden="1" spans="2:6">
+      <c r="E241" s="20"/>
+      <c r="F241" s="21"/>
+    </row>
+    <row r="242" customFormat="1" ht="18" spans="2:6">
       <c r="B242" s="42"/>
-      <c r="C242" s="32" t="s">
-        <v>246</v>
+      <c r="C242" s="33" t="s">
+        <v>247</v>
       </c>
       <c r="D242" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="E242" s="19"/>
-      <c r="F242" s="20"/>
+        <v>248</v>
+      </c>
+      <c r="E242" s="20"/>
+      <c r="F242" s="21"/>
     </row>
     <row r="243" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B243" s="42"/>
-      <c r="C243" s="34"/>
+      <c r="C243" s="35"/>
       <c r="D243" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="E243" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F243" s="20"/>
-    </row>
-    <row r="244" customFormat="1" ht="18" hidden="1" spans="2:6">
+        <v>249</v>
+      </c>
+      <c r="E243" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F243" s="21"/>
+    </row>
+    <row r="244" customFormat="1" ht="18" spans="2:6">
       <c r="B244" s="42"/>
-      <c r="C244" s="34"/>
+      <c r="C244" s="35"/>
       <c r="D244" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="E244" s="19"/>
-      <c r="F244" s="20"/>
-    </row>
-    <row r="245" customFormat="1" ht="18" hidden="1" spans="2:6">
+        <v>250</v>
+      </c>
+      <c r="E244" s="20"/>
+      <c r="F244" s="21"/>
+    </row>
+    <row r="245" customFormat="1" ht="18" spans="2:6">
       <c r="B245" s="42"/>
-      <c r="C245" s="34"/>
+      <c r="C245" s="35"/>
       <c r="D245" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="E245" s="19"/>
-      <c r="F245" s="20"/>
-    </row>
-    <row r="246" customFormat="1" hidden="1" spans="2:6">
+        <v>251</v>
+      </c>
+      <c r="E245" s="20"/>
+      <c r="F245" s="21"/>
+    </row>
+    <row r="246" customFormat="1" spans="2:6">
       <c r="B246" s="42"/>
-      <c r="C246" s="35"/>
+      <c r="C246" s="36"/>
       <c r="D246" s="14"/>
-      <c r="E246" s="19"/>
-      <c r="F246" s="20"/>
-    </row>
-    <row r="247" customFormat="1" ht="18" hidden="1" spans="2:6">
+      <c r="E246" s="20"/>
+      <c r="F246" s="21"/>
+    </row>
+    <row r="247" customFormat="1" ht="18" spans="2:6">
       <c r="B247" s="42"/>
-      <c r="C247" s="32" t="s">
-        <v>251</v>
+      <c r="C247" s="33" t="s">
+        <v>252</v>
       </c>
       <c r="D247" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="E247" s="19"/>
-      <c r="F247" s="20"/>
+        <v>253</v>
+      </c>
+      <c r="E247" s="20"/>
+      <c r="F247" s="21"/>
     </row>
     <row r="248" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B248" s="42"/>
-      <c r="C248" s="34"/>
+      <c r="C248" s="35"/>
       <c r="D248" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="E248" s="19"/>
-      <c r="F248" s="20"/>
-    </row>
-    <row r="249" customFormat="1" ht="18" hidden="1" spans="2:6">
+        <v>254</v>
+      </c>
+      <c r="E248" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F248" s="21"/>
+    </row>
+    <row r="249" customFormat="1" ht="18" spans="2:6">
       <c r="B249" s="42"/>
-      <c r="C249" s="34"/>
+      <c r="C249" s="35"/>
       <c r="D249" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="E249" s="19"/>
-      <c r="F249" s="20"/>
-    </row>
-    <row r="250" customFormat="1" ht="18" hidden="1" spans="2:6">
+        <v>255</v>
+      </c>
+      <c r="E249" s="20"/>
+      <c r="F249" s="21"/>
+    </row>
+    <row r="250" customFormat="1" ht="18" spans="2:6">
       <c r="B250" s="42"/>
-      <c r="C250" s="34"/>
+      <c r="C250" s="35"/>
       <c r="D250" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="E250" s="19"/>
-      <c r="F250" s="20"/>
-    </row>
-    <row r="251" customFormat="1" ht="18" hidden="1" spans="2:6">
+        <v>256</v>
+      </c>
+      <c r="E250" s="20"/>
+      <c r="F250" s="21"/>
+    </row>
+    <row r="251" customFormat="1" ht="18" spans="2:6">
       <c r="B251" s="42"/>
-      <c r="C251" s="34"/>
+      <c r="C251" s="35"/>
       <c r="D251" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="E251" s="19"/>
-      <c r="F251" s="20"/>
-    </row>
-    <row r="252" customFormat="1" hidden="1" spans="2:6">
+        <v>257</v>
+      </c>
+      <c r="E251" s="20"/>
+      <c r="F251" s="21"/>
+    </row>
+    <row r="252" customFormat="1" spans="2:6">
       <c r="B252" s="42"/>
-      <c r="C252" s="35"/>
+      <c r="C252" s="36"/>
       <c r="D252" s="14"/>
-      <c r="E252" s="19"/>
-      <c r="F252" s="20"/>
+      <c r="E252" s="20"/>
+      <c r="F252" s="21"/>
     </row>
     <row r="253" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B253" s="42"/>
-      <c r="C253" s="32" t="s">
-        <v>257</v>
+      <c r="C253" s="33" t="s">
+        <v>258</v>
       </c>
       <c r="D253" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="E253" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F253" s="20"/>
+        <v>259</v>
+      </c>
+      <c r="E253" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F253" s="21"/>
     </row>
     <row r="254" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B254" s="42"/>
-      <c r="C254" s="34"/>
+      <c r="C254" s="35"/>
       <c r="D254" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="E254" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F254" s="20"/>
-    </row>
-    <row r="255" customFormat="1" ht="18" hidden="1" spans="2:6">
+        <v>260</v>
+      </c>
+      <c r="E254" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F254" s="21"/>
+    </row>
+    <row r="255" customFormat="1" ht="18" spans="2:6">
       <c r="B255" s="42"/>
-      <c r="C255" s="34"/>
+      <c r="C255" s="35"/>
       <c r="D255" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="E255" s="19"/>
-      <c r="F255" s="20"/>
-    </row>
-    <row r="256" customFormat="1" ht="18" hidden="1" spans="2:6">
+        <v>261</v>
+      </c>
+      <c r="E255" s="20"/>
+      <c r="F255" s="21"/>
+    </row>
+    <row r="256" customFormat="1" ht="18" spans="2:6">
       <c r="B256" s="42"/>
-      <c r="C256" s="34"/>
+      <c r="C256" s="35"/>
       <c r="D256" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="E256" s="19"/>
-      <c r="F256" s="20"/>
-    </row>
-    <row r="257" customFormat="1" ht="18" hidden="1" spans="2:6">
+        <v>262</v>
+      </c>
+      <c r="E256" s="20"/>
+      <c r="F256" s="21"/>
+    </row>
+    <row r="257" customFormat="1" ht="18" spans="2:6">
       <c r="B257" s="42"/>
-      <c r="C257" s="34"/>
+      <c r="C257" s="35"/>
       <c r="D257" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="E257" s="19"/>
-      <c r="F257" s="20"/>
-    </row>
-    <row r="258" customFormat="1" ht="18" hidden="1" spans="2:6">
+        <v>263</v>
+      </c>
+      <c r="E257" s="20"/>
+      <c r="F257" s="21"/>
+    </row>
+    <row r="258" customFormat="1" ht="18" spans="2:6">
       <c r="B258" s="42"/>
-      <c r="C258" s="34"/>
+      <c r="C258" s="35"/>
       <c r="D258" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="E258" s="19"/>
-      <c r="F258" s="20"/>
-    </row>
-    <row r="259" customFormat="1" ht="18" hidden="1" spans="2:6">
+        <v>264</v>
+      </c>
+      <c r="E258" s="20"/>
+      <c r="F258" s="21"/>
+    </row>
+    <row r="259" customFormat="1" ht="18" spans="2:6">
       <c r="B259" s="42"/>
-      <c r="C259" s="34"/>
+      <c r="C259" s="35"/>
       <c r="D259" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="E259" s="19"/>
-      <c r="F259" s="20"/>
-    </row>
-    <row r="260" customFormat="1" ht="18" hidden="1" spans="2:6">
+        <v>265</v>
+      </c>
+      <c r="E259" s="20"/>
+      <c r="F259" s="21"/>
+    </row>
+    <row r="260" customFormat="1" ht="18" spans="2:6">
       <c r="B260" s="42"/>
-      <c r="C260" s="34"/>
+      <c r="C260" s="35"/>
       <c r="D260" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="E260" s="19"/>
-      <c r="F260" s="20"/>
+        <v>266</v>
+      </c>
+      <c r="E260" s="20"/>
+      <c r="F260" s="21"/>
     </row>
     <row r="261" customFormat="1" ht="18" hidden="1" spans="2:6">
       <c r="B261" s="42"/>
-      <c r="C261" s="34"/>
+      <c r="C261" s="35"/>
       <c r="D261" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="E261" s="19"/>
-      <c r="F261" s="20"/>
-    </row>
-    <row r="262" customFormat="1" ht="18" hidden="1" spans="2:6">
+        <v>267</v>
+      </c>
+      <c r="E261" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F261" s="21"/>
+    </row>
+    <row r="262" customFormat="1" ht="18" spans="2:6">
       <c r="B262" s="42"/>
-      <c r="C262" s="34"/>
+      <c r="C262" s="35"/>
       <c r="D262" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="E262" s="19"/>
-      <c r="F262" s="20"/>
-    </row>
-    <row r="263" customFormat="1" hidden="1" spans="2:6">
+        <v>268</v>
+      </c>
+      <c r="E262" s="20"/>
+      <c r="F262" s="21"/>
+    </row>
+    <row r="263" customFormat="1" spans="2:6">
       <c r="B263" s="43"/>
-      <c r="C263" s="35"/>
+      <c r="C263" s="36"/>
       <c r="D263" s="14"/>
-      <c r="E263" s="19"/>
-      <c r="F263" s="20"/>
+      <c r="E263" s="20"/>
+      <c r="F263" s="21"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:F263">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="第01周"/>
+        <filter val="第02周"/>
+        <filter val="第03周"/>
+        <filter val="第04周"/>
+        <filter val="第05周"/>
+        <filter val="第06周"/>
+        <filter val="第09周"/>
+        <filter val="第10周"/>
+        <filter val="第11周"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="1">
       <filters>
-        <filter val="Trie"/>
         <filter val="堆"/>
+        <filter val="栈和队列"/>
+        <filter val="找规律题"/>
+        <filter val="纯编程题"/>
+        <filter val="递归和分治"/>
+        <filter val="二分查找"/>
+        <filter val="二叉树题型4：二叉查找树"/>
+        <filter val="二叉树题型3：二叉树上的递归"/>
+        <filter val="滑动窗口"/>
+        <filter val="动态规划题型：背包"/>
+        <filter val="二叉树题型1：二叉树前中后序遍历"/>
+        <filter val="位运算"/>
+        <filter val="动态规划题型：匹配问题"/>
+        <filter val="二叉树题型8：二叉树上的最长路径和&#10;以下选做，等到学完回溯之后再来做"/>
+        <filter val="动态规划题型：路径"/>
+        <filter val="动态规划题型：其他"/>
         <filter val="哈希表"/>
+        <filter val="二叉树题型5：LCA最近公共祖先"/>
+        <filter val="二叉树题型7：按照遍历结果反向构建二叉树"/>
+        <filter val="前缀后缀统计"/>
+        <filter val="二叉树题型2：二叉树按层遍历"/>
+        <filter val="双指针"/>
+        <filter val="选做题"/>
+        <filter val="二叉树题型6：二叉树转单、双、循环链表"/>
+        <filter val="动态规划题型：爬楼梯问题"/>
+        <filter val="动态规划题型：买卖股票 &amp; 打家劫舍"/>
       </filters>
     </filterColumn>
     <filterColumn colId="3">
